--- a/deuChatbot/research_result/version_1(1500_0).xlsx
+++ b/deuChatbot/research_result/version_1(1500_0).xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F269"/>
+  <dimension ref="A1:F369"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17739,6 +17739,7070 @@
         </is>
       </c>
     </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 실기시험의 주요 정보들을 포함하고 있지만, 일부 배점이 잘못 기재되어 있습니다. 예를 들어, 시각디자인의 배점이 490점으로 잘못 기재되었고, 산업디자인과 공예디자인의 배점이 누락되었습니다. 따라서 사실성 점수는 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 정보를 반영하고 있지만, 배점과 종목에 대한 정보가 일관되지 않습니다. 예를 들어, 시각디자인의 배점이 원본과 다르게 기재되어 있어 일관성이 떨어집니다. 따라서 일관성 점수는 3으로 평가합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련된 정보를 잘 다루고 있습니다. 실기시험의 종목, 준비물, 주제 선정 방법 등 중요한 요소들이 포함되어 있어 관련성 점수는 5로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 유창성 점수를 낮추었습니다. 따라서 유창성 점수는 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적인 흐름을 가지고 있으며, 각 섹션이 잘 연결되어 있습니다. 그러나 일부 정보가 중복되거나 불필요하게 반복되는 경향이 있어 완전한 일관성에는 미치지 못합니다. 따라서 일관성 점수는 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 배점과 관련된 정보에서 오류가 있어 정확성 점수는 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 관련성, 유창성, 일관성 등에서 좋은 점수를 받았습니다. 그러나 사실성과 정확성에서의 문제로 인해 다차원 품질 점수는 4로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 그러나 일부 세부 사항에서 약간의 차이가 있어 점수를 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 정보가 명확하게 전달됩니다. 그러나 일부 문장이 복잡하게 구성되어 있어 이해하기 어려운 부분이 있어 점수를 4로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C270" t="n">
+        <v>0.8484983871523419</v>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대해서 설명해줘.</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험은 시각디자인, 산업디자인, 공예디자인 세 가지 종목 중 하나를 선택하여 응시하게 됩니다. 각 종목별로 배점이 다르며, 전체 실기시험 점수는 700점으로 구성됩니다.
+### 디자인조형학과 실기시험 종목별 정보
+#### 1. 시각디자인
+- **배점**: 490점 (70%)
+- **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- **실기주제**: 주제A와 주제B에서 각각 하나를 선택하여 연결된 주제로 작업합니다. 예시로는 "잠자리와 저울" 또는 "콜라병과 계절"과 같은 주제가 될 수 있습니다.
+- **화지크기**: 켄트지 3절
+- **시간**: 5시간
+#### 2. 산업디자인
+- **배점**: 140점 (20%)
+- **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- **실기주제**: 주제A와 주제B에서 각각 하나를 선택하여 연결된 주제로 작업합니다. 예시로는 "콜라병과 계절" 또는 "잠자리와 저울"과 같은 주제가 될 수 있습니다.
+- **화지크기**: 켄트지 2절
+- **시간**: 5시간
+#### 3. 공예디자인
+- **배점**: 70점 (10%)
+- **준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- **실기주제**: 주제A와 주제B에서 각각 하나를 선택하여 연결된 주제로 작업합니다. 예시로는 "콜라병과 계절" 또는 "잠자리와 저울"과 같은 주제가 될 수 있습니다.
+- **화지크기**: 켄트지 2절
+- **시간**: 5시간
+### 준비사항 및 주의사항
+1. **준비물**: 모든 종목에서 볼펜, 연필, 색연필, 수채물감 등이 필요합니다. 개인적으로 필요한 도구를 가져와야 합니다.
+2. **주제 선정**: 당일에 주어지는 주제 중에서 각각 하나씩 선택하여 작업해야 합니다.
+3. **화지크기 및 시간**: 모든 종목은 켄트지 3절 또는 2절을 사용하며, 작업 시간은 5시간입니다.
+### 추가 정보
+- **주제 선정 방법**: 당일에 추첨을 통해 주제가 결정됩니다.
+- **표현 제한**: 제공된 사물과 이미지는 표현할 수 있지만, 다른 형상은 표현하지 않아야 합니다. 또한 색상 변경도 금지되어 있습니다.
+이러한 정보를 참고하여 디자인조형학과의 실기시험을 준비하시면 도움이 될 것입니다.</t>
+        </is>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대한 정보는 다음과 같습니다:
+ 모집단위 및 실기종목
+- 모집단위: 시각디자인, 산업디자인, 공예디자인
+- 실기종목: 기초디자인, 사고의 전환
+종목별 배점(비율)
+- 배점 : 700점 (70%)
+실기종목별 준비물, 실기주제, 화지크기 및 시험시간
+1. 기초디자인
+- 준비물 : 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기 : 켄트지 3절
+- 시험시간 : 5시간
+2.사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시험시간: 5시간
+이와 같은 정보는 디자인조형학과 실기시험을 준비하는 데 중요한 요소들입니다. 추가적인 정보나 문의사항이 있다면 "https://ipsi.deu.ac.kr/main.do"를 방문하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 디자인조형학과의 실기종목에 대한 정보를 제공하고 있지만, '시각디자인', '산업디자인', '공예디자인'이라는 항목은 원본 텍스트에 포함되어 있지 않으며, 실기종목에 대한 정확한 정보가 누락되어 있습니다. 또한, 배점 비율에 대한 정보도 원본에 없던 내용입니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보(시각디자인, 산업디자인, 공예디자인)를 포함하고 있어 일관성이 떨어집니다. 원본 텍스트의 실기종목과는 다른 내용을 제시하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 디자인조형학과의 실기종목에 대한 정보를 다루고 있지만, 원본 텍스트의 주요 내용과는 다소 차이가 있습니다. 실기종목에 대한 정보는 포함되어 있으나, 추가된 정보가 원본의 주제와 관련이 적습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 개선이 필요합니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 원본 텍스트와의 연결이 부족하여 일관된 흐름이 떨어집니다. 특히, 새로운 정보가 추가되어 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보(시각디자인, 산업디자인, 공예디자인)를 포함하고 있어 정확성이 낮습니다. 원본의 실기종목에 대한 정보가 왜곡되었습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원본 텍스트와의 일치성이 떨어지며, 사실성, 일관성, 정확성 모두에서 낮은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 디자인조형학과의 실기종목에 대한 정보를 제공하지만, 원본 텍스트와의 의미적 일치가 부족합니다. 새로운 정보가 추가되어 원본의 의미와 다르게 해석될 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 원본과의 차이로 인해 혼란을 줄 수 있는 요소가 있습니다. 
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C271" t="n">
+        <v>0.8162044353559192</v>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목과 준비물, 실기주제, 화지크기, 시간에 대해서 알려줘.</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목은 다음과 같습니다:
+- **시각디자인**
+- **산업디자인**
+- **공예디자인**
+- **기초디자인 / 사고의 전환**
+각 종목별 배점 비율은 다음과 같습니다:
+- 시각디자인: 70%
+- 산업디자인: 30%
+**준비물**: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구가 필요합니다.
+**실기주제**: 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 당일 추첨으로 결정합니다. 예시로는 다음과 같은 주제들이 있습니다:
+- **기초디자인 / 사고의 전환**
+  - 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+  - 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+**화지크기**: 켄트지3절 또는 켄트지2절 (종류에 따라 다름)
+**시간**: 5시간
+위 정보는 각 실기 종목별로 동일하게 적용됩니다.</t>
+        </is>
+      </c>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보는 다음과 같습니다:
+1.실기종목: 기초디자인
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기: 켄트지 3절
+- 시간: 5시간
+2.실기종목: 사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시간: 5시간</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 대회 목록과 세부 사항이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보가 서로 모순되지 않고 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 질문에 대한 직접적인 답변을 제공합니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조가 매끄럽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 명확합니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C272" t="n">
+        <v>0.9621974469810803</v>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회에는 어떤 대회들이 있는지 알려줘.</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 경기지도학과 모집종목별 인정대회에 다음과 같은 대회들이 포함됩니다:
+배드민턴(남):
+- 한국중·고연맹회장기 전국학생선수권대회
+- 대한배드민턴협회장기 전국종별배드민턴선수권대회 
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종 국제대회 (국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남):
+- 춘계 한국고등학교축구연맹전
+- 추계 한국고등학교축구연맹전
+- 대한축구협회장배 전국고등학교축구대회
+- 문화체육관광부장관기 전국고등학교축구대회
+- 문화체육관광부장관배 전국고등학교축구대회
+- 백운기 전국고등학교축구대회
+- 전국 고등축구리그 (권역별고교축구리그)
+- 전국 고등축구리그 왕중왕전
+- 무학기 전국고등학교축구대회
+- 청룡기 전국고등학교축구대회
+- 백록기 전국고등학교축구대회
+- 금강대기 전국고등학교축구대회
+- 대통령금배 전국고등학교축구대회
+- 금석배 전국고등학생축구대회
+- 부산 MBC 전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십 왕중왕전</t>
+        </is>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회는 다음과 같습니다:
+배드민턴(남)
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회
+- 주니어국제대회(국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 주제A와 주제B의 목록 및 시험 당일의 절차를 올바르게 설명하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 서로 충돌하지 않고 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 내용을 직접적으로 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C273" t="n">
+        <v>0.7893946715304214</v>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험에 있는 주제들을 모두 알려줘.</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 디자인조형학과의 기초디자인 실기시험에서는 주제A와 주제B를 각각 하나씩 선택하여 연결된 주제로 만듭니다. 제공된 주제들은 다음과 같습니다:
+1. 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+2. 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+당일에는 이 주제들 중에서 각각 하나씩을 선택하여 연결된 주제를 만듭니다.</t>
+        </is>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험 주제는 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+시험 당일에는 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 추첨하게 됩니다. 예시로는 "잠자리와 저울"이 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 학생부 교과 전형에서 출결 점수가 반영되지 않는다는 사실을 정확하게 반영하고 있습니다. 그러나 학생부종합 전형에 대한 언급이 포함되어 있어, 주제와 약간의 혼동을 줄 수 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 응답은 학생부 교과 전형에 대한 질문에 답하고 있지만, 학생부종합 전형에 대한 정보가 추가되어 있어 일관성이 떨어질 수 있습니다. 두 전형의 차이를 명확히 하지 않으면 혼란을 초래할 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 학생부 교과 전형에서 출결 점수가 반영되지 않는다는 질문에 직접적으로 관련된 정보를 제공합니다. 추가적인 정보도 포함되어 있어 유용합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 문장은 전반적으로 잘 구성되어 있으며, 문법적으로도 큰 문제가 없습니다. 다만, 약간의 복잡한 문장 구조가 있어 읽기에는 조금 더 수월할 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 응답은 논리적으로 연결되어 있으며, 주제에 대한 흐름이 잘 유지되고 있습니다. 그러나 학생부종합 전형에 대한 언급이 추가되어 약간의 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 학생부 교과 전형에서 출결 점수가 반영되지 않는다는 사실을 정확하게 전달하고 있습니다. 그러나 학생부종합 전형에 대한 정보가 포함되어 있어 정확성에 약간의 영향을 미칠 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 관련성, 유창성, 일관성 등에서 좋은 점수를 받고 있습니다. 그러나 약간의 혼란 요소가 있어 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 응답은 주제와 관련된 의미를 잘 전달하고 있으나, 학생부종합 전형에 대한 언급이 주제와 약간의 불일치를 초래할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉽지만, 학생부종합 전형에 대한 추가 정보가 혼란을 줄 수 있습니다. 명확한 설명이 필요할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C274" t="n">
+        <v>0.6068837342556285</v>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>학생부교과 전형에서 출결 점수가 반영되나요?</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>2024학년도 동점자 처리기준 표에 따르면, 학생부종합(조기취업형계약학과전형)에서는 교과 성적을 평균하는 방법으로 등급 평균을 산출하는데, 출결 점수가 포함되지 않습니다. 
+따라서, 학생부교과 전형에서 출결 점수는 반영되지 않는 것으로 보입니다.
+만약 다른 전형 유형이나 특정 단과대학의 경우가 다르다면, 해당 정보를 확인하기 위해 공식 홈페이지나 연락처를 통해 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>아니요. 학생부 교과 전형에서는 출결 점수가 반영되지 않습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 모집 인원인 17명을 정확히 언급하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 정보가 서로 충돌하지 않고 일치합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 모든 품질 차원에서 우수한 성능을 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C275" t="n">
+        <v>0.8222601578137468</v>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>17명을 모집합니다. 
+참조 정보:
+- 표 제목 : 가군 수능(일반학생전형), 실기/실적(일반학생전형) 모집단위 및 모집인원
+- 해당 내용 : 인문사회과학대학 / 인문사회 / 국어국문학과 - 교직 / 17 /
+따라서, 인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로는 17명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 17명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 모집 인원인 28명을 정확히 언급하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 유창하게 작성되었으나, 약간의 문장 구조가 다소 복잡할 수 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 다소 복잡할 수 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C276" t="n">
+        <v>0.6347361161110677</v>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 영어영문학과에서 다군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>28명을 모집합니다.
+인문사회과학대학 / 인문사회 / 영어영문학과 - 교직 / 28 /
+이 항목은 다군 수능(일반학생전형)의 모집단위와 모집인원을 나타내고 있으며, 영어영문학과 - 교직의 경우 28명을 모집한다고 명시되어 있습니다.</t>
+        </is>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학 영어영문학과의 경우, 다군 일반학생 전형을 통해 총 28명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 모집 인원에 대한 사실이 잘못되었습니다. 원본 텍스트에서는 22명의 신입생을 선발한다고 명시되어 있지만, 생성된 응답에서는 110명이라고 잘못 언급하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 모집 인원에 대한 정보가 상충합니다. 따라서 일관성이 없습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 간호학과의 나군 일반학생 전형 모집 인원에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, "일반학생전형"이라는 표현이 붙어 있어 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 연결되어 있으며, 주제에 대한 명확한 정보를 제공합니다. 그러나 원본 텍스트와의 불일치로 인해 완전한 일관성을 가지지 않습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 모집 인원에 대한 정보가 잘못되어 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 사실성과 정확성에서 큰 문제를 가지고 있지만, 관련성과 유창성은 양호합니다. 그러나 전반적으로 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 의미적으로 부적절합니다. 모집 인원에 대한 잘못된 정보가 포함되어 있어 원본 텍스트의 의미와 일치하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C277" t="n">
+        <v>0.7486260300184002</v>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>의료보건생활대학 간호학과 나군 일반학생 전형 모집 인원을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과의 나군 일반학생전형 모집인원은 110명입니다.</t>
+        </is>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과의 경우, 나군 일반학생 전형을 통해 총 22명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 수능 영어 등급에 따른 점수를 정확하게 나열하고 있으며, 원본 텍스트의 내용을 잘 반영하고 있습니다. 그러나 "이 점수들은 각 등급에 해당하는 수능 영어 성적을 받은 학생들이 받는 평균 점수입니다."라는 문장은 원본 텍스트에 명시되어 있지 않은 추가 정보로, 약간의 부정확성을 포함하고 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 일관되게 정보를 제공하고 있습니다. 그러나 추가된 문장이 원본 텍스트의 정보와 완전히 일치하지 않기 때문에 완벽한 일관성은 아닙니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제인 수능 영어 등급과 점수에 직접적으로 관련이 있으며, 모든 주요 포인트를 잘 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 문장 간의 연결이 조금 더 매끄럽게 이루어질 수 있었던 점이 아쉽습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다. 그러나 추가된 문장이 원본 텍스트와의 연결성을 약간 떨어뜨릴 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 점수 정보를 정확하게 전달하고 있지만, 추가된 설명이 원본의 사실과 완전히 일치하지 않기 때문에 약간의 부정확성이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행하고 있으며, 전반적으로 높은 점수를 받을 수 있습니다. 그러나 일부 부정확성과 일관성 문제로 인해 완벽한 점수는 아닙니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 추가된 문장이 원본의 의미를 약간 왜곡할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 추가된 문장이 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C278" t="n">
+        <v>0.8675547584961326</v>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>수능 영어 등급에 따른 점수를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 수능 영어 등급에 따른 점수는 다음과 같습니다:
+1등급: 139  
+2등급: 131  
+3등급: 123  
+4등급: 115  
+5등급: 107  
+6등급: 99  
+7등급: 91  
+8등급: 83  
+9등급: 75  
+이 점수들은 각 등급에 해당하는 수능 영어 성적을 받은 학생들이 받는 평균 점수입니다.</t>
+        </is>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>수능 영어영역 등급에 따른 점수는 다음과 같습니다:
+- 1등급: 139점
+- 2등급: 131점
+- 3등급: 123점
+- 4등급: 115점
+- 5등급: 107점
+- 6등급: 99점
+- 7등급: 91점
+- 8등급: 83점
+- 9등급: 75점</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원할 수 없다는 사실을 명확히 전달하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 예술고 학생의 지원 불가능성을 반복적으로 강조하고 있습니다. 정보의 일관성이 유지되고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 예술고 학생의 지원 자격에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 유창하게 작성되었으나, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다. 그러나 전반적인 문법과 문장 구조는 양호합니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다. 다만, 일부 부분에서 더 명확한 연결이 필요할 수 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보나 누락된 내용이 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 의미 전달이 명확합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장에서 약간의 복잡함이 있어 더 간단하게 표현될 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C279" t="n">
+        <v>0.6723118859993895</v>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 예술고 학생은 나군 학생부교과(농어촌학생전형)로 지원할 수 없습니다. 
+표에서 확인할 수 있는 내용에 따르면, 특성화고의 경우 다음과 같이 제한되어 있습니다:
+- 특성화고 { 특성(직업) / 특성(대안) }
+  - 지원 가능
+  - 지원 가능
+  - 지원 가능
+  - 지원 가능
+  - 지원 불가능 
+  - 지원 불가능
+특히 예술고는 "지원 불가능"으로 표기되어 있어, 예술고 학생은 나군 학생부교과(농어촌학생전형)로 지원할 수 없습니다.
+따라서 예술고 학생이 농어촌 지역에서 교육받았다면 다른 특성화고나 일반 고등학교를 통해 이 전형을 신청해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>아니요, 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 지원자격에 따르면 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 기록과 배점 정보를 완전히 잘못 전달하고 있습니다. 원본 텍스트에 따르면 4등급의 기록은 218~221 cm이고 배점은 275점입니다. 그러나 생성된 응답에서는 252~255 cm와 175점으로 잘못 기재되어 있습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 상충되는 정보를 제공합니다. 기록과 배점 모두 원본과 일치하지 않으므로 일관성이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 주제와 관련이 있으며, 레저스포츠학과 여자 제자리 멀리뛰기 4등급에 대한 정보를 제공하고 있습니다. 그러나 제공된 정보가 잘못되었기 때문에 관련성은 있지만 유용하지 않습니다.
+4. Fluency Score (1-5): 4
+   - 문장은 전반적으로 잘 구성되어 있으며, 문법적으로도 큰 문제가 없습니다. 읽기에도 무리가 없습니다.
+5. Coherence Score (1-5): 4
+   - 응답은 논리적으로 연결되어 있으며, 문장 간의 흐름이 자연스럽습니다. 그러나 내용이 잘못되었기 때문에 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 제공된 정보는 원본 텍스트와 비교했을 때 매우 부정확합니다. 기록과 배점 모두 잘못 기재되어 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서 평가했을 때, 사실성과 정확성에서 큰 문제가 있으며, 일관성도 부족합니다. 그러나 관련성과 유창성은 어느 정도 유지되고 있습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 의미적으로는 주제에 맞는 정보를 제공하고 있지만, 잘못된 정보로 인해 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 응답은 명확하게 작성되어 있어 이해하기 쉽습니다. 그러나 잘못된 정보로 인해 신뢰성이 떨어집니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C280" t="n">
+        <v>0.8037511869233469</v>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>4등급의 제자리 멀리뛰기 여자 기록은 252~255cm이며, 이 기록에 대한 배점은 175점입니다.
+따라서 레저스포츠학과 여자 4등급 제자리 멀리뛰기는 252~255cm를 달성하면 175점을 받을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점은 다음과 같습니다:
+- 기록: 218~221 cm
+- 배점: 275점</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 출결 반영 비율이 12%라는 사실을 정확하게 반영하고 있으며, 추가적인 정보도 제공하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 출결 비율에 대한 정보가 일치합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 출결 반영 비율에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가적인 세부사항도 정확합니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬운 방식으로 정보를 전달하고 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C281" t="n">
+        <v>0.6853042162694047</v>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>동의대학교 경기지도학과 출결 반영 비율을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 경기지도학과 실기/실적(경기실적우수자전형)에서는 출결이 12%를 반영합니다.
+상세 정보는 다음과 같습니다:
+- 학생부 교과성적 : 18%
+- 출결 : 12%
+- 서류(경기실적) : 70%
+따라서 경기지도학과의 경우, 출결은 총 전형요소 중에서 12%를 차지합니다.</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>경기지도학과의 출결 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 모집 인원 수에 대한 사실이 잘못되었습니다. 원문에서는 4명을 모집한다고 명시되어 있지만, 생성된 응답에서는 3명으로 잘못 언급하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일치하지 않으며, 모집 인원 수에 대한 정보가 상충합니다. 따라서 일관성이 낮습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있으며, 물리치료학과의 모집 인원에 대한 질문에 적절하게 답변하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 올바르며, 자연스럽고 읽기 쉬운 문장으로 작성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 문장 간의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 모집 인원 수에 대한 정보가 잘못되어 있어 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 관련성, 유창성, 일관성 측면에서는 좋지만, 사실성과 정확성이 낮아 전체적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하지만, 잘못된 정보로 인해 완전한 적합성은 부족합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 문장으로 작성되어 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C282" t="n">
+        <v>0.8920069840899933</v>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 물리치료학과에 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 물리치료학과는 3명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 날짜 정보를 정확하게 반영하고 있으며, 추가적인 정보도 관련성이 높습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 추가된 정보가 원본의 내용과 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 제공하며, 질문에 대한 직접적인 답변을 포함하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 이해하기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 의미 전달이 명확합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C283" t="n">
+        <v>0.5573015887831936</v>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사 일정은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사는 1월 17일(수)에 실시됩니다.
+관련 정보는 다음과 같습니다:
+- **일정**: 2024. 01. 17.(수)
+- **대기실 및 입실시간 안내**: 2024. 01. 12.(금) 14:00 이후, 입학안내 홈페이지에서 조회 가능
+이 정보는 [전형일정] 표에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>2024. 01. 17.(수) 입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 수능 최저 학력 기준이 없다는 사실을 잘 반영하고 있으며, 응용화학과에 대한 추가 정보를 제공하고 있습니다. 그러나 "정확한 수능 최저기준 정보가 제공된 표에서 확인할 수 없습니다."라는 문장은 다소 모호하게 느껴질 수 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 응답은 원본 텍스트와 일관되며, 수능 최저 기준이 없다는 점을 강조하고 있습니다. 다만, 응용화학과에 대한 특정 전형 유형에 대한 언급이 추가되어 있어 약간의 일관성 문제를 느낄 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 직접적으로 관련이 있으며, 수능 최저 기준에 대한 정보를 요청하는 질문에 적절하게 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 문장은 전반적으로 잘 구성되어 있으며, 읽기 쉽습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 응답은 논리적으로 잘 연결되어 있으며, 정보가 명확하게 전달됩니다. 그러나 몇 가지 문장이 다소 중복되어 있어 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 수능 최저 기준이 없다는 점을 정확하게 전달하고 있습니다. 그러나 응용화학과에 대한 추가 정보는 다소 추측적인 요소가 포함되어 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받을 수 있습니다. 그러나 약간의 일관성 문제와 어색한 표현이 있어 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 그러나 일부 표현이 다소 모호하게 느껴질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C284" t="n">
+        <v>0.4605732934699893</v>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 응용화학과의 수능 최저기준은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 응용화학과의 정확한 수능 최저기준 정보가 제공된 표에서 확인할 수 없습니다. 제공된 표는 각 전형 유형별로 수능 최저기준이 없음을 나타내고 있으며, 응용화학과는 특정 전형 유형에 속하지 않습니다.
+만약 응용화학과의 수능 최저기준을 알고 싶다면, 다음과 같은 방법을 추천드립니다:
+1. 동의대학교 입학처 웹사이트를 방문하여 공식 안내서나 주요 변경사항을 확인합니다.
+2. 입학사정관이 참여하는 전형인 경우, 해당 전형의 특별한 수능 최저기준이 정해져 있을 수 있습니다.
+3. 직접 동의대학교 입학처에 문의하여 가장 정확한 정보를 얻는 것이 좋습니다.
+현재 제공된 표에서는 응용화학과의 수능 최저기준을 확인할 수 없습니다. 추가 정보가 필요하다면 위 방법들을 활용해보세요.</t>
+        </is>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>수능 최저 학력 기준은 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 신설된 학과 목록에서 '부동산자산경역학부'라는 잘못된 정보를 포함하고 있으며, '심리학과', '스마트항만물류학과', '창업투자경영학과'가 누락되었습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있으며, 신설된 학과의 수와 내용이 다릅니다. 이로 인해 일관성 점수도 낮습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교의 신설 학과에 대한 질문에 답하고 있으나, 잘못된 정보가 포함되어 있어 일부 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 표현이 다소 어색할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 응답은 전반적으로 일관된 구조를 가지고 있으나, 잘못된 정보로 인해 논리적 흐름이 약간 손상되었습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 사실과 일치하지 않는 정보가 포함되어 있어 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 응답의 질이 낮으며, 사실성, 일관성, 정확성 모두에서 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 의미적으로는 적절한 부분이 있으나, 잘못된 정보로 인해 전체적인 의미 전달이 저해되고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉬우나, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C285" t="n">
+        <v>0.6850264595272014</v>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 학과로는 다음과 같습니다:
+1. 경기지도학과 (신설)
+2. 라이프융합학부 (신설) - 스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학 포함
+3. 부동산자산경역학부 (신설) - 부동산투자학, 부동산개발경영학 포함
+위와 같이 동의대학교에서는 2024학년도에 세 가지 신설 학과를 도입하였습니다.</t>
+        </is>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 다음과 같습니다:
+1. 심리학과
+2. 스마트항만물류학과
+3. 창업투자경영학과
+4. 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+5. 경기지도학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 서류와 면접의 비율을 올바르게 제시하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 추가적인 설명이 원본의 정보와 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 읽기 쉽게 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬운 방식으로 정보를 전달하고 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C286" t="n">
+        <v>0.8239556769098433</v>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 다음과 같습니다:
+- 서류 평가: 70%
+- 면접 평가: 30%
+이 비율은 성인학습자전형에 적용되는 일반적인 규칙이며, 다른 학생부종합 전형과 동일합니다.</t>
+        </is>
+      </c>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 서류 70%, 면접 30%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 수능 가산점이 적용되는 모집단위와 가산점의 비율에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 가산점 적용에 대한 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창하게 작성되었습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 내용의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C287" t="n">
+        <v>0.820015637611867</v>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 어떤 학과에서 수능 가산점을 적용하나요?</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교에서는 의료·보건·생활대학, 공과대학, ICT융합공과대학 모집단위에서 수능 수학(미적분 또는 기하) 응시자에게 가산점이 부여됩니다. 이 경우 수학 취득 표준점수의 10%가 추가 점수가 됩니다.
+따라서, 해당 학과에서 수학을 응시한 학생들은 그 점수가 10% 증가하여 총 성적에 반영됩니다.</t>
+        </is>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 다음 모집단위에서 수능 가산점을 적용합니다:
+- 의료·보건·생활대학
+- 공과대학
+- ICT융합공과대학
+이들 모집단위에서 수학(미적분 또는 기하)을 응시한 경우, 수학 취득 표준점수의 10%를 가산점으로 부여합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 수능 성적이 100% 반영된다는 사실을 정확하게 전달하고 있지만, "다군"이라는 용어가 사용되어 원문과의 일관성이 떨어진다. 원문에서는 "가군"이라고 명시되어 있으므로, 이 부분에서 약간의 부정확성이 있다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 가군에 대한 정보를 제공하고 있지만, "다군"이라는 용어 사용으로 인해 원문과의 일관성이 부족하다. 이로 인해 응답이 일관되지 않게 느껴질 수 있다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 다루고 있는 주제와 관련이 깊으며, 수능 성적 반영에 대한 정보를 명확하게 전달하고 있다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있지만, "다군"이라는 용어 사용으로 인해 약간의 혼란을 줄 수 있다.
+5. Coherence Score (1-5): 4
+   - 설명: 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달되지만, "다군"이라는 용어로 인해 약간의 일관성이 떨어진다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 수능 성적이 100% 반영된다는 사실을 정확하게 전달하지만, "다군"이라는 잘못된 용어 사용으로 인해 정확성이 떨어진다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 응답은 여러 차원에서 좋은 품질을 보이지만, "다군"이라는 용어 사용으로 인해 약간의 문제점이 있다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 응답의 의미는 대체로 적절하지만, "다군"이라는 용어 사용으로 인해 원문의 의미와 약간의 차이가 발생한다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉽지만, "다군"이라는 용어로 인해 약간의 혼란을 줄 수 있다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C288" t="n">
+        <v>0.7953769521036778</v>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 가군에서 수능 성적을 어떻게 반영하나요?</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서는 수능 성적이 전 모집단위에 대해 100%로 반영됩니다.
+이 정보는 "다군 수능(일반학생전형) 전형요소 반영비율" 표에서 확인할 수 있으며, 해당 표에는 다음과 같이 명시되어 있습니다:
+```
+다군 수능(일반학생전형) / 전 모집단위 / { 100% / } /
+```
+따라서 가군의 모든 모집단위는 지원자의 수능 성적을 100%로 반영합니다.</t>
+        </is>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 가군 수능(일반학생전형)에서는 수능 성적을 100% 반영합니다. 자세한 수능 성적 반영 방법은 '38페이지 Ⅴ. 수능성적 반영방법'을 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 날짜와 관련된 정보가 정확하며, 실기고사가 레저스포츠학과와 태권도학과에서 실시된다는 추가 정보도 포함되어 있어 사실적입니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 날짜와 관련된 정보가 일치합니다. 추가된 학과 정보도 원본의 내용과 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용과 관련이 있으며, 실기고사 날짜와 관련된 정보를 제공하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조도 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 추가된 정보도 의미적으로 적절합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C289" t="n">
+        <v>0.763730358356731</v>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기고사 날짜는 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기고사는 레저스포츠학과와 태권도학과에서 실시되며, 날짜는 2024년 1월 16일(화)입니다.</t>
+        </is>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 한의예과, 디자인조형학과, 체육학과, 경기지도학과가 제외된다는 사실을 언급하고 있지만, "실기/실적 위주 전형으로 분류되어 제외되었습니다"라는 부분은 원문에 명시된 내용이 아니며, 한의예과만 제외된다는 후속 설명도 원문과 일치하지 않습니다. 따라서 일부 사실이 왜곡되었습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일부 일치하지만, "한의예과만 제외된 상태로 진행됩니다"라는 부분은 원문과 모순됩니다. 원문에서는 모든 학과가 제외된다고 명시되어 있으므로 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 다루고 있는 주제와 관련이 있으며, 나군 수능(일반학생전형) 전형에서 제외되는 학과에 대한 정보를 제공합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 연결되어 있으며, 전반적으로 일관된 흐름을 가지고 있습니다. 그러나 일부 정보가 원문과 일치하지 않아 완전한 일관성을 보장하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원문과의 불일치로 인해 정확성이 떨어집니다. 특히, 한의예과만 제외된다는 부분은 사실과 다릅니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 사실성과 일관성에서 부족함이 있지만, 관련성과 유창성은 양호합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원문의 의미를 전달하려고 하지만, 일부 내용이 왜곡되어 있어 의미적으로 완전하게 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보 전달이 이루어지고 있습니다. 다만, 일부 모순된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C290" t="n">
+        <v>0.7653858657644311</v>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 나군 수능(일반학생전형) 전형에서는 어떤 모집단위가 제외되나요?</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 수능(일반학생전형)에서는 한의예과, 디자인조형학과, 체육학과, 경기지도학과가 실기/실적 위주 전형으로 분류되어 제외되었습니다.
+이 점을 고려하여 나군 수능(일반학생전형)은 전 모집단위에서 한의예과(수학(미적분/기하), 수학(확률과통계))만 제외된 상태로 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군 수능(일반학생전형) 전형에서는 한의예과, 디자인조형학과와 체육학과, 경기지도학과가 제외됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 수능 최저기준이 적용되지 않는다는 사실을 명확히 전달하고 있습니다. 추가적으로 표에서의 명시도 언급하여 정보의 신뢰성을 높이고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 수능 최저기준이 적용되지 않는다는 주장을 반복하여 강조하고 있습니다. 모든 정보가 서로 충돌하지 않고 일관성을 유지하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 핵심 주제인 수능 최저기준의 적용 여부에 직접적으로 관련된 내용을 다루고 있습니다. 추가적인 정보도 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기 쉽고 이해하기 쉬운 구조를 가지고 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가적인 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 내용을 쉽게 파악할 수 있도록 잘 구성되어 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C291" t="n">
+        <v>0.8182154536123935</v>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 다군 전형에서 수능 최저기준이 적용되나요?</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 다군 전형에서 수능 최저기준은 적용되지 않습니다. 이는 표에서 "수능최저기준 없음"으로 명시되어 있습니다.
+관련 정보:
+- [표 제목] : 다군 수능(일반학생전형) 전형요소 반영비율
+- [표 내용] :
+```
+다군 수능(일반학생전형) / 180 / 일괄 합산 / { 0 /  0 /  0 /  0 /  0 /  100 / } / 수능최저기준 없음 /
+```
+따라서, 다군 전형에서는 수능 최저기준이 적용되지 않습니다.</t>
+        </is>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024학년도 동의대의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 학과의 분리 및 명칭 변경에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 학과의 분리 정보가 일치합니다. 모순되는 내용이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 핵심 포인트에 직접적으로 관련이 있으며, 학과 분리에 대한 정보를 잘 전달하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러우며, 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C292" t="n">
+        <v>0.8290859580689791</v>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 어떤 학과가 학부에서 학과로 분리되었나요?</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서는 여러 학과가 학부에서 학과로 분리되었습니다. 특히 다음과 같은 학과들이 학부에서 학과로 분리되었습니다:
+1. 보육·가정상담학과 - 아동학과
+2. 경제금융보험학과 - 금융경영학과
+3. 정보경영학부(경영정보학, e비즈니스학) - 경영정보학과, e비즈니스학과
+4. 부동산금융·자산경영학과 - 부동산투자학, 부동산개발경영학
+5. 기계자동차로봇부품공학부(기계공학, 로봇·자동화공학, 자동차공학) - 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) - 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) - 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) - 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) - 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간·시스템디자인공학, 제품디자인공학) - 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) - 산업경영빅데이터공학과
+이 외에도 일부 학과는 학부 통합 또는 명칭 변경을 통해 변화하였습니다.</t>
+        </is>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 학부에서 학과로 분리된 학과는 다음과 같습니다:
+1. 보육가정상담학과 → 아동학과
+2. 경제금융보험학과 → 금융경영학과
+3. 정보경영학부 → 경영정보학과, e비즈니스학과
+4. 부동산금융자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+5. 기계자동차로봇부품공학부 → 기계공학과, 로봇자동화공학과, 자동차공학과
+6. 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+7. 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+8. 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+9. 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+10. 디자인공학부(인간시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+11. 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+12. 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+13. 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과
+14. 음악학과(성악, 피아노, 관현타악, 실용음악뮤지컬, 뉴미디어작곡) → 음악학과(클래식, 실용음악, 뉴미디어작곡)</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원서접수 마감일에 대한 정확한 정보를 제공하고 있으며, 원문과 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원문과 일관되며, 추가 유의사항도 원문과 관련이 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원문에서 제시된 주제와 관련이 있으며, 원서접수 마감일에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원문에서 제공된 정보와 정확히 일치합니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원문과 의미적으로 일치하며, 적절한 맥락에서 작성되었습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬운 내용으로 구성되어 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C293" t="n">
+        <v>0.7462178734561459</v>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 전형일정에서 원서접수 마감일은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 전형일정에 따르면, 원서접수 마감일은 **2024. 01. 06.(토) 18시**까지입니다.
+추가 유의사항:
+- 원서접수 사이트 접속이 마감일 정각에 차단되므로 사전에 미리 접속하여 지원 내용 입력 및 전형료 결제를 완료해야 합니다.
+- 마감 시한까지 원서접수를 완료하지 못한 경우 지원자 본인의 책임이므로 유의하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에서 원서접수 마감일은 2024년 1월 6일(토) 18시입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 동의대학교 2024학년도 전형 요소 변화에 대한 정보가 아닌 다른 전형에 대한 정보를 제공하고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 전혀 일치하지 않으며, 서로 다른 전형에 대한 정보를 제공하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 동의대학교의 전형 요소 변화에 대한 질문에 대한 답변이 아닙니다.
+4. Fluency Score (1-5): 4
+   - 문법적으로는 비교적 잘 작성되었으나, 내용이 부적절하여 전체적인 맥락에서의 유창성은 떨어집니다.
+5. Coherence Score (1-5): 2
+   - 생성된 응답은 여러 전형에 대한 정보를 나열하고 있으나, 원본 텍스트와의 관련성이 없기 때문에 일관된 흐름이 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 전반적으로 모든 품질 차원에서 매우 낮은 점수를 받으며, 원본 텍스트와의 관련성이 전혀 없습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 부합하지 않으며, 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 문장은 이해할 수 있으나, 내용이 원본과 관련이 없기 때문에 전체적인 이해는 어렵습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C294" t="n">
+        <v>0.7539719121741006</v>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 전형 요소 변화가 있는 전형은 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 주요 전형 요소 변화는 다음과 같습니다:
+1. **가군 수능(일반학생전형)**
+   - 전형 요소 반영 비율이 변경되지 않았습니다.
+   - 수능 최저기준은 없습니다.
+2. **나군 실기/실적(일반학생전형)**
+   - 레저스포츠학과와 태권도학과는 실기 70%, 수능 30%로 변경되었습니다.
+   - 디자인조형학과와 체육학과는 실기 70%, 수능 30%로 변경되었습니다.
+3. **나군 학생부교과(농어촌학생전형)**
+   - 전형 요소 반영 비율이 100%로 변경되었습니다.
+   - 수능 최저기준은 없습니다.
+4. **나군 학생부교과(평생학습자전형)**
+   - 서류가 70%, 수능이 30%로 변경되었습니다.
+   - 수능 최저기준은 없습니다.
+5. **나군 학생부교과(성인학습자(정원내)전형)**
+   - 서류가 70%, 수능이 30%로 변경되었습니다.
+   - 수능 최저기준은 없습니다.
+6. **나군 학생부종합(재직자전형)**
+   - 서류가 70%, 수능이 30%로 변경되었습니다.
+   - 수능 최저기준은 없습니다.
+7. **나군 학생부종합(조기취업형계약학과전형)**
+   - 서류가 60%, 수능이 40%로 변경되었습니다.
+   - 수능 최저기준은 없습니다.
+이러한 변화는 전반적으로 실기와 학생부교과, 학생부종합 전형에서 수능의 비중을 줄이고, 서류 및 실기의 비중을 늘리는 방향으로 조정되었습니다.</t>
+        </is>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도에 전형 요소 변화가 있는 전형은 다음과 같습니다:
+1.  학생부종합(성인학습자전형):
+ - 2023학년도: 특성화고 등을 졸업한 재직자
+ - 2024학년도: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자
+2.  학생부종합(조기취업형계약학과전형):
+  - 2023학년도: 서류(학생부) 70% + 면접 30%
+  - 2024학년도: 서류(학생부) 60% + 면접 40%
+3. 실기/실적(경기실적우수자전형):
+  - 2023학년도: 학생부교과(출결 포함) 30% + 서류(실적) 70%
+  - 2024학년도: 학생부교과 18% + 출결 12% + 서류(실적) 70%
+4. 반영학기(학생부교과, 실기/실적 위주전형):
+ - 2023학년도: 
+  - 고교 졸업예정자 : 1학년 1학기~3학년 1학기
+  - 고교 졸업자 : 1학년 1학기~3학년 2학기
+ - 2024학년도: 
+  -고교 졸업(예정)자 : 1학년 1학기~3학년 1학기
+5. 반영과목(학생부교과, 실기/실적 위주전형):
+ - 2023학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어교과 중 석차등급 상위 8과목
+   -8과목을 제외한 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 4과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 2등급, B: 4등급, C: 6등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 미반영
+- 2024학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 1등급, B: 3등급, C: 5등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 반영교과 전과목 반영
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 실기 비중이 70%라는 정보가 일관되게 전달되고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 추가된 정보도 원본의 내용을 보완하는 형태로 제공되고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 실기 비중에 대한 정보를 명확하게 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조도 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 연결되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C295" t="n">
+        <v>0.8294973224158402</v>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기/실적 전형에서 실기 비중은 얼마인가요?</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기/실적 전형에서 실기 비중은 70%입니다.
+이는 "나군 실기/실적(경기실적우수자전형) 전형요소 반영비율" 표에서 확인할 수 있습니다:
+```
+경기지도학과 / { 18% /  12% /  70% / }
+```
+여기서 70%는 실기 비중을 나타냅니다.</t>
+        </is>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중은 70%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교가 아닌 동국대학교에 대한 정보를 제공하고 있으며, 이는 사실과 다릅니다. 또한, 세부 전공의 구성은 정확하지만, 학교 이름이 잘못되어 있어 전반적인 사실성이 떨어집니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교의 정보가 아닌 동국대학교의 정보를 제공하고 있어 일관성이 없습니다. 원본 텍스트와의 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 학교 이름으로 인해 관련성이 크게 떨어집니다. 전공의 내용은 관련이 있지만, 학교 정보가 잘못되어 있어 주제와의 관련성이 약해집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 중국어 문장이 포함되어 있어 한국어 응답으로서의 일관성이 떨어집니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 전공에 대한 정보를 제공하지만, 학교 이름이 잘못되어 있어 전체적인 일관성이 떨어집니다. 그러나 전공 목록은 잘 정리되어 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교의 정보가 아닌 동국대학교의 정보를 제공하고 있어 정확성이 매우 낮습니다. 학교 이름이 잘못된 것은 큰 오류입니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 전반적으로 생성된 응답은 사실성, 일관성, 정확성에서 큰 문제를 가지고 있어 다차원적인 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 전공의 내용은 적절하지만, 잘못된 학교 이름으로 인해 의미적으로 부적절한 부분이 있습니다. 원본 텍스트의 맥락과 맞지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 잘못된 정보로 인해 혼란을 줄 수 있습니다. 문장은 명확하게 작성되어 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C296" t="n">
+        <v>0.8004363413632442</v>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 학과 중 라이프융합학부의 세부 전공은 어떻게 구성되어 있나요?</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>2024학년도 동국대학교에서 신설된 '라이프융합학부'는 세부 전공으로 다음과 같이 구성되어 있습니다:
+- 스타트업 창업투자학
+- 뷰티 비즈니스학  
+- 라이프 생활문화학
+这三个专业方向共同构成了生活融合学部的新设课程。</t>
+        </is>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 라이프융합학부의 세부 전공은 다음과 같이 구성되어 있습니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 레저스포츠학과와 체육학과는 포함하고 있지만, 디자인조형학과와 태권도 포함이라는 정보는 원본 텍스트에 명시되어 있지 않으므로 사실성이 떨어진다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있어 일관성이 부족하다. 특히, 디자인조형학과와 관련된 내용은 원본에 없으므로 모순이 발생한다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 내용을 다루고 있지만, 원본 텍스트에 없는 학과를 추가하여 약간의 관련성이 떨어진다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있다. 다만, 추가된 정보가 혼란을 줄 수 있다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 학과를 나열하고 있지만, 원본 텍스트와의 연결이 약해 논리적 흐름이 다소 떨어진다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트에 포함되지 않은 정보를 추가하여 정확성이 떨어진다. 특히, 디자인조형학과와 태권도 관련 내용은 사실이 아니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 응답의 질이 낮다. 사실성과 일관성에서 큰 문제가 있으며, 정확성 또한 떨어진다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련이 있지만, 원본 텍스트의 의미와는 다소 다르게 해석될 수 있는 부분이 있다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 추가된 정보로 인해 혼란을 줄 수 있다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C297" t="n">
+        <v>0.8073687687408058</v>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 어떤 것들이 있나요?</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 실기고사에 참여해야 하는 학과는 다음과 같습니다:
+1. 레저스포츠학과 (태권도 포함)
+2. 디자인조형학과 (시각디자인, 산업디자인, 공예디자인)
+3. 체육학과
+이러한 학과들은 가군 수능(일반학생전형)에서 실기고사를 진행합니다.</t>
+        </is>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 다음과 같습니다:
+1. 체육학과
+2. 레저스포츠학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 동의대 2024학년도 실기/실적 위주 전형에 지원 가능한 학과를 나열하고 있지만, "가군"과 "나군"이라는 구분이 원문에 명시되어 있지 않으며, "디자인조형학과"에 대한 세부 전공이 추가되어 있습니다. 이러한 추가 정보는 원문에 포함되어 있지 않으므로, 사실성 점수는 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일부 일치하지만, "가군"과 "나군"으로 나누어 설명하는 부분에서 일관성이 떨어집니다. 원문은 단순히 학과 목록을 제공하고 있으므로, 이로 인해 일관성 점수는 3으로 평가합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 요구하는 정보에 직접적으로 관련이 있으며, 실기/실적 위주 전형에 지원 가능한 학과를 명확히 나열하고 있습니다. 따라서 관련성 점수는 5로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 복잡한 문장 구조가 있어 점수는 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 학과를 나열하는 방식이 일관성을 유지하고 있습니다. 그러나 "가군"과 "나군"의 구분이 원문과 다르기 때문에 점수는 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원문에 비해 추가적인 정보가 포함되어 있어 정확성에서 다소 떨어집니다. 원문에 없는 세부 전공 정보가 포함되어 있어 점수는 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으나, 사실성과 일관성에서 약간의 문제가 있어 점수는 4로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문의 의미를 잘 전달하고 있으나, 추가된 정보가 원문과의 의미적 일치를 약간 해치고 있어 점수는 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 복잡한 문장 구조로 인해 약간의 혼란을 줄 수 있어 점수는 4로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C298" t="n">
+        <v>0.6756204057612664</v>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 실기/실적 위주 전형을 지원하려고 하는데, 어떤 학과가 해당되나요?</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 실기/실적 위주 전형인 "가군 실기/실적(일반학생전형)"과 "나군 실기/실적(일반학생전형)"에 지원할 수 있는 학과는 다음과 같습니다:
+1. 가군 실기/실적(일반학생전형):
+   - 레저스포츠학과
+   - 태권도학과
+2. 나군 실기/실적(일반학생전형):
+   - 디자인조형학과 (시각디자인, 산업디자인, 공예디자인)
+   - 체육학과
+이러한 학과들은 해당 전형의 특성상 실기나 실적을 평가하는 요소를 포함하고 있습니다. 지원하려는 학과가 이 목록에 포함되어 있다면, 실기/실적 위주 전형을 지원할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도 실기/실적 위주 전형 지원 가능한 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+3. 디자인조형학과
+4. 체육학과
+5. 경기지도학과 </t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 동의대학교의 라이프융합학부가 제공하는 전공에 대한 정보를 정확하게 포함하고 있습니다. 그러나 "미래융합대학"이라는 표현은 원본 텍스트에 명시되어 있지 않으며, "전공들을 포함하고 있습니다"라는 표현은 원본의 "제공합니다"와 약간의 의미 차이가 있습니다. 따라서 완전한 정확성은 아니지만, 전반적으로 사실에 부합합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일부 일치하지만, "미래융합대학"이라는 새로운 정보가 추가되어 일관성이 떨어집니다. 원본 텍스트에서는 "라이프융합학부"만 언급되었기 때문에, 이 추가 정보는 혼란을 초래할 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 제공되는 전공 목록을 그대로 포함하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, "전공들을 포함하고 있습니다"라는 표현이 약간 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 전공 목록이 명확하게 제시되어 있습니다. 그러나 "미래융합대학"이라는 추가 정보로 인해 약간의 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 전공 목록은 정확하지만, "미래융합대학"이라는 정보는 원본 텍스트에 없으므로 정확성에서 약간의 감점이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 전반적으로 생성된 응답은 높은 품질을 유지하고 있지만, 일관성과 정확성에서 약간의 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞지만, "미래융합대학"이라는 표현이 추가되어 의미가 약간 변형되었습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 추가된 정보로 인해 약간의 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C299" t="n">
+        <v>0.7681535826611313</v>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>동의대의 라이프융합학부에서는 어떤 전공을 제공하나요?</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교 미래융합대학의 라이프융합학부는 신설된 학부로, 다음과 같은 전공들을 포함하고 있습니다:
+- 스타트업창업투자학
+- 뷰티비즈니스학
+- 라이프생활문화학
+这三个专业都是该新设立的学部的一部分。</t>
+        </is>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부는 신설된 학부로, 다음과 같은 전공을 제공합니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 특수목적고등학교 출신 학생이 일반학생전형으로 지원할 수 있다는 사실을 언급하고 있지만, 농어촌학생전형에 대한 정보가 누락되어 있으며, 잘못된 정보(특수교육 고등학교 졸업생이 지원할 수 있다는 점)를 포함하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일치하지 않는 부분이 있으며, 특히 농어촌학생전형에 대한 언급이 없고, 일반학생전형에 대한 조건이 모호하게 설명되어 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 질문에 대한 일부 정보를 제공하지만, 원문에서 명확히 언급된 사항을 충분히 다루지 않고 있어 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 편이지만, 일부 표현이 다소 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 응답의 구조는 비교적 일관성이 있지만, 원문과의 연결이 부족하여 전체적인 논리적 흐름이 약간 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 일치하지 않는 부분이 많아 정확성이 낮습니다. 특히, 농어촌학생전형에 대한 정보가 누락되어 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 품질 차원에서 응답이 부족하여 전반적인 품질이 낮습니다. 사실성, 일관성, 정확성 모두에서 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 응답의 의미는 대체로 적절하지만, 원문과의 맥락이 잘 맞지 않아 일부 의미가 왜곡될 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉬운 편이지만, 원문과의 불일치로 인해 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C300" t="n">
+        <v>0.5628502073129205</v>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 일반학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>你在询问是否可以作为特殊教育高中学生申请동의大学的一般学生入学考试。根据提供的信息，东义大学的普通学生招生中，并没有明确排除特殊教育高中的毕业生。
+但是，为了确保你的资格，请参考以下几点：
+1. **招生对象**：一般学生入学通常面向普通高中毕业生或同等学历者开放。
+2. **特殊教育高中**：虽然没有直接说明，但如果你是特殊教育高中毕业且具备相应的学业能力，你可能仍然有资格申请。建议查看东义大学的具体招生简章或联系学校确认。
+你可以访问东义大学的官方网站（https://ipsi.deu.ac.kr/main.do），在“招生信息”部分查找更详细的信息，或者直接咨询学校的招生办公室以获得最准确的答案。
+希望这些信息对你有所帮助！如果有其他问题，请随时提问。</t>
+        </is>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>특수목적고등학교 출신 학생은 일반학생전형으로 지원할 수 있습니다. 다만, 농어촌학생전형의 경우 마이스터고를 제외한 특수목적고등학교 출신자는 지원할 수 없습니다. 일반학생전형에 대한 자세한 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 원본 텍스트는 동의대 나군 전형에서 가장 많이 모집하는 학과가 중어중국학과와 신소재공학과라고 명시하고 있지만, 생성된 응답은 다른 학과들에 대한 정보를 제공하며 잘못된 결론을 내리고 있습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 다른 정보를 제공합니다. 원본 텍스트의 주제를 벗어나고, 서로 모순되는 내용을 포함하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 질문에 대한 직접적인 답변을 제공하지 않으며, 관련 없는 학과들에 대한 정보를 나열하고 있습니다. 원본 텍스트의 핵심 주제와는 거리가 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 부족으로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 나열하고 있지만, 논리적인 흐름이 부족하여 일관성이 떨어집니다. 원본 텍스트와의 연결이 약합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 잘못된 정보를 포함하고 있습니다. 원본 텍스트의 핵심 사실을 반영하지 않습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 저조합니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 부합하지 않으며, 주제와 관련이 적은 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 내용의 정확성과 관련성 부족으로 인해 전체적인 이해도가 떨어집니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C301" t="n">
+        <v>0.6424442988334033</v>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 어떤 학과인가요?</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과를 파악하기 위해서는 각 학과별로 정원을 확인해야 합니다. 제공된 표 중에서 나군 학생부종합(평생학습자전형, 성인학습자전형, 재직자전형) - 정원외 모집단위 및 모집인원에 대한 정보를 보면:
+- 스마트호스피탈리티학과: 7명
+- 미래형자동차학과: 7명
+- 소프트웨어융합학과: 7명
+이 세 학과 모두 같은 정원인 7명을 모집하고 있습니다. 그러나 나군 전형의 전체적인 모집 인원을 고려해야 합니다.
+다른 나군 전형에서의 정원을 확인해보면:
+- 학생부교과(농어촌학생전형) - 정원외: 16명
+- 학생부종합(재직자전형) - 정원외: 7명 (두 개 모두)
+- 학생부종합(조기취업형계약학과전형) - 정원외: 21명
+이 중에서 가장 많은 모집 인원을 보이는 학과는 **학생부교과(농어촌학생전형) - 정원외**로, 16명을 모집하고 있습니다.
+따라서, 2024학년도 동의대학교 나군 전형에서 가장 많이 모집하는 학과는 **학생부교과(농어촌학생전형) - 정원외** 학과입니다.</t>
+        </is>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 인문사회과학대학의 중어중국학과와 공과대학 신소재공학과로, 나군 일반학생 전형에서 32명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대 학생부교과 농어촌학생전형에 지원할 수 없다는 사실을 무시하고, 지원 가능하다고 잘못된 정보를 제공합니다. 이는 원문과 상충되는 내용입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 완전히 모순되는 내용을 포함하고 있습니다. 원문에서 지원할 수 없다고 명시한 반면, 생성된 응답은 지원할 수 있다고 주장합니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 관련이 없으며, 질문에 대한 적절한 답변을 제공하지 않습니다. 원문에서 다루고 있는 주제와는 전혀 다른 내용을 포함하고 있습니다.
+4. Fluency Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 어느 정도 이해할 수 있지만, 한국어로 질문이 주어졌음에도 불구하고 중국어로 작성되어 있어 흐름이 매끄럽지 않습니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 여러 가지 정보를 포함하고 있지만, 원문과의 연결이 없기 때문에 일관된 논리적 흐름이 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공하는 사실과 완전히 다르며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 전혀 없으며, 질문의 맥락과도 맞지 않습니다.
+9. Understandability Score (1-5): 2
+   - 설명: 생성된 응답은 중국어로 작성되어 있어 한국어 사용자에게는 이해하기 어려운 부분이 많습니다. 
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 3,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 2
+}</t>
+        </is>
+      </c>
+      <c r="C302" t="n">
+        <v>0.4259853066143389</v>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 학생부교과 농어촌학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>你是中国人，所以这里我将回答转换成了中文。
+是的，你可以申请东义大学的学生部教科农渔村学生类型。根据提供的信息，特殊目的高中毕业生符合农渔村学生的资格条件之一：
+1. 在农村（镇、乡）地区中学完成整个教育过程，并且在中学学习期间（初中入学日~高中毕业日），本人及其父母双方（如果父母一方去世或离婚，则不包括该方）均居住在农村（镇、乡）地区。居住地和学生的学校可以不同。
+2. 无需考虑父母的居住地，只要你在整个初、中、高教育过程中，在农渔村（镇、乡）地区的学校完成并居住即可。
+为了申请，请确保准备以下文件：
+1. 本人及其父母双方的户籍证明书各一份。
+2. 中学和高中期间的学生生活记录表各一份。
+3. 如果父母一方去世，需要提供死亡证明书；如果父母离婚，则需提供监护权证明书及本人的基本信息证明书。
+提交期限为2024年1月3日至1月12日（周五）17:00前。请将文件邮寄至：47340 韩国釜山市东区엄광路176号 东义大学招生办公室。
+请注意，如果最终注册者是高中毕业生，则需要在2024年2月16日（周五）之前提交毕业证明书。</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>마이스터고를 제외한 특수목적고등학교 출신자는 동의대 학생부교과 농어촌학생전형으로 지원할 수 없습니다.  지원 자격에 따르면, 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 제공되지 않는다는 사실을 정확하게 반영하고 있습니다. 그러나 추가적인 해결 방법을 제시하는 부분은 원본 텍스트에 명시된 내용과는 다소 차이가 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일관성을 유지하고 있지만, 추가적인 정보와 해결 방법을 제시함으로써 원본의 단순한 사실을 넘어서는 내용을 포함하고 있습니다. 이로 인해 일부 일관성이 떨어질 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 질문에 대한 적절한 해결 방법을 제시하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 해결 방법이 명확하게 나열되어 있습니다. 그러나 약간의 중복이 있어 완전한 일관성에는 다소 부족함이 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 추가적인 정보도 유용하지만, 원본의 내용을 넘어서는 부분이 있어 완전한 정확성에는 다소 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 제시된 해결 방법도 적절합니다. 그러나 원본의 단순한 사실을 넘어서는 부분이 있어 완전한 적합성에는 다소 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장이 길어질 경우 이해하기 어려울 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C303" t="n">
+        <v>0.7100688021168615</v>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 2024학년도 소프트웨어공학부의 합격자 평균 성적이 직접적으로 나와 있지 않습니다. 
+가능한 해결 방법은 다음과 같습니다:
+1. **수능(일반학생전형) 최종등록자 표**를 확인해 보세요: 이 표에는 각 모집단위별로 합격자의 평균 성적과 관련 정보가 포함되어 있을 수 있습니다.
+2. **나군 학생부종합 전형의 서류평가 영역 및 배점 표**를 참조하세요: 이 표에서는 학업역량과 전공적합성 등 평가 항목별로 점수 배점을 볼 수 있지만, 실제 합격자들의 성적이 포함되어 있지 않을 것입니다.
+3. **입학관리팀에 문의해 보세요**: 직접적인 정보를 얻기 위해서는 입학관리팀이나 관련 부서에 문의하는 것이 가장 정확한 방법입니다.
+4. **전형일정 표**를 확인하세요: 이 표에는 합격자 발표와 등록 일정이 포함되어 있지만, 성적 정보는 없습니다.
+추가적인 정보나 자세한 질문이 있으시다면 언제든지 알려주세요!</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않다는 사실을 정확하게 반영하고 있습니다. 그러나 "현재 데이터에서는 수능(일반학생전형)의 최초합격자와 최종등록자의 성적 통계가 일부 제공되고 있지만"이라는 부분은 원문에 명시되어 있지 않은 추가적인 정보입니다. 따라서 약간의 부정확성이 존재합니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 일관되게 정보를 제공하고 있으며, 원문에서 언급된 내용을 바탕으로 추가적인 조언을 제시하고 있습니다. 그러나 원문에 없는 정보가 포함되어 있어 완전한 일관성은 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 요청한 정보와 관련된 내용을 잘 다루고 있으며, 질문에 대한 적절한 대답을 제공합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 일부 문장 간의 연결이 더 매끄럽게 이루어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 대체로 일치하지만, 원문에 없는 추가적인 정보가 포함되어 있어 완전한 정확성은 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 좋은 성과를 보이고 있으며, 전반적으로 높은 점수를 받을 수 있습니다. 그러나 일부 부정확성과 일관성 부족으로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 맞아떨어지며, 적절한 맥락에서 정보를 제공합니다. 그러나 원문에 없는 정보가 포함되어 있어 약간의 차이가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 표현이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C304" t="n">
+        <v>0.6400099686219721</v>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 최초 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 2024학년도 소프트웨어공학부 최초합격자의 평균성적이 포함되어 있지 않습니다. 
+현재 데이터에서는 수능(일반학생전형)의 최초합격자와 최종등록자의 성적 통계가 일부 제공되고 있지만, 특정 학과별로 구체적인 성적 정보는 없습니다.
+만약 소프트웨어공학부의 최초합격자 평균성적을 알고 싶다면, 다음과 같은 방법이 있습니다:
+1. 동의대학교 입학관리 홈페이지를 확인해 보세요.
+2. 해당 학과의 공지사항이나 통계 정보를 찾아보세요.
+3. 입학처에 직접 문의하여 요청하시면 더 정확한 정보를 얻을 수 있습니다.
+추가적으로, 제공된 표에서는 다른 학과들의 최초합격자와 최종등록자의 성적 통계만 포함되어 있으므로, 특정 학과의 성적 정보는 추가적인 자료 검색이 필요할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 합격자 발표 일정에 대한 정보를 제공하지만, 최초 합격자 발표일과 1차, 2차 충원 합격자 발표일에 대한 구체적인 날짜를 명시하지 않고 "홈페이지를 통해 실시"라고만 언급하고 있습니다. 이는 원본 텍스트의 구체적인 정보를 누락한 것으로, 사실성 점수를 낮추는 요소입니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 일부 반영하고 있지만, 최초 합격자 발표일과 1차, 2차 충원 합격자 발표일에 대한 구체적인 날짜를 생략하여 일관성이 떨어집니다. 원본 텍스트의 정보와 일치하지 않는 부분이 있어 점수를 낮추었습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 합격자 발표 일정에 대한 정보를 제공하며, 원본 텍스트의 주요 주제와 관련이 깊습니다. 따라서 관련성 점수는 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 어색하게 느껴질 수 있어 점수를 4로 설정했습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 발표 일정에 대한 정보를 체계적으로 제시하고 있습니다. 그러나 일부 정보의 누락으로 인해 완전한 일관성을 유지하지 못해 점수를 4로 설정했습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 정보를 정확하게 반영하고 있지만, 중요한 날짜 정보를 누락하여 정확성 점수를 낮추었습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으나, 사실성과 일관성에서 일부 부족함이 있어 점수를 4로 설정했습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 일부 정보의 누락으로 인해 완전한 적합성을 보이지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 일부 정보의 누락으로 인해 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C305" t="n">
+        <v>0.8484070154456379</v>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>합격자발표 언제</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr">
+        <is>
+          <t>2024년 나군의 합격자 발표 일정에 대한 정보는 다음과 같습니다:
+- 최초합격자는 홈페이지를 통해 실시됩니다.
+- 1차, 2차 충원합격자는 발표일은 명시되어 있습니다. 
+- 3차 이후 충원합격자는 2024년 2월 15일(목)부터 2024년 2월 20일(화)까지의 기간에 발표됩니다.
+따라서 합격자 발표 일정은 다음과 같습니다:
+- 최초합격자: 홈페이지를 통해 실시
+- 1차 충원합격자: 홈페이지를 통해 실시 (확실한 날짜 미기재)
+- 2차 충원합격자: 홈페이지를 통해 실시 (확실한 날짜 미기재)
+- 3차 이후 충원합격자: 2024년 2월 15일(목)부터 2024년 2월 20일(화)까지
+모든 지원자는 이 기간 내에 합격 여부를 반드시 확인해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+ - 최초 합격자 발표: 2024년 2월 2일(금) 14:00
+ - 충원 합격자 1차 발표: 2024년 2월 14일(수) 09:00
+ - 충원 합격자 2차 발표: 2024년 2월 15일(목) 09:00
+ - 충원 합격자 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지
+ 모든 발표는 홈페이지를 통해 개별 조회해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 면접의 진행 방식에 대한 정보를 제공하지만, 원본 텍스트에서 언급된 면접 일정(2024. 01. 20.)에 대한 정보가 누락되어 있습니다. 또한, 중국어로 된 내용이 포함되어 있어 원본 텍스트와의 일관성이 떨어집니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주요 정보와 일치하지 않으며, 면접 일정에 대한 언급이 없고, 다른 언어로 작성된 부분이 포함되어 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 면접의 진행 방식에 대한 정보는 관련성이 있지만, 원본 텍스트의 핵심 정보인 면접 일정에 대한 언급이 없기 때문에 전체적으로 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 중국어 부분이 포함되어 있어 일부 독자에게는 혼란을 줄 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 응답의 구조는 비교적 일관되지만, 원본 텍스트와의 연결이 부족하여 전체적인 논리적 흐름이 약간 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 면접 일정에 대한 정확한 정보가 누락되어 있으며, 원본 텍스트의 사실과 일치하지 않는 부분이 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 응답의 질이 낮으며, 사실성, 일관성, 정확성 모두에서 부족한 점이 많습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 면접의 진행 방식에 대한 설명은 적절하지만, 원본 텍스트의 맥락과는 맞지 않는 부분이 있어 의미적으로 완전하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉽지만, 중국어 부분이 포함되어 있어 일부 독자에게는 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C306" t="n">
+        <v>0.3996856815121736</v>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>면접고사는 언제 보러 가나요</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 면접은 개별적으로 진행되며, 평균적으로 1인당 10분 이내로 이루어집니다. 정확한 시간과 일정은 입학처에서 안내会给您提供的信息显示，面试是个人进行的，每位考生大约需要10分钟以内的时间。具体的面试时间和日期通常由招生办公室通知，请参考相关通知或联系学校以获取确切的日程安排。
+如果您有其他问题或需要进一步的帮助，请告诉我！</t>
+        </is>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>나군 평생학습자전형, 성인학습자(정원내)전형, 성인학습자(정원외)전형, 재직자전형, 조기취업형계약학과전형의 면접고사 일정은 2024. 01. 20.(토)입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대 한의예과의 최저학력 기준이 없다는 사실을 무시하고, 여러 가지 추측을 제시하고 있습니다. 이는 원문과 상충되는 정보로, 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 일치하지 않으며, 원문에서 명시된 내용과 상반되는 여러 가지 정보를 포함하고 있습니다. 따라서 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 원문에서 명시된 '최저학력 기준이 없다'는 점을 간과하고 여러 가지 추측을 제시하여 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 언어가 중국어로 되어 있어 한국어 사용자에게는 다소 불편할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 가지 정보를 나열하고 있지만, 원문과의 연결이 부족하여 일관된 흐름이 떨어집니다. 그러나 각 항목은 논리적으로 연결되어 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 상반되는 내용을 포함하고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문과의 의미적 일치가 전혀 없으며, 원문의 맥락을 무시하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 원문과의 관련성이 떨어져서 전체적인 이해가 어렵습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C307" t="n">
+        <v>0.4142436615215229</v>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>한의예과 최저학력기준</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>提供的信息中并没有直接提到韩医系（한의예과）的最低入学资格要求。不过，根据已有的信息可以推测一些可能的要求：
+1. 高中毕业或同等学历是基本要求。
+2. 数学和英语可能会有特定的要求，尤其是对于数学（微积分/几何、概率与统计），因为表格中提到了韩医系在这些科目上有不同的处理方式。
+3. 由于韩医系的特殊性，可能还需要参加一些专门的入学考试或面试。
+4. 可能会有健康相关的要求，因为这是医学专业。
+5. 其他特定的专业要求可能会根据学校的具体规定有所不同。
+要获取最准确的最低学力标准信息，建议直接访问该大学的官方网站（http://ipsi.deu.ac.kr）查看最新的招生简章或联系学校的招生办公室。</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>동의대 한의예과의 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 동의대학교의 수능 최저학력 기준이 없다는 사실을 정확하게 반영하고 있으며, 추가적인 세부사항도 제공하고 있습니다. 모든 정보가 사실에 부합합니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 수능 최저학력 기준이 없다는 내용을 일관되게 전달하고 있습니다. 추가적인 정보도 원본과 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 수능 최저학력 기준에 대한 정보를 직접적으로 다루고 있습니다. 모든 내용이 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 자연스럽게 읽히며, 문장 구조도 잘 구성되어 있습니다. 전반적으로 매우 유창합니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다. 모든 정보가 정확합니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 모든 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다. 독자가 쉽게 이해할 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C308" t="n">
+        <v>0.568401103705158</v>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>정시에서 수능최저학력기준이 있나요?</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>2024년도 정시모집에서 수능 최저학력 기준은 없습니다. 관련 내용은 다음과 같습니다:
+- 가군 수능(일반학생전형) 전 모집단위(레저스포츠학과, 태권도학과 제외): 수능최저기준 없음
+- 나군 수능(일반학생전형) 전 모집단위(한의예과, 디자인조형학과, 체육학과, 경기지도학과 제외): 수능최저기준 없음 
+- 다군 수능(일반학생전형) 전 모집단위: 수능최저기준 없음
+따라서 정시모집에서는 수능 최저학력 기준이 적용되지 않습니다.</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>동의대학교는 수능 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 충원합격자 발표 일정에 대한 주요 사실을 정확하게 반영하고 있습니다. 그러나 "이후 개별 전화 통보 방식으로 추가 충원합격자를 발표하게 됩니다."라는 부분은 원본 텍스트에 명시되어 있지 않은 정보입니다. 따라서 약간의 부정확성이 존재합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 정보를 일관되게 전달하고 있지만, "이후 개별 전화 통보 방식으로 추가 충원합격자를 발표하게 됩니다."라는 문장은 원본 텍스트와 일치하지 않으므로 일관성 점수가 낮아졌습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 충원합격자 발표 일정에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 발표 일정에 대한 정보를 명확하게 전달하고 있습니다. 다만, 추가 정보가 포함되어 있어 약간의 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 정확한 날짜와 시간을 포함하고 있지만, 추가된 정보로 인해 정확성 점수가 약간 낮아졌습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있지만, 일부 부정확성과 일관성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 추가된 정보가 원본과 일치하지 않기 때문에 약간의 부적절성이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었지만, 추가된 정보로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C309" t="n">
+        <v>0.8607575142470477</v>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>충원합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr">
+        <is>
+          <t>2024년 2월 15일(목)부터 3차 이후의 충원합격자를 발표합니다. 구체적으로:
+- 2024년 2월 14일(수) 09:00에 1차 충원 합격자 발표
+- 2024년 2월 15일(목) 09:00에 2차 충원 합격자 발표
+이후 개별 전화 통보 방식으로 추가 충원합격자를 발표하게 됩니다.</t>
+        </is>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 충원합격자 발표 일정에 대한 주요 사실을 포함하고 있으며, 3차 이후 발표 시간도 정확하게 언급하고 있습니다. 그러나 "개별 전화 통보를 통해 이루어지며"라는 부분은 원문에 명시되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 대체로 일관성을 유지하고 있으며, 발표 일정과 관련된 정보가 잘 연결되어 있습니다. 다만, 개별 전화 통보에 대한 언급은 원문에 없는 내용이므로 완전한 일관성은 아닙니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원문에서 제시된 발표 일정과 관련된 정보를 직접적으로 다루고 있으며, 주제와 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 발표 일정과 등록 절차에 대한 정보가 잘 연결되어 있습니다. 그러나 약간의 추가 정보가 포함되어 있어 원문과의 연결이 다소 느슨할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 발표 일정에 대한 정확한 정보를 제공하고 있지만, 개별 전화 통보에 대한 언급은 원문에 없는 내용이므로 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받을 수 있습니다. 그러나 일부 부정확성과 일관성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 의미적으로 잘 연결되어 있으며, 발표 일정과 관련된 내용을 적절하게 전달하고 있습니다. 그러나 추가된 정보가 원문과의 의미적 일관성을 약간 해칠 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬우며, 발표 일정과 관련된 정보를 잘 전달하고 있습니다. 다만, 약간의 추가 정보가 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C310" t="n">
+        <v>0.7838633273327367</v>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>추가합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>2024년 2월 15일(목)부터 3차 이후 충원합격자를 발표합니다. 이 발표는 개별 전화 통보를 통해 이루어지며, 발표 시간은 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지입니다.
+발표 후 등록 절차는 개별 전화 통보 시 안내되며, 등록은 지정된 기간 내에 이루어져야 합니다.</t>
+        </is>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 잘 반영하고 있으며, 추가모집의 가능성에 대한 설명도 포함되어 있습니다. 그러나 "모집군별 모집단위별 미등록, 포기 및 환불 등으로 인해 결원이 발생할 경우"라는 부분은 원본 텍스트에 명시되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일부분 일치하지만, 추가적인 정보가 포함되어 있어 일관성이 떨어질 수 있습니다. 원본 텍스트의 내용과는 다소 다른 맥락을 제공하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 추가모집에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 다만, 추가된 정보가 원본 텍스트와의 연결성을 약간 떨어뜨릴 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있지만, 추가된 정보로 인해 정확성이 약간 저하되었습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 좋은 성과를 보이고 있으며, 전반적으로 높은 품질을 유지하고 있습니다. 그러나 일부 부정확성과 일관성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞지만, 추가된 정보가 원본의 의미를 약간 왜곡할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하지만, 일부 표현이 다소 복잡할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C311" t="n">
+        <v>0.9199338169420883</v>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>추가모집을 하나요?</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr">
+        <is>
+          <t>2024년 1월 2일(화) 이후 수시모집 등록자의 등록(입학) 포기로 인한 결원은 정시 일반학생전형 모집인원으로 이월하여 추가로 합격자를 선발합니다. 또한, 모집군별 모집단위별 미등록, 포기 및 환불 등으로 인해 결원이 발생할 경우 그 인원만큼 예비후보 순위에 따라 충원합격자를 선발합니다.
+따라서 추가모집은 가능하며, 정시 일반학생전형 모집인원으로 이월하여 합격자를 선발하거나, 예비후보 순위에 따라 충원합격자를 선발할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>2024년 1월 2일(화) 이후 수시모집 등록자의 등록(입학) 포기로 인한 결원은 정시 일반학생전형 모집인원으로 이월하여 추가로 합격자를 선발합니다. 정시모집 모집단위별 등록인원이 모집인원에 미달된 경우에는 그 인원을 추가모집으로 이월하여 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 평생학습자전형에 대한 기본적인 정보는 포함하고 있지만, "재직 기간"에 대한 내용은 원본 텍스트에 명시되어 있지 않은 정보입니다. 따라서 일부 사실이 추가되었으나, 원본의 세부사항이 누락되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 일부 정보를 반영하고 있지만, "재직 기간"과 같은 추가 정보가 포함되어 있어 일관성이 떨어집니다. 원본 텍스트와의 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 평생학습자전형에 대한 주요 정보를 다루고 있어 관련성이 높지만, 원본 텍스트의 특정 세부사항이 누락되어 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되어 있습니다. 문장 구조와 표현이 매끄럽습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 체계적으로 제시되어 있습니다. 그러나 일부 추가 정보로 인해 약간의 혼란이 있을 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트에 없는 정보가 포함되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 생성된 응답은 높은 품질을 보이지만, 일부 정보의 정확성과 일관성 부족으로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 추가된 정보가 원본의 의미를 왜곡할 수 있는 가능성이 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있습니다. 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C312" t="n">
+        <v>0.7206282471958678</v>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대해 알려줘.</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>평생학습자전형은 대학에서 평생교육을 받은 학습자를 선발하기 위한 전형입니다. 주요 특징과 지원 자격, 제출 서류 등을 다음과 같이 요약할 수 있습니다:
+### 주요 특징:
+1. **지원 자격**: 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자.
+2. **재직 기간**: 4대 보험 중 1개 이상 가입 사업체에서 재직 중인 경우, 2024년 3월 1일 기준 총 재직기간이 3년 이상이어야 합니다.
+3. **전형 요소 반영 비율**: 서류 평가 70%, 면접 평가 30%로 구성됩니다.
+### 제출 서류:
+- **고교 졸업(예정)자**:
+  - 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+- **검정고시 출신자**:
+  - 검정고시 합격증서 사본 또는 합격증명서 1부
+  - 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+  - 학교생활기록부 대체 서류(제출 여부 선택 가능)
+- **외국고교 졸업(예정)자**:
+  - 공증받은 외국고교 졸업(예정)증명서 1부
+  - 공증받은 외국고교 성적증명서 1부 (만점이 명시된 고교성적 체계자료를 성적증명서 뒤에 첨부해야 함)
+  - 학교생활기록부 대체 서류(제출 여부 선택 가능) (외국어로 작성된 경우, 원본과 공증받은 한국어 번역본을 함께 제출해야 함)
+### 추가 정보:
+- **면접 평가**: 개별 면접으로 진행되며, 1인당 10분 이내입니다.
+- **서류 제출 기간 및 장소**:
+  - 제출기간: 2024년 1월 3일(수) ~ 12일(금) 17:00까지 도착분에 한함
+  - 제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+평생학습자전형은 평생교육을 받은 학습자의 역량과 노력에 중점을 둔 전형으로, 서류와 면접 모두에서 학생들의 개인적 성장과 노력이 중요하게 평가됩니다.</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대한 정보는 다음과 같습니다.  
+모집단위 및 모집인원
+  - 미래융합대학 라이프융합학부
+  - 전형명: 학생부종합(평생학습자전형)
+  - 모집인원: 11명
+ 지원자격
+ - 평생학습자전형: 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+전형요소 반영 비율
+ - 서류: 70%
+ - 면접: 30%
+ 제출서류
+ - 고교 졸업(예정)자:
+  - 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+- 검정고시출신자:
+  - 검정고시 합격증서 사본 또는 합격증명서 1부
+  - 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+  - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+ - 외국고교 졸업(예정)자:
+  - 공증받은 외국고교 졸업(예정)증명서 1부
+  - 공증받은 외국고교 성적증명서 1부
+  - 학교생활기록부 대체 서류(제출여부 선택 가능)
+  - 외국어로 작성된 경우, 원본과 공증받은 한국어 번역본을 함께 제출
+  - 고교 졸업(예정)증명서, 성적증명서는 해당국가의 정부기관으로부터 아포스티유 확인서 또는 해당국가 주재 한국영사관에서 영사 확인을 발급받아 제출(단, 교육부에서 인정한 재외한국학교는 영사확인 없이 증명서 원본 제출 가능)
+  - 만점이 명시된 고교성적 체계자료를 성적증명서 뒤에 첨부
+  - 최종 등록자 중 외국고교 졸업예정자는 졸업 이후 졸업증명서(아포스티유 확인서 또는 영사확인 
+발급)를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.
+제출기간 및 장소
+ - 제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+ - 제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+ 추가사항
+ - 검정고시출신자 및 외국고교 졸업(예정)자의 제출서류 중 학교생활기록부 대체 서류는 선택 제출서류로 ‘학교생활기록부 대체 서류’ 양식을 참조.
+ 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 지원 자격을 일부 포함하고 있지만, 추가적인 조건인 "만 30세 이상인 자"를 포함하고 있어 사실과 다릅니다. 원본 텍스트에는 이 조건이 명시되어 있지 않으므로, 사실성이 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있습니다. 원본 텍스트는 고교 졸업(예정)자 또는 동등학력 소지자만을 언급하고 있으며, 만 30세 이상이라는 조건은 원본에 없으므로 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 추가된 조건이 원본의 핵심 내용을 흐리게 하고 있습니다. 그러나 여전히 지원 자격에 대한 정보를 제공하므로 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 지원 자격에 대한 정보를 명확하게 전달하고 있습니다. 그러나 추가된 조건이 원본의 흐름을 방해할 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트에 없는 정보를 포함하고 있어 정확성이 낮습니다. 원본의 사실을 왜곡하고 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 일부 차원에서 긍정적인 평가를 받을 수 있지만, 사실성과 일관성에서 큰 문제를 안고 있어 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본의 의미와 관련이 있지만, 추가된 조건이 원본의 의미를 왜곡할 수 있어 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 추가된 조건으로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C313" t="n">
+        <v>0.8437991364526022</v>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>평생학습자전형 지원자격은?</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원 자격은 다음과 같습니다:
+1. 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+2. 만 30세 이상인 자 (1994년 2월 28일 이전 출생자)
+이러한 조건을 만족하는 지원자가 해당 전형의 지원 자격을 갖추게 됩니다.</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원자격은 다음과 같습니다
+ - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 실기고사 대기실 및 입실시간에 대한 정보가 아닌, 각 학과의 실기종목과 배점에 대한 정보를 제공하고 있습니다. 원본 텍스트의 핵심 정보인 입실시간과 대기실에 대한 내용이 누락되어 있어 사실성이 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보(각 학과의 실기종목 및 배점)를 포함하고 있어 일관성이 부족합니다. 원본 텍스트의 내용과 상충하는 부분이 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 실기고사에 대한 정보를 제공하지만, 원본 텍스트의 주제인 대기실 및 입실시간에 대한 정보는 포함되어 있지 않아 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 각 학과의 정보를 체계적으로 나열하고 있어 논리적인 흐름이 있습니다. 그러나 원본 텍스트와의 연결이 부족하여 완전한 일관성을 보이지는 않습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보(각 학과의 실기종목 및 배점)를 포함하고 있어 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 전반적으로 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받고 있어 다차원적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 실기고사에 대한 정보를 제공하지만, 원본 텍스트의 맥락과는 다소 어긋나 있어 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조로 되어 있으나, 원본 텍스트와의 관련성이 떨어져 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C314" t="n">
+        <v>0.4482271630179363</v>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 실기고사에 대한 정보는 다음과 같습니다:
+1. **레저스포츠학과**:
+   - 실기종목: 제자리 멀리뛰기, Z-런
+   - 장소: 해당 학과에서 실시
+2. **태권도학과**:
+   - 실기종목 및 배점: 기초실기 200점(20%), 응용실기 500점(50%)
+   - 장소: 해당 학과에서 실시
+3. **디자인조형학과 (시각디자인, 산업디자인, 공예디자인)**:
+   - 실기종목 및 배점: 기초디자인 700점(70%)
+   - 장소: 해당 학과에서 실시
+4. **체육학과**:
+   - 실기종목 및 배점: 제자리 멀리뛰기 240점(24%), 메디신볼 던지기 243점(23%), Z-런 230점(23%)
+   - 장소: 해당 학과에서 실시
+실제 시험장소는 각 모집단위별로 다를 수 있으므로, 정확한 장소와 기타 세부 사항은 해당 학과의 공지사항이나 입학관리팀에 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 실기고사 일정과 대기실 및 입실시간 안내에 대한 정보를 포함하고 있으며, 원본 텍스트의 사실을 대부분 정확하게 반영하고 있습니다. 그러나 실기고사 날짜가 원본 텍스트에 명시되어 있지 않기 때문에 완전한 정확성은 부족합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 실기고사 날짜에 대한 추가 정보가 포함되어 있어 일관성이 떨어질 수 있습니다. 원본 텍스트에는 실기고사 날짜가 명시되어 있지 않기 때문에 이 부분에서 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용과 관련이 있으며, 실기고사 일정과 대기실 및 입실시간 안내를 명확하게 다루고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 실기고사 날짜에 대한 추가 정보가 원본 텍스트와의 연결성을 약간 떨어뜨릴 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 대부분 정확하게 반영하고 있지만, 실기고사 날짜에 대한 정보가 원본에 없기 때문에 완전한 정확성은 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 보이며, 사실성, 관련성, 유창성, 일관성 등 여러 차원에서 잘 수행되고 있습니다. 그러나 일부 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다. 다만, 실기고사 날짜에 대한 추가 정보가 원본과의 의미적 일치를 약간 떨어뜨릴 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다. 그러나 약간의 혼란을 줄 수 있는 부분이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C315" t="n">
+        <v>0.6924834569411754</v>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>2024년 체육학과의 실기고사는 다음과 같이 진행됩니다:
+- **일정**: 2024. 01. 16.(화)
+- **대기실 및 입실시간 안내**: 2024. 01. 12.(금) 14:00 이후, 입학안내 홈페이지에서 조회 가능
+따라서 체육학과의 실기고사는 2024년 1월 16일 화요일에 진행되며, 이 날짜 전날인 1월 12일 금요일 오후 2시 이후부터 대기실 및 입실 시간 안내를 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 수시 충원합격자 발표에 대한 전화 연락 여부에 대한 정보를 포함하고 있지만, 구체적인 날짜와 상황을 추가하여 혼란을 초래할 수 있습니다. 원본 텍스트에서는 전화 연락이 이루어지지 않는다고 명확히 언급하고 있으나, 생성된 응답은 전화 연락이 어려운 경우에 대한 언급이 있어 다소 모호합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 전화 연락이 이루어지지 않는다는 원본의 주장을 약간 모호하게 만들고 있습니다. 전화 연락이 없을 것이라는 결론은 일관되지만, 추가된 정보가 혼란을 줄 수 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 수시 충원합격자 발표에 대한 정보를 제공합니다. 그러나 추가된 세부사항이 원본의 핵심 메시지와는 약간의 차이를 보입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 원본 텍스트와의 연결이 약간 느슨해질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 일부 반영하고 있지만, 전화 연락이 이루어지지 않는다는 명확한 사실을 약간 왜곡하고 있습니다. 따라서 정확성 점수는 중간 정도로 평가됩니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 사실성과 일관성에서 약간의 문제가 있지만, 전반적으로 관련성과 유창성은 양호합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 다소 일치하지만, 추가된 정보가 원본의 맥락을 약간 벗어나게 할 수 있습니다. 따라서 의미 적합성 점수는 중간으로 평가됩니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 길어져서 약간의 혼란을 줄 수 있습니다. 그러나 전체적으로는 명확하게 전달됩니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C316" t="n">
+        <v>0.674760655855557</v>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>수시 충원합격자 발표하면 전화 주시는건가요?</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>2024년 2월 15일(목)부터 2024년 2월 20일(화)까지 충원합격자를 발표할 때, 전화 연락 두절로 인해 충원합격 통보가 어려운 경우, 충원합격이 되었으나 등록 의사가 없는 등록 포기자로 간주하므로, 이 기간 동안 전화 연락을 받지 못하는 일이 없도록 유의하시기 바랍니다.
+따라서, 수시 충원합격자 발표 시 별도로 전화를 주지는 않을 것으로 보입니다. 지원자는 이 기간 동안 합격 여부를 홈페이지에서 확인하고, 필요하다면 입학관리팀에 연락하여 확인하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>아니요, 수시 충원합격자 발표는 전화로 개별 연락을 하지 않습니다. 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형 일정에 명시된 합격자 발표일에 합격 여부를 반드시 홈페이지를 통해 확인해야 합니다. 3차 이후 충원합격자 발표 과정에서만 개별 전화 통보가 이루어집니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 대체로 정확하게 반영하고 있습니다. 원본에서 수시모집 결과에 대한 정보가 포함되어 있지 않다고 명시하고 있으며, 생성된 응답에서도 이 점을 잘 전달하고 있습니다. 그러나 2024학년도에 대한 정보는 원본 텍스트에 포함되어 있지 않으므로, 이 부분은 다소 부정확할 수 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 일관성을 유지하려고 하지만, 2024학년도에 대한 언급이 추가되어 있어 원본의 정보와 약간의 불일치를 보입니다. 원본 텍스트는 2023학년도에 대한 정보만을 다루고 있으므로, 이 부분에서 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊습니다. 수시모집 결과에 대한 정보가 없다는 점을 강조하고 있으며, 관련된 추가 정보를 제공하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 2024학년도에 대한 언급이 추가되면서 약간의 흐름이 끊길 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 대체로 정확하게 반영하고 있습니다. 그러나 2024학년도에 대한 정보는 원본에 포함되어 있지 않으므로, 이 부분에서 정확성이 떨어질 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성에서 좋은 점수를 받고 있습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합합니다. 그러나 2024학년도에 대한 언급이 원본의 맥락과는 다소 어긋나므로, 이 부분에서 약간의 부적절함이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장에서 약간의 혼란을 줄 수 있는 요소가 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C317" t="n">
+        <v>0.7531488773762557</v>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과 수시모집 결과는?</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과의 수시모집 결과에 대한 정보가 제공된 문서에서는 직접적으로 언급되어 있지 않습니다. 해당 학과에 대한 모집인원이나 최종합격자 등 구체적인 수시모집 결과는 제공되지 않았습니다.
+문서에서 경찰행정학과 관련하여 확인할 수 있는 정보는 다음과 같습니다:
+- 2024학년도에는 경찰행정학과가 모집단위에 포함되어 있지 않습니다 (나군 학생부교과(농어촌학생전형) - 정원외 모집단위 및 모집인원 표에서 확인 가능).
+따라서, 2023학년도 경찰행정학과의 수시모집 결과를 찾으려면 동의대학교 입학처 웹사이트나 관련 공지사항을 확인해 보는 것이 좋겠습니다. 해당 정보가 올바르게 기재되어 있지 않다면 대학 입학처에 직접 문의하는 것도 방법입니다.</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 "정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없습니다."라는 원문과 상반된 내용을 담고 있습니다. 원문은 수능에 응시하지 않으면 지원할 수 없다고 명확히 언급하고 있지만, 생성된 응답은 수능을 응시하지 않은 학생들도 지원이 가능하다고 주장하고 있습니다. 이는 명백한 사실 오류입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 완전히 모순되는 내용을 포함하고 있습니다. 원문에서 수능 응시가 필수라고 명시했으나, 생성된 응답은 수능을 응시하지 않아도 지원이 가능하다고 하여 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 주된 질문에 대한 답변이 아닌 추가적인 정보와 전형에 대한 설명이 포함되어 있습니다. 따라서 관련성은 있지만, 주제에서 벗어난 부분이 많습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 내용의 정확성 문제로 인해 전체적인 품질이 저하되었습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 전형에 대한 설명이 포함되어 있지만, 원문과의 연결이 약해 논리적 흐름이 다소 부족합니다. 원문과의 관계가 명확하지 않아 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제시한 사실과 완전히 반대되는 내용을 포함하고 있어 정확성이 매우 낮습니다. 수능 응시가 필수라는 원문의 사실을 왜곡하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받았습니다. 원문과의 관계가 전혀 없고, 잘못된 정보를 제공하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 맞지 않으며, 잘못된 정보를 전달하고 있습니다. 따라서 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기는 쉽지만, 내용의 정확성 문제로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C318" t="n">
+        <v>0.4986519005636001</v>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>정시에 수능 응시하지 않아도 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>2024년 동계학기 정시모집에서 수능을 응시하지 않은 학생들도 지원이 가능합니다. 그러나 수능 성적은 일부 전형에서 중요한 평가 요소로 사용되므로, 수능 응시를 권장드립니다.
+특히 다음과 같은 전형에서는 수능 성적이 반영됩니다:
+1. **나군 실기/실적(일반학생전형)**: 디자인조형학과, 체육학과, 레저스포츠학과, 태권도학과 등에서 수능 성적이 35,000원의 전형료와 함께 반영됩니다.
+2. **나군 학생부교과(농어촌학생전형)**: 이 전형에서는 수능은 필요하지 않지만, 지원 자격을 갖추기 위해 농어촌 지역 거주 기록 등이 요구됩니다.
+3. **나군 학생부종합(평생학습자전형), 성인학습자(정원내/외)전형, 재직자전형, 조기취업형계약학과전형**: 이들 전형에서는 수능 성적이 아닌 다른 평가 기준이 주로 사용되므로 수능 응시는 필요하지 않습니다.
+하지만, 수능 성적은 학력 확인 및 입학성적 평가에 중요한 역할을 하므로, 가능하다면 수능을 응시하는 것이 좋습니다. 특히 일반학생전형의 경우, 수능 성적이 전형 점수 계산에 포함되므로 이를 고려해보세요.
+더 자세한 정보는 동의대학교 입학관리 홈페이지를 참조하시거나 학교 관계자에게 문의하시는 것을 권장드립니다.</t>
+        </is>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>아니요, 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 고등학교 졸업 후 10년이 지나도 정시 지원이 가능하다는 원문 내용을 일부 반영하고 있지만, 일반적인 정시모집에서 3년 이상 경과하면 지원 자격이 제한될 수 있다는 정보는 원문에서 명시된 내용과 상충합니다. 따라서 사실성 점수는 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 일부 일치하는 부분이 있지만, 정시 지원 가능성에 대한 조건이 다르게 설명되어 있어 일관성이 떨어집니다. 특히, 특정 전형에 대한 설명이 원문과의 일관성을 해치고 있습니다. 따라서 일관성 점수는 3으로 평가합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 고등학교 졸업 후 정시 지원 가능성에 대한 질문에 대해 관련된 정보를 제공하고 있지만, 원문에서 강조한 "정시 지원 가능성"에 대한 직접적인 답변이 부족합니다. 따라서 관련성 점수는 4로 평가합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 길고 복잡하여 가독성이 떨어질 수 있습니다. 따라서 유창성 점수는 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 전형에 대한 설명이 명확하게 연결되어 있습니다. 그러나 원문과의 연결성이 약간 부족하여 완전한 일관성을 보이지는 않습니다. 따라서 일관성 점수는 4로 평가합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원문에서 제공하는 정보와 상충하는 부분이 있어 정확성 점수는 3으로 평가합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질 점수는 3으로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문과 관련된 의미를 잘 전달하고 있으나, 일부 내용이 원문과 다르게 해석될 수 있는 여지가 있어 의미 적합성 점수는 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 일부 복잡한 문장으로 인해 약간의 혼란을 줄 수 있습니다. 따라서 이해 가능성 점수는 4로 평가합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C319" t="n">
+        <v>0.6625244710503374</v>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>고등학교 졸업한지 10년이 지났는데 정시 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 일반적으로 대학의 정시모집에서는 고등학교를 졸업한 후 3년 이상 경과하면 지원 자격이 제한될 수 있습니다. 하지만 특정 전형에 따라 예외적인 경우도 있을 수 있습니다.
+주어진 정보로는 다음과 같은 점을 확인할 수 있습니다:
+1. **나군 학생부종합(평생학습자전형)**: 이 전형은 고등학교 졸업(예정)자 또는 법령에 의한 동등학력 소지자를 대상으로 합니다.
+2. **성인학습자(정원내·외)전형**: 이 전형도 고등학교 졸업(예정)자 또는 법령에 의한 동등학력 소지자로서 만 30세 이상인 자를 대상으로 합니다 (1994년 2월 28일 이전 출생자).
+3. **재직자전형**: 이 전형은 「고등교육법 시행령」 제29조 제2항 제14호 '다'목에 해당하는 자를 대상으로 합니다 (즉, 산업체 근무경력이 3년 이상인 재직자).
+따라서 고등학교 졸업한지 10년이 지났다면, 다음과 같은 전형을 통해 지원할 수 있을 가능성이 있습니다:
+- **평생학습자전형**: 이는 고등학교 졸업(예정)자를 대상으로 하므로 적합합니다.
+- **성인학습자(정원내·외)전형**: 만 30세 이상이면 지원할 수 있습니다.
+하지만 일반적인 정시모집에서는 이러한 기간 경과로 인해 지원 자격이 제한될 가능성이 높습니다. 특정 대학이나 전형의 세부 조건을 확인하시거나, 해당 대학 입학처에 문의하시는 것이 가장 확실합니다.
+더 자세한 정보를 얻기 위해서는 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 웹사이트를 참조하거나, 동의대학교 입학관리팀으로 연락하시면 도움을 받으실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>네, 고등학교 졸업한지 10년이 지났더라도 정시 지원이 가능합니다. "고교유형별 지원자격" 표에 따르면, 일반고, 자율고, 특수목적고, 특성화고, 영재학교, 기타 학교, 검정고시, 외국고 출신자 모두 정시 지원이 가능합니다. 따라서 고등학교 졸업 시기와 상관없이 지원할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 일정과 세부사항이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보의 충돌이나 모순이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 모든 중요한 포인트를 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C320" t="n">
+        <v>0.8630315394638299</v>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집의 주요 일정은 다음과 같습니다:
+1. **모집인원 확정 공고**: 2024년 1월 2일 (화)
+   - 입학 안내 홈페이지에서 공고됩니다.
+2. **원서접수(인터넷)**: 2024년 1월 3일 (수) ~ 2024년 1월 6일 (토), 마감 시간은 각 날짜별로 오후 6시까지입니다.
+   - 접수 사이트는 [http://ipsi.deu.ac.kr](http://ipsi.deu.ac.kr) 또는 [http://www.uwayapply.com](http://www.uwayapply.com)를 통해 가능합니다.
+3. **서류 제출 (제출서류가 있는 경우)**: 2024년 1월 3일 (수) ~ 2024년 1월 12일 (금), 마감 시간은 각 날짜별로 오후 5시까지 도착해야 합니다.
+   - 서류 제출 대상은 전형별 세부 안내를 참조해야 하며, 접수 사이트에서 우편발송용 표지를 출력하여 부착 후 제출하거나 우편으로 보내야 합니다.
+4. **&lt;가&gt;군 실기고사 (레저스포츠학과, 태권도학과)**: 2024년 1월 16일 (화)
+   - 대기실 및 입실 시간 안내는 2024년 1월 12일 (금) 오후 2시 이후에 입학 안내 홈페이지에서 확인 가능합니다.
+5. **&lt;나&gt;군 실기고사 (디자인조형학과, 체육학과)**: 2024년 1월 17일 (수)
+   - 대기실 및 입실 시간 안내는 2024년 1월 12일 (금) 오후 2시 이후에 입학 안내 홈페이지에서 확인 가능합니다.
+6. **합격자 발표 및 등록금 납부**:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 2024년 2월 2일 (금) 오후 2시
+     - 홈페이지에서 개별 조회 가능하며, 고지서 교부는 홈페이지에서 출력하거나 입학관리팀에서 수령 가능합니다.
+   - 최초 합격자 등록: 2024년 2월 7일 (수) ~ 2024년 2월 13일 (화), 은행 마감 시간 내에 이루어져야 합니다.
+     - 홈페이지에서 개별 조회 가능하며, 고지서 교부는 홈페이지에서 출력하거나 입학관리팀에서 수령 가능합니다.
+   - 충원 합격자 발표 및 등록: 
+     1차 (인터넷) 발표 및 등록: 2024년 2월 14일 (수) 오전 9시 ~ 오후 4시
+     2차 (인터넷) 발표 및 등록: 2024년 2월 15일 (목) 오전 9시 ~ 오후 4시
+     3차 이후 (개별 전화 통보): 2024년 2월 15일 (목) 오후 7시 ~ 2024년 2월 20일 (화) 오후 6시까지
+7. **합격자 발표 및 등록금 납부**:
+   - 충원 합격자는 지정 기간 내에 등록금을 납부해야 하며, 지정 기한 내에 납부하지 않으면 입학 포기로 간주됩니다.
+모든 지원자는 전형 일정에 명시된 합격자 발표일에 반드시 합격 여부를 확인해야 합니다. 또한, 최초 및 충원합격자는 등록 기간 내에 등록금을 납부해야 하며, 지정 기한 내에 납부하지 않으면 입학 포기를 간주됩니다.
+상세 일정과 추가 정보는 [입학 안내 홈페이지](http://ipsi.deu.ac.kr)를 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 정시 일정은 다음과 같습니다
+1. 모집인원 확정 공고
+   - 일정: 2024년 1월 2일(화)
+   - 비고: 입학안내 홈페이지 공고
+2. 원서접수(인터넷)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 6일(토) 마감일 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. 서류 제출 (제출서류가 있는 경우)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 12일(금) 마감일 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조)
+   - 제출방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. 실기고사
+   - &lt;가&gt;군 실기고사 레저스포츠학과 태권도학과
+     - 일정: 2024년 1월 16일(화)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+   - &lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과
+     - 일정: 2024년 1월 17일(수)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. 합격자 발표 및 등록금 납부
+   - 최초 합격자 발표
+     - 일정: 2024년 2월 2일(금) 14:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록
+     - 일정: 2024년 2월 7일(수) ~ 2월 13일(화) (은행마감시간 내)
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 발표
+     - 일정: 2024년 2월 14일(수) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 등록
+     - 일정: 2024년 2월 14일(수) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 발표
+     - 일정: 2024년 2월 15일(목) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 등록
+     - 일정: 2024년 2월 15일(목) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 발표
+     - 일정: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 등록
+     - 일정: 개별 전화 통보 시 안내
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+추가 유의사항:
+- 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형일정에 명시된 합격자 발표일에 합격 여부를 홈페이지를 통해 확인해야 합니다. 별도 개별 연락을 실시하지 않으며, 합격 여부 미확인으로 인해 등록하지 못했다 하더라도 등록(입학) 포기자로 간주합니다.
+- 최초 및 충원합격자는 전형일정에 명시된 등록 일정을 참고하여 지정 기일 내에 등록금을 납부해야 하며, 지정 기일 내에 등록금을 납부하지 않는 경우 입학을 포기하는 것으로 간주합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 날짜와 세부 사항이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 충돌 없이 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용과 주제를 완벽하게 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 오류가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완벽하게 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C321" t="n">
+        <v>0.8472133067650115</v>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집 일정은 다음과 같습니다:
+1. **모집인원 확정 공고**: 2024년 1월 2일 (화요일)
+2. **원서접수(인터넷)**: 
+   - 시작일: 2024년 1월 3일 (수요일)
+   - 마감일: 2024년 1월 6일 (토요일) 18시까지
+3. **서류 제출**:
+   - 시작일: 2024년 1월 3일 (수요일)
+   - 마감일: 2024년 1월 12일 (금요일) 17시까지 도착분에 한함
+4. **&lt;가&gt;군 실기고사**:
+   - 레저스포츠학과, 태권도학과: 2024년 1월 16일 (화요일)
+5. **&lt;나&gt;군 실기고사**:
+   - 디자인조형학과 (시각디자인, 산업디자인, 공예디자인): 2024년 1월 17일 (수요일)
+   - 체육학과: 2024년 1월 17일 (수요일)
+6. **합격자 발표 및 등록금 납부**:
+   - 최초 합격자 발표: 2024년 2월 2일 (금요일) 14시
+   - 최초 합격자 등록: 2024년 2월 7일 (수요일) ~ 2024년 2월 13일 (화요일)
+7. **충원 합격자 발표 및 등록**:
+   - 1차 충원 합격자 발표: 2024년 2월 14일 (수요일) 9시
+   - 1차 충원 합격자 등록: 2024년 2월 14일 (수요일) 9시 ~ 16시
+   - 2차 충원 합격자 발표: 2024년 2월 15일 (목요일) 9시
+   - 2차 충원 합격자 등록: 2024년 2월 15일 (목요일) 9시 ~ 16시
+   - 3차 이후 충원 합격자 발표 및 등록: 2024년 2월 15일 (목요일) 19시 ~ 2024년 2월 20일 (화요일) 18시까지
+이 일정은 일반적으로 지원자가 참고해야 하는 주요 날짜들입니다. 각 단계별로 합격 여부를 확인하고, 지정된 기간 내에 등록금을 납부하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. 모집인원 확정 공고: 2024년 1월 2일(화)에 입학안내 홈페이지에 공고됩니다.
+2. 원서접수(인터넷): 2024년 1월 3일(수)부터 2024년 1월 6일(토) 18시까지 진행됩니다. 접수는 [입학안내 홈페이지](http://ipsi.deu.ac.kr) 또는 [유웨이 어플라이](http://www.uwayapply.com)에서 가능합니다.
+3. 서류 제출 (제출서류가 있는 경우): 2024년 1월 3일(수)부터 2024년 1월 12일(금) 17시까지 도착해야 합니다. 서류 제출 대상자는 접수 사이트에서 우편발송용 표지를 출력하여 부착 후 제출하거나 우편으로 발송해야 합니다.
+4. 실기고사 일정:
+   - &lt;가&gt;군 실기고사: 레저스포츠학과, 태권도학과는 2024년 1월 16일(화)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+   - &lt;나&gt;군 실기고사: 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과는 2024년 1월 17일(수)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+5. 합격자 발표 및 등록금 납부:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 모두 2024년 2월 2일(금) 14:00에 발표됩니다. 발표는 홈페이지에서 개별 조회할 수 있으며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+   - 최초 합격자 등록: 2024년 2월 7일(수)부터 2월 13일(화)까지 은행 마감시간 내에 등록해야 합니다.
+   - 충원 합격자 발표 및 등록:
+     - 1차 발표: 2024년 2월 14일(수) 09:00, 등록은 같은 날 09:00~16:00
+     - 2차 발표: 2024년 2월 15일(목) 09:00, 등록은 같은 날 09:00~16:00
+     - 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보, 등록은 개별 전화 통보 시 안내됩니다.
+모든 지원자는 전형일정에 명시된 합격자 발표일에 홈페이지를 통해 합격 여부를 확인해야 하며, 지정 기일 내에 등록금을 납부하지 않으면 입학을 포기하는 것으로 간주됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 정시 모집 전형에서 수능 미응시자가 지원할 수 없다는 사실을 명확히 반영하지 않고 있습니다. 오히려 수능 미응시자가 지원할 수 있는 전형을 나열하고 있어, 사실과 상충하는 정보를 제공합니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상반된 내용을 포함하고 있습니다. 원본에서는 수능 미응시자가 지원할 수 없다고 명시하고 있지만, 생성된 응답에서는 수능 미응시자가 지원할 수 있는 전형을 언급하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보를 제공하고 있어 관련성이 낮습니다. 수능 미응시자에 대한 정보가 잘못된 방향으로 나열되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 문장 구조가 비교적 잘 구성되어 있지만, 원본 텍스트와의 내용 불일치로 인해 논리적 흐름이 약간 깨집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 상반되는 정보를 포함하고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원본 텍스트와의 불일치가 심각합니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 잘못된 정보를 전달하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 구조를 가지고 있지만, 잘못된 정보로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C322" t="n">
+        <v>0.6228218984775706</v>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형 중 수능 미응시자도 지원 가능한 전형은 어떤 것이 있나요?</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시모집에서 수능을 미응시한 지원자가 지원할 수 있는 전형으로는 "학생부교과(농어촌학생전형)"와 "학생부종합(성인학습자(정원내)전형), 학생부종합(성인학습자(정원외)전형), 학생부종합(재직자전형), 학생부종합(조기취업형계약학과전형)" 등이 있습니다.
+특히, "학생부교과(농어촌학생전형)"는 수능을 미응시한 지원자가 지원할 수 있는 전형 중 하나로, 해당 모집단위에서는 수능 점수 대신 학생부 교과 성적을 주요 평가 기준으로 합니다.
+따라서 수능을 미응시한 지원자는 이러한 전형들을 통해 지원이 가능합니다.</t>
+        </is>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에서는 수능 성적자료의 온라인 제공에 동의하는 것으로 간주되며, 수능 성적이 요구됩니다. 따라서 수능 미응시자는 지원이 불가능합니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 전년도 전자공학과의 충원 합격이 2차까지 이루어졌다고 추정하고 있으나, 원문에서는 충원 합격 차수에 대한 정보가 없다고 명시되어 있습니다. 또한, 전년도 충원 합격자는 36명까지 이루어졌다고 명확히 언급되어 있어, 사실과 다릅니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일치하지 않는 정보를 제공하고 있습니다. 원문에서는 충원 합격 차수에 대한 정보가 없다고 하였으나, 생성된 응답에서는 1차와 2차 충원 합격자 발표일을 제시하고 있습니다. 이는 서로 모순되는 내용입니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원문에서 언급된 충원 합격에 대한 질문에 대해 답변하고 있으나, 제공된 정보가 원문과 일치하지 않기 때문에 관련성이 떨어집니다. 원문에서의 핵심 정보는 충원 합격 차수에 대한 부재와 36명이라는 숫자입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일정한 흐름을 가지고 있으나, 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다. 원문과의 연결이 부족하여 논리적 흐름이 약해졌습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공된 사실과 다르게 충원 합격 차수를 추정하고 있으며, 이는 정확하지 않습니다. 원문에서 명시된 36명이라는 정보도 누락되었습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원문과의 일치성이 부족하여 전반적인 품질이 낮습니다. 사실성, 일관성, 정확성 모두에서 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 원문과 관련된 주제를 다루고 있으나, 제공된 정보가 부정확하여 의미적으로 적절하지 않습니다. 원문의 맥락을 제대로 반영하지 못하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장 구조를 가지고 있으나, 원문과의 불일치로 인해 혼란을 줄 수 있습니다. 
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C323" t="n">
+        <v>0.5941236474501373</v>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>전년도에 전자공학과의 충원 합격은 몇차까지 이루어졌습니까?</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>2024년의 전형 일정을 보면, 충원 합격자는 다음과 같이 발표되었습니다:
+- 1차 충원 합격자 발표: 2024. 02. 14.(수) 09:00
+- 2차 충원 합격자 발표: 2024. 02. 15.(목) 09:00
+따라서 전년도(2023년)의 전자공학과의 충원 합격은 최대 2차까지 이루어졌을 것으로 추정할 수 있습니다.
+하지만 정확한 정보를 얻기 위해서는 해당 대학의 입학처 웹사이트나 공지사항을 확인하는 것이 가장 확실합니다. 제공된 정보에 따르면, 충원 합격자는 3차 이후에는 개별 전화 통보로 이루어진다고 언급되어 있습니다.</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 충원 합격 차수에 대한 정보가 존재하지않습니다.
+전년도의 전자공학과의 충원 합격은 36명까지 이루어졌습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 입학관리팀의 전화번호를 명시적으로 언급하지 않고 있으며, 제공된 정보와는 상반된 내용을 포함하고 있습니다. 따라서 사실성 점수는 1입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공하고 있습니다. 원본 텍스트는 명확한 전화번호를 제공하는 반면, 생성된 응답은 전화번호에 대한 언급이 없습니다. 따라서 일관성 점수는 1입니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 동의대학교 입학처에 대한 정보를 제공하려고 하지만, 원본 텍스트의 핵심 정보인 전화번호를 무시하고 있습니다. 따라서 관련성 점수는 2입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 적절성 때문에 점수를 약간 낮추었습니다. 따라서 유창성 점수는 4입니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 원본 텍스트와의 관련성이 떨어져서 전체적인 일관성이 부족합니다. 따라서 일관성 점수는 3입니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 전화번호를 제공하지 않기 때문에 정확성 점수는 1입니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 따라서 다차원 품질 점수는 1입니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 의미적으로 적절하지 않으며, 원본 텍스트의 맥락과 일치하지 않습니다. 그러나 일부 정보는 유용할 수 있으므로 점수를 2로 설정했습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 문장으로 구성되어 있습니다. 그러나 내용의 적절성 때문에 점수를 약간 낮추었습니다. 따라서 이해 가능성 점수는 4입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C324" t="n">
+        <v>0.6492199255074477</v>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>동의대학교 입학처 전화번호는 무엇입니까?</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>提供的信息中并没有直接提到东义大学入学处的电话号码。如果您需要联系东义大学入学处，建议您访问其官方网站（https://ipsi.deu.ac.kr/main.do），通常学校官网会有联系方式等重要信息。如果仍然无法找到相关信息，可以尝试通过网站上的在线咨询服务或发送电子邮件进行询问。
+希望这能帮助到您！如果有其他问题，请随时告诉我。</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>동의대학교 입학관리팀 연락처는 051-890-4379~89입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주요 사실을 잘 반영하고 있으며, 전화 연락이 두절된 경우의 처리 방식과 등록 의사에 대한 언급이 정확합니다. 그러나 "충원합격이 되었으나"라는 표현은 원본의 "해당 지원자는 등록 의사가 없는 것으로 간주되어"와 약간의 차이가 있어 점수를 4로 평가합니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 일관되게 정보를 제공하고 있습니다. 다만, "충원합격이 되었으나"라는 표현이 원본의 내용과 약간의 차이를 보이므로 완전한 일관성은 아니라고 판단하여 점수를 4로 부여합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 핵심 사항을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 "전화 연락 두절(3회 통화)" 부분에서 약간의 어색함이 느껴져 점수를 4로 평가합니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 원본 텍스트의 흐름을 잘 따릅니다. 그러나 약간의 표현 차이로 인해 완전한 일관성은 아니라고 판단하여 점수를 4로 부여합니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으나, 약간의 표현 차이가 있어 점수를 4로 평가합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행하고 있으며, 전반적으로 높은 점수를 부여할 수 있습니다. 그러나 일부 표현에서의 차이로 인해 점수를 4로 설정합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 일부 표현에서 약간의 차이가 있어 점수를 4로 평가합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있으나, 일부 표현에서 약간의 혼란을 줄 수 있어 점수를 4로 부여합니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C325" t="n">
+        <v>0.9339704784616758</v>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에 대해 개별 전화 통보를 할 때 전화 통화가 되지 않으면 어떻게 처리되나요?</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락 두절(3회 통화)로 인해 충원합격 통보가 어려운 경우, 충원합격이 되었으나 등록 의사가 없는 것으로 간주됩니다. 따라서 지원자는 2024년 2월 15일(목)부터 2024년 2월 20일(화)까지 전화 연락을 받지 못하는 일이 없도록 유의해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락이 두절되어(3회 통화 시도) 충원합격 통보가 어려운 경우, 해당 지원자는 등록 의사가 없는 것으로 간주되어 등록 포기자로 처리됩니다. 따라서 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화)) 동안 전화 연락을 받을 수 있도록 유의해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 필요한 서류와 조건을 모두 포함하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 서류 제출 요건에 대한 정보가 충돌 없이 잘 정리되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용과 직접적으로 관련이 있으며, 필요한 서류에 대한 정보를 명확하게 제공합니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 읽기 쉽게 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 정보의 정확성이 높습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 모든 차원에서 우수한 품질을 보여줍니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C326" t="n">
+        <v>0.8183160124240925</v>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야할 서류를 알려줘</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>6년 과정과 12년 과정의 농어촌학생전형 지원을 위해서는 각각 다음과 같은 서류를 제출해야 합니다.
+### 6년 과정 (농어촌(읍·면)지역 소재 중·고등학교에서 전 교육과정을 이수한 자로서 중·고등학교 재학기간 중 본인 및 부모 모두가 농어촌(읍·면) 지역에 거주한 자)
+1. 지원자 본인의 가족관계증명서 1부
+2. 지원자 본인, 부, 모의 주민등록초본 각 1부 (총 3부)
+3. 중학교 학교생활기록부 1부 (교육기관, 공공기관, 무인민원발급기, 인터넷 정부24에서 발급 가능)
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상 교 및 미동의자) 
+5. 부모가 사망한 경우, 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부)
+6. 부모가 이혼한 경우, 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부
+### 12년 과정 (부모의 거주지와는 상관없이 지원자 본인이 초·중·고등학교 전 교육과정을 농어촌(읍·면) 지역 소재 학교에서 이수하고 거주한 자)
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부 
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상 교 및 미동의자)
+**추가 제출서류:**
+최종 등록자 중 고교 졸업예정자는 졸업 이후 지원자격 증빙서류를 2024년 2월 16일(금)까지 추가 제출해야 합니다.
+- 6년 과정: 고교 졸업증명서, 지원자 본인, 부, 모 초본 각 1부 (총 3부)
+- 12년 과정: 고교 졸업증명서, 지원자 본인 초본 1부
+**주의사항:**
+- 주민등록초본은 2024년 1월 1일 이후 발급된 서류에 한해 제출 가능합니다.
+- 주민등록초본은 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 다음과 같습니다
+6년 과정
+지원자 본인의 가족관계증명서 1부
+지원자 본인, 부, 모의 주민등록초본 각 1부 (총 3부)
+중학교 학교생활기록부 1부
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+부모가 사망한 경우: 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부 추가 제출)
+부모가 이혼한 경우: 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부 추가 제출
+12년 과정
+지원자 본인의 주민등록초본 1부
+초등학교 학교생활기록부 1부
+중학교 학교생활기록부 1부
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+중·고등학교 재학 시 부, 모 모두 농어촌(읍·면)지역에서 거주한 자는 ‘6년과정' 서류 제출 가능
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+추가 정보
+제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+주의사항: 제출서류 미제출자는 불합격 처리됩니다. 
+주민등록초본, 가족관계증명서, 혼인관계증명서, 기본증명서는 주민등록번호 전체가 기재되어 있어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출하여야 합니다.
+상기 서류는 2024년 1월 1일 이후에 발급된 서류에 한해 제출해야 합니다. 
+최종등록자 중 고교 졸업예정자는 졸업 이후 지원자격 증빙서류를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주요 서류 목록을 잘 반영하고 있으며, 추가적인 주의사항도 포함되어 있습니다. 그러나 제출 기간과 장소에 대한 정보는 원본 텍스트에 명시되어 있지 않으므로, 이 부분은 원본과의 일치성이 떨어집니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 추가적인 정보(제출 기간 및 장소)가 포함되어 있어 일관성이 떨어질 수 있습니다. 원본 텍스트에 없는 정보가 포함되어 있어 혼란을 줄 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 모든 정보를 포함하고 있으며, 주제에 대한 명확한 설명을 제공합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나 추가된 정보가 원본과의 연결성을 약간 약화시킬 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있지만, 추가된 정보가 원본에 포함되지 않아 정확성에 약간의 의문을 제기합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성에서 좋은 점수를 받았습니다. 그러나 일부 추가 정보로 인해 일관성과 정확성이 약간 떨어질 수 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 추가된 정보가 원본의 의미를 약간 왜곡할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 추가된 정보로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C327" t="n">
+        <v>0.7797957452965301</v>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야할 서류는?</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>12년 과정의 농어촌학생전형 지원자는 다음과 같은 서류를 제출해야 합니다:
+- 지원자 본인의 주민등록초본 1부
+- 초등학교 학교생활기록부 1부 
+- 중학교 학교생활기록부 1부
+- 고등학교 학교생활기록부 1부(학생부 온라인 제공 비대상교 및 미동의자)
+추가적인 주의사항:
+- 제출기간은 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+- 제출장소는 (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+- 주민등록초본은 고교졸업 이후 발급되어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.
+- 상기 서류는 2024년 1월 1일 이후에 발급된 서류에 한해 제출 가능합니다.
+- 최종등록자 중 고교 졸업예정자는 졸업 이후 지원자격 증빙서류를 2024. 02. 16.(금)까지 추가 제출해야 합니다.
+이러한 서류들을 정확하게 준비하고 제출하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야 할 서류는 다음과 같습니다
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+추가로, 최종등록자라면 다음 서류도 제출해야 합니다
+1. 고교 졸업증명서
+2. 지원자 본인의 주민등록초본 1부 주민등록초본은 고교 졸업 이후 발급된 것이어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 내용을 왜곡하고 있으며, 기회균등 전형이 존재하지 않는다는 사실을 명확히 반영하지 않고 있습니다. 또한, 저소득 가정에 대한 특별 전형이 포함될 수 있다는 불확실한 주장을 하고 있어 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있습니다. 원본 텍스트는 기회균등 전형이 존재하지 않는다고 명시하고 있지만, 생성된 응답은 그와 반대되는 내용을 제시하고 있습니다.
+3. Relevance Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 핵심 정보를 잘못 해석하고 있습니다. 기회균등 전형의 존재 여부에 대한 질문에 대한 명확한 답변을 제공하지 않기 때문에 관련성이 낮습니다.
+4. Fluency Score (1-5): 3
+   - 생성된 응답은 문법적으로는 비교적 잘 작성되었으나, 한국어로 작성된 원본 텍스트와는 다른 언어로 작성되어 있어 흐름이 자연스럽지 않습니다. 또한, 한국어 사용자가 이해하기 어려운 부분이 있습니다.
+5. Coherence Score (1-5): 2
+   - 생성된 응답은 논리적인 흐름이 부족합니다. 원본 텍스트의 내용을 기반으로 하지 않고 새로운 정보를 추가하여 혼란을 초래하고 있습니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실과 크게 다르며, 기회균등 전형이 존재하지 않는다는 중요한 사실을 무시하고 있습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 전반적으로 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 잘못된 정보를 전달하고 있습니다.
+9. Understandability Score (1-5): 2
+   - 생성된 응답은 이해하기 어려운 부분이 있으며, 원본 텍스트의 내용을 명확히 전달하지 못하고 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 3,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 2
+}</t>
+        </is>
+      </c>
+      <c r="C328" t="n">
+        <v>0.4848599079551278</v>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>정시모집에서 저소득 기회균등 전형은 선발하지 않나요?</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>提供的信息中并没有明确提到是否在正选招生（정시모집）中进行低收入机会均等类型的录取。因此，根据给出的信息无法确定正选招生是否会包含针对低收入家庭的特殊录取计划。
+如果您需要了解这方面的详细信息，建议直接访问东国大学入学管理委员会的官方网站或联系其相关部门以获取最准确的信息。网站上的最新公告和指南通常会提供此类特定招生政策的详细说明。</t>
+        </is>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 기회균등 전형이라는 전형이 존재하지 않습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수능 최저등급의 절사 처리에 대한 잘못된 정보를 포함하고 있습니다. 원본 텍스트에서는 절사 여부에 대한 구체적인 정보가 없다고 명시하고 있지만, 생성된 응답은 소수점 셋째 자리에서 절사 처리된다고 주장하고 있습니다. 이는 원본 텍스트와 상충하는 내용입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본 텍스트는 절사 여부에 대한 정보가 없다고 명시하고 있는데, 생성된 응답은 절사 처리에 대한 구체적인 내용을 제공하고 있습니다. 이는 서로 모순되는 정보입니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 질문에 대한 일부 관련성을 가지고 있지만, 잘못된 정보를 제공하고 있어 전체적으로는 적절하지 않습니다. 원본 텍스트의 핵심 내용인 절사 여부에 대한 정보가 아닌, 잘못된 절사 처리 방법에 대한 설명이 포함되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에는 영향을 미칠 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 부족하여 전체적인 일관성이 떨어집니다. 원본 텍스트의 정보와는 다른 방향으로 전개되고 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 원본 텍스트는 절사 여부에 대한 정보가 없다고 명시하고 있지만, 생성된 응답은 잘못된 절사 처리 방법을 제시하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 원본 텍스트와의 불일치로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않는 정보를 제공합니다. 절사 처리에 대한 잘못된 설명은 원본의 의도를 왜곡하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기 어렵지 않지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C329" t="n">
+        <v>0.6121192113131275</v>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>수능 최저등급에서 사탐 2 과목 평균산출이라고 나와있는데 만약 2.5등급이 나오면 절사하나요? 아님 그대로 2.5등급으로 보는건가요?</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 등급 평균 산출 시 소수점 셋째 자리에서 절사 처리한다는 내용이 포함되어 있습니다. 따라서 사탐 2과목의 평균을 계산할 때, 2.5등급은 소수점 셋째자리까지 반올림 후 절사됩니다.
+따라서 2.5등급은 3등급으로 반올림 후 절사되어 처리될 것입니다.
+이를 참고하여 수능 성적 평균을 계산하시면 됩니다.</t>
+        </is>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>제공된 데이터에는 수능 최저등급에 대한 구체적인 절사 여부에 대한 정보가 포함되어 있지 않습니다. 따라서, 수능 최저등급에서 사탐 2 과목 평균산출 시 2.5등급이 나올 경우 절사 여부에 대한 정확한 정보를 확인하려면 입학안내 홈페이지(http://ipsi.deu.ac.kr)에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 발표 일정과 방법에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 충원 합격자 발표에 대한 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 충원 합격자 발표에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄러워 읽기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보입니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C330" t="n">
+        <v>0.7090546476020548</v>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 몇차까지 있나요?</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집에서 충원 합격자는 다음과 같이 발표됩니다:
+1. **1차 충원 합격자 발표 및 등록**: 
+   - 날짜: 2024년 2월 14일(수) 09:00
+   - 방법: 홈페이지에서 개별 조회
+2. **2차 충원 합격자 발표 및 등록**: 
+   - 날짜: 2024년 2월 15일(목) 09:00
+   - 방법: 홈페이지에서 개별 조회
+3. **3차 이후 충원 합격자 발표 (개별 전화 통보)**:
+   - 날짜: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+   - 방법: 홈페이지에서 개별 조회
+따라서, 정시 충원 합격자는 최대 3차까지 발표가 있을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 3차까지 있으며, 3차 이후에는 개별 전화 통보로 발표됩니다. - 1차 발표: 2024. 02. 14.(수) 09:00 - 2차 발표: 2024. 02. 15.(목) 09:00 - 3차 이후 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지 3차 이후 발표는 개별 전화 통보로 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 영어 등급에 대한 정보를 제공하지만, 원본 텍스트에서 언급된 수능 4개 영역 등급 4.6에 대한 구체적인 맥락을 충분히 반영하지 못하고 있습니다. 또한, 영어 등급에 대한 점수표는 원본 텍스트와 관련이 있지만, 전체적인 합격 가능성에 대한 논의가 부족합니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 일부 정보를 반영하고 있지만, 영어 등급에 대한 설명이 주를 이루고 있어 원본 텍스트의 주요 내용과 일관성이 떨어집니다. 원본 텍스트에서 강조된 다른 과목의 성적이 합격 가능성에 미치는 영향에 대한 언급이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 영어 등급에 대한 정보를 제공하며, 이는 원본 텍스트의 주제와 관련이 있습니다. 그러나 전체적인 합격 가능성에 대한 논의가 부족하여 완전한 관련성을 갖추지 못하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 가독성 저하가 있을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 정보를 포함하고 있지만, 논리적인 흐름이 다소 부족하여 일관된 주제를 유지하지 못하고 있습니다. 영어 등급에 대한 설명이 주를 이루면서 원본 텍스트의 주요 내용과의 연결이 약해졌습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 영어 등급에 대한 정보를 정확하게 제공하지만, 원본 텍스트에서 제시된 수능 4개 영역 등급과의 관계를 충분히 설명하지 못하고 있습니다. 따라서 전체적인 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있지만, 원본 텍스트의 주요 내용을 충분히 반영하지 못하고 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 영어 등급에 대한 정보를 제공하며, 이는 원본 텍스트의 맥락과 관련이 있습니다. 그러나 전체적인 합격 가능성에 대한 논의가 부족하여 의미적으로 완전하지는 않습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 정보가 명확하게 전달되고 있습니다. 그러나 일부 문장이 복잡하게 구성되어 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C331" t="n">
+        <v>0.5881285425217178</v>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>e비즈니스학과 수능 성적이 4.6이면 정시 전형으로 추가 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>4.6이라는 점수는 영어 등급에 해당합니다. 수능 영어 등급을 확인해보겠습니다.
+영어 등급별 점수표를 보면:
+- 1등급 : 139점
+- 2등급 : 131점
+- 3등급 : 123점
+- 4등급 : 115점 (이 경우 4.6)
+- 5등급 : 107점
+- 6등급 : 99점
+- 7등급 : 91점
+- 8등급 : 83점
+- 9등급 : 75점
+따라서 4.6은 4등급에 해당합니다.
+다군 수능(일반학생전형)의 경우, 수능 영어영역 등급에 따른 점수를 반영하며, 이는 합격 기준 중 하나입니다. 하지만 정시 전형으로 추가 합격 가능 여부는 단순히 영어 성적이 4등급이라는 것만으로는 판단하기 어렵습니다.
+다군 수능(일반학생전형)의 경우, 다음과 같은 점수를 반영합니다:
+- 국어 표준점수
+- 수학 표준점수
+- 영어 등급에 따른 점수 (이 경우 115점)
+- 탐구 표준점수
+따라서, 국어와 수학, 탐구 영역의 성적과 함께 영어 4등급의 점수를 합산하여 모집단위별 최저합격선을 충족하는지 확인해야 합니다.
+예를 들어, 인문사회과학대학의 경우:
+- 국어 표준점수
+- 수학 표준점수 (미적분 또는 기하)
+- 영어 4등급 점수 (115점)
+- 탐구 표준점수
+이 중에서 최저합격선을 충족하는지 확인해야 합니다. 만약 해당 모집단위의 최저합격선이 국어, 수학, 탐구 등 다른 영역에서도 높다면, 4등급만으로는 추가 합격하기 어렵다고 볼 수 있습니다.
+따라서, 정확한 답변을 위해서는:
+1. 해당 모집단위의 최저합격선을 확인해야 합니다.
+2. 국어와 수학, 탐구 영역의 성적도 함께 고려해야 합니다.
+이 정보를 바탕으로 추가 합격 가능성을 판단할 수 있습니다. 더 자세한 정보는 입학처 홈페이지나 전화로 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>제공된 컨텍스트에 따라 e-비즈니스학과(e-비즈니스학과)의 최초 합격자 및 최종 등록생의 평균 점수는 다음과 같습니다:
+- 최초합격자:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 환산 점수 합: 317.20 (평균)
+  - 영어 등급 3.20 (평균)
+  - 수능 4개 영역 등급 4.17 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 438.60 (평균)
+- 최종 등록 학생:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 308.58 (평균)
+  - 영어 등급 3.66 (평균)
+  - 수능 4개 영역 등급 4.53 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 426.25 (평균)
+수능 4개 영역 등급이 4.6점이라면 최초 합격자(4.17점)와 최종 등록자(4.53점) 모두 평균을 약간 상회하는 수준입니다. 반드시 합격이 보장되는 것은 아니지만 다른 영역(국어, 수학, 탐구, 영어) 성적이 경쟁력이 있다면 충원 합격(추가모집)을 통해 합격할 가능성이 있습니다. 
+보다 정확한 평가를 위해 총 표준 변환 점수 합과 제공된 평균을 비교하는 것이 좋습니다. 총점이 평균에 근접하거나 그 이상이면 충원 합격을 통해 합격할 가능성이 더 높을 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 e비즈니스학과의 평균 영어 등급과 수능 4개 영역 등급 평균에 대한 정보를 포함하고 있으며, 정시 등급 5.3이 합격하기 어려운 이유를 잘 설명하고 있습니다. 그러나, 수능 0%와 실기 30%의 비율에 대한 정보는 원본 텍스트에 명시되어 있지 않으므로, 이 부분에서 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 내용을 잘 반영하고 있으며, 정시 등급 5.3으로 합격하기 어려운 점을 일관되게 설명하고 있습니다. 다만, 실기 성적의 중요성을 강조하는 부분이 원본 텍스트에 명시되어 있지 않아 약간의 일관성 부족이 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 정시 등급 5.3에 대한 합격 가능성을 평가하는 데 필요한 모든 정보를 포함하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 읽기 쉽게 잘 구성되어 있습니다. 문장 구조와 표현이 자연스럽습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적인 흐름이 잘 유지되고 있으며, 각 항목이 명확하게 구분되어 있어 전체적으로 일관된 구조를 가지고 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 대부분의 사실을 정확하게 반영하고 있지만, 수능 0%와 실기 30%의 비율에 대한 정보는 원본 텍스트에 명시되어 있지 않아 정확성에서 약간의 부족함이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성에서 좋은 점수를 받았습니다. 그러나 일부 정보의 출처가 불명확하여 점수가 약간 낮아졌습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 정리되어 있어 독자가 쉽게 이해할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C332" t="n">
+        <v>0.6601372328746785</v>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>정시 등급 5.3이면 동의대학교에 e비즈니스학과에 최초 합격 가능성 있을까?</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 e비즈니스학과의 모집요강을 바탕으로, 정시 등급 5.3으로 최초합격 가능성을 평가해보겠습니다.
+1. **모집인원 및 전형 요소 반영 비율**:
+   - e비즈니스학과는 &lt;나&gt;군에 속하며, 전형요소 반영 비율은 수능 0%, 실기 30%입니다.
+2. **수능 등급**:
+   - 정시 등급 5.3은 상당히 낮은 등급이며, 이는 e비즈니스학과의 수능 점수 기준을 충족시키지 못합니다.
+3. **실기 성적**:
+   - 실기 성적이 중요하며, 실기 성적에 따라 합격 여부가 결정됩니다.
+   - e비즈니스학과는 실기 성적이 30%의 비율로 반영되므로, 실기 성적이 높은 지원자들이 선발될 가능성이 큽니다.
+4. **합격 가능성**:
+   - 정시 등급 5.3으로 e비즈니스학과에 최초 합격하기는 어렵습니다.
+   - 이 등급으로는 수능 점수 기준을 충족시키지 못하므로, 실기 성적이 매우 높아야 최초합격 가능성은 조금 있습니다.
+따라서 정시 등급 5.3으로 e비즈니스학과에 최초 합격하기는 어렵다고 판단됩니다. 실기 성적을 포함한 전반적인 경쟁력을 고려해야 합니다. 자세한 정보는 동의대학교 입학처 웹사이트를 참조하시거나, 입학처에 직접 문의하시는 것이 좋습니다.
+더 궁금하신 점이 있으시면 언제든지 물어보세요!</t>
+        </is>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, e비즈니스학과의 영어 등급 평균은 3.66이고, 수능 4개 영역 등급 평균은 4.53입니다. 따라서, 현재 정시 등급이 5.3이라면 e비즈니스학과에 합격하기 어려울 수 있습니다. e비즈니스학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 e비즈니스학과의 예비 합격 가능성에 대한 구체적인 정보를 제공하지 않고, 일반적인 조언을 제시하고 있습니다. 원본 텍스트에서 명시된 예비 38번의 낮은 합격 가능성을 무시하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일치하지 않으며, 예비 38번의 합격 가능성에 대한 명확한 정보를 제공하지 않고 있습니다. 원본의 주장을 반박하는 내용이 포함되어 있습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트와 관련된 주제를 다루고 있지만, 예비 38번의 합격 가능성에 대한 직접적인 답변을 제공하지 않기 때문에 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 한국어로 작성된 원본 텍스트와는 다른 언어로 작성되어 있어 일관성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 조언을 제시하지만, 원본 텍스트의 주제와 연결되지 않아 일관된 흐름이 부족합니다. 원본의 주제를 명확히 반영하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 예비 38번의 합격 가능성에 대한 정보를 왜곡하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 원본 텍스트의 핵심 내용을 반영하지 못하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 부합하지 않으며, 예비 38번에 대한 정보가 부족합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 읽기 쉬운 문장으로 구성되어 있지만, 원본 텍스트와의 관련성이 부족하여 이해하기 어려운 부분이 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C333" t="n">
+        <v>0.4998493788755429</v>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>e비즈니스학전공 예비 38번 이정도면 예비합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>提供的信息中没有关于e비즈니스학전공(电子商务学专业)的具体录取标准和分数线。因此，仅凭“预审38号”这一信息无法判断是否有可能被预录取。
+为了更准确地评估您是否有资格被预录取，建议参考以下几点：
+1. **查看最新的招生简章**：通常学校会在官网发布详细的招生简章，其中会包含各个专业的具体录取标准和分数线等信息。
+2. **了解专业要求**：电子商务学专业一般会有一定的学术成绩要求、英语水平要求等。请确保您的成绩单符合这些要求。
+3. **咨询学校**：直接联系学校的招生办公室或相关院系，询问具体的预录取情况和后续步骤。
+如果您能提供更多关于您个人成绩和其他相关信息（如GPA、英语考试成绩等），我可以帮助进一步分析。建议尽快访问学校官网获取最新信息，并与相关部门取得联系确认具体情况。</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 31번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 38번이라면 e비즈니스학과에 예비 합격할 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 평균 등급과 관련된 정보를 포함하고 있으며, GPA 3.44에 대한 평가를 제공하고 있습니다. 그러나 "상대적으로 낮은 점수"라는 표현은 다소 주관적일 수 있으며, 평균 등급과의 비교를 명확히 하지 않아 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일관되며, GPA와 관련된 여러 요소를 고려하여 합격 가능성을 설명하고 있습니다. 다만, 원본 텍스트에서 제시된 평균 등급과의 직접적인 비교가 부족하여 약간의 일관성 부족이 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 간호학과의 합격 가능성에 대한 다양한 요소를 다루고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 자연스럽게 읽히며, 잘 구성되어 있습니다. 따라서 유창성이 매우 높습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 명확하게 연결되어 있습니다. 그러나 일부 부분에서 더 명확한 연결이 필요할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있지만, GPA에 대한 주관적인 해석이 포함되어 있어 약간의 정확성 문제가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 품질을 보여줍니다. 그러나 일부 세부 사항에서 개선이 필요합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 일부 표현이 다소 주관적일 수 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다. 따라서 이해 가능성이 매우 높습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C334" t="n">
+        <v>0.5015142110196896</v>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>정시 성적 3.44인데 동의대학교 간호학과에 합격 가능성 없을까요?</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>3.44이라는 GPA는 동의대학교 간호학과에 지원하는 데 있어 상대적으로 낮은 점수입니다. 하지만 합격 가능성 여부는 여러 요소로 결정됩니다:
+1. **전체 입시 경쟁률**: 동의대학교 간호학과의 경쟁률이 매우 높습니다. 2023년도에 6:1의 경쟁률을 기록했으며, 이는 매우 치열한 경쟁을 의미합니다.
+2. **학생부 평가**: GPA 외에도 학생부 평가 영역에서 좋은 성적을 받은 경우 합격 가능성은 높아집니다. 특히 공동체역량과 전공적합성 등이 중요하게 평가됩니다.
+3. **면접 성적**: 면접에서도 좋은 점수를 받는 것이 유리합니다. 일부 모집단위에서는 면접 점수가 합격 결정에 큰 영향을 미칩니다.
+4. **추천서 및 특기사항**: 추천서나 특기사항 등이 있다면 이도 긍정적으로 작용할 수 있습니다.
+5. **추가 지원 자격**: 일부 모집단위에서는 추가 지원 자격이나 경험이 유리하게 작용할 수 있으므로, 해당 부분을 확인해 보세요.
+6. **동점자 처리 기준**: 동점자가 발생했을 때의 처리 기준도 고려해야 합니다. 면접 성적이 높다면 이 점이 합격 결정에 영향을 미칠 수 있습니다.
+결론적으로, 3.44라는 GPA로는 매우 낮은 확률로 합격할 수 있지만, 다른 평가 요소들이 긍정적이라면 합격 가능성은 열려있습니다. 전반적인 지원 자질과 경쟁력을 고려하여 최선을 다해 준비하는 것이 중요합니다.
+추가적으로, 동의대학교 입학 홈페이지나 관계부서에 문의하시거나, 입시 상담을 받는 것도 도움이 될 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.44이라면 간호학과에 합격하기 어려울 수 있습니다. 간호학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 간호학과의 평균 등급과 관련된 정보를 제공하지만, 2.52라는 성적이 간호학과의 평균 등급보다 높다는 원문 내용과 상충합니다. 원문에서는 2.52가 평균보다 높은 성적이라고 언급했으나, 생성된 응답에서는 이 성적이 낮다고 주장하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일관되지 않습니다. 원문에서는 2.52가 합격 가능성이 높다고 했지만, 생성된 응답에서는 이 성적이 낮아 합격하기 어렵다고 주장합니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 경쟁률과 모집 인원에 대한 정보를 제공하여 관련성을 유지하고 있지만, 원문에서 제시한 합격 가능성에 대한 질문에 대한 직접적인 답변은 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 원문과의 연결이 약해지는 부분이 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공한 정보와 상충하는 내용을 포함하고 있습니다. 특히, 2.52라는 성적에 대한 해석이 잘못되어 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원문과의 일치성이 떨어지며, 사실성, 일관성, 정확성에서 낮은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원문과의 의미적 일치가 부족하여 다소 부적절한 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보 전달이 이루어졌습니다. 그러나 원문과의 연결이 약해져서 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C335" t="n">
+        <v>0.6343513276107882</v>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.52인데 동의대학교 간호학과 최종 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 간호학과의 모집인원과 지원 인원, 경쟁률을 살펴보겠습니다.
+- **모집인원**: 22명
+- **지원 인원**: 145명
+- **경쟁률**: 약 6.59대 1
+간호학과는 상당히 높은 경쟁률을 보이는 학과입니다. 평균적인 수능 점수를 보면, 최종합격자들의 국어 + 수학 + 탐구(2개) 표준 변환 점수 평균이 481.70점으로 매우 높습니다.
+당신의 성적이 2.52라면, 이는 표준변환점수로 환산하면 대략 300점대 중반에서 후반 정도가 됩니다. 이 점수가 간호학과의 평균적인 최종합격 점수(481.70점)와 비교해보면, 매우 낮은 수준입니다.
+따라서, 현재로서는 2.52라는 성적로 동의대학교 간호학과에 최종 합격하기는 어려울 것으로 보입니다. 하지만 입시 상황이 변동될 수 있으므로, 정확한 결과를 확인하려면 공식 발표를 기다리는 것이 좋습니다.
+추가적으로, 면접 등 다른 평가 요소도 고려해야 하며, 학생부 종합평가에서도 좋은 점수를 받는다면 가능성이 조금은 높아질 수 있습니다. 하지만 현재로서는 낮은 성적로 최종 합격하기는 어려울 것으로 예상됩니다.</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 보면, 평균 영어 등급은 2.34이고,  수능 4개 영역 등급 평균은 3.37입니다. 
+따라서, 현재 정시 등급이 2.52이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 평균 성적과 관련된 정보를 제공하고 있으며, 3.7의 성적이 평균보다 낮다는 점을 언급하고 있습니다. 그러나, "중간적인 점수"라는 표현은 다소 모호할 수 있으며, 평균 성적과의 비교가 명확하지 않을 수 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일관되게 여러 요소를 고려해야 한다고 언급하고 있습니다. 다만, "3.7의 성적은 중간등급"이라는 표현이 원본의 평균 성적과의 관계를 명확히 하지 않아 약간의 일관성 부족이 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문에 대한 직접적인 답변을 제공하며, 간호학과에 합격하기 위한 여러 요소를 상세히 설명하고 있습니다. 원본 텍스트의 주요 내용과 잘 연결되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 명확하게 연결되어 있습니다. 그러나 일부 부분에서 더 명확한 연결이 필요할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, 추가적인 정보도 제공하고 있습니다. 그러나 3.7의 성적이 "중간적인 점수"라는 표현은 다소 주관적일 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행하고 있으며, 전반적으로 유용한 정보를 제공합니다. 그러나 일부 표현에서 명확성이 부족할 수 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합합니다. 그러나 "중간적인 점수"라는 표현은 다소 모호할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 길어질 경우 이해하기 어려울 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C336" t="n">
+        <v>0.5359203721106035</v>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>정시 성적이 3.7인데 정시 전형으로 간호학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>3.7의 성적은 중간적인 점수로, 간호학과에 합격하기 위해서는 여러 요소를 고려해야 합니다.
+1. **모집인원 및 경쟁률**: 간호학과의 모집인원과 해당년도의 경쟁률을 확인해야 합니다. 경쟁률이 높다면, 3.7의 성적만으로 합격하기는 어렵습니다.
+2. **전형요소 반영비율**: 나군 수능(일반학생전형)에서는 전 모집단위에서 수능성적이 100% 반영됩니다. 따라서 수능 점수가 중요한 역할을 합니다.
+3. **개인 성적 등급**: 나군의 경우, 학생부교과성적은 반영되지만 주요한 요소는 수능 성적입니다. 3.7의 성적은 중간등급으로, 경쟁률이 높다면 이만한 점수로 합격하기 어렵습니다.
+4. **추천서 및 자기소개서 등 서류평가**: 일부 전형에서는 추천서나 자기소개서 등의 서류평가가 이루어지므로, 이러한 부분에서 우수한 평가를 받는 것도 중요합니다.
+5. **면접 성적 (만약 필요하다면)**: 면접에서도 좋은 점수를 받는 것이 유리할 수 있습니다.
+6. **추천사**: 특정 학교나 모집단위에서는 추천사를 요구하거나 고려하므로, 이에 대한 준비도 필요합니다.
+결론적으로 3.7의 성적만으로 간호학과에 확실하게 합격하기는 어렵습니다. 경쟁률이 높다면 추가적인 지원 자료와 면접 등에서 우수한 평가를 받는 것이 중요합니다. 또한, 모집인원과 경쟁률을 확인하여 더 정확한 판단을 내리시길 바랍니다.
+추천: 
+- 해당년도의 간호학과 모집인원과 경쟁률을 확인하세요.
+- 전형요소 반영비율을 확인하고, 수능 성적이 주요한 역할을 하는지 파악하세요.
+- 추가 지원 자료와 면접 준비를 철저히 하세요.</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.7이라면 간호학과의 평균 등급보다 낮은 성적을 가지고 있기 때문에 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 수능 점수 2.58이 간호학과의 평균보다 높다고 언급했지만, 실제로는 간호학과의 평균 수능 점수는 3.37로, 2.58은 평균보다 낮습니다. 따라서 이 부분에서 사실과 다릅니다.
+2. Consistency Score (1-5): 3
+   - 설명: 응답은 수능 점수 외에도 학생부 성적, 면접 등 다양한 요소를 고려해야 한다고 언급하고 있지만, 수능 점수 2.58이 평균보다 높다고 잘못된 정보를 제공하여 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문의 주제와 관련된 정보를 제공하며, 간호학과의 입학 기준에 대한 구체적인 내용을 포함하고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 응답은 전반적으로 잘 구성되어 있으며, 문법적으로도 큰 문제가 없습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 응답은 논리적으로 잘 연결되어 있으며, 각 요소가 명확하게 설명되어 있습니다. 그러나 수능 점수에 대한 잘못된 정보로 인해 약간의 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 응답에서 제공된 수능 점수에 대한 정보가 부정확하여 정확성 점수가 낮습니다. 간호학과의 평균 수능 점수는 3.37로, 2.58은 그보다 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 여러 차원에서 평균적인 성과를 보이지만, 사실성과 정확성에서 문제가 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 응답은 주제와 관련된 의미를 잘 전달하고 있으며, 전반적으로 적절한 맥락을 유지하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉬우며, 명확한 설명이 제공되고 있습니다. 다만, 일부 문장이 길어질 수 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C337" t="n">
+        <v>0.5775168740022689</v>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>정시 성적이 2.58인데 동의대학교 간호학과에 정시 전형으로 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 간호학과의 정시 모집에서는 수능 점수뿐만 아니라 학생부 성적, 면접 등 다양한 평가 요소들이 고려됩니다. 따라서 단순히 수능 점수만으로는 합격 여부를 판단하기 어렵습니다.
+간호학과의 경우 일반적으로 다음과 같은 평균적인 기준이 있습니다:
+1. **수능 성적**: 대체로 2.58 이상은 충분하지 않을 가능성이 높습니다. 간호학과는 보통 3.0 이상의 수능 점수가 요구됩니다.
+2. **학생부 성적**: 학생부 교과성적이 중요합니다. 특히 인성, 진로선택과목 등이 반영되므로 좋은 성적을 유지한 것이 유리합니다.
+3. **면접 성적**: 면접에서도 좋은 평가를 받는 것이 필요합니다. 간호사로서의 자질과 적합성을 잘 보여줘야 합니다.
+4. **추천서 등 추가 서류**: 일부 학교에서는 추천서나 자기소개서 등을 요구하기도 하므로 이에 대한 준비도 필요합니다.
+따라서, 수능 점수 2.58만으로는 간호학과에 정시로 합격하기 어렵다고 볼 수 있습니다. 하지만 학생부 성적, 면접 성적 등 다른 평가 요소들이 좋다면 합격 가능성은 열려있습니다.
+추천되는 조치:
+- **학생부 성적 확인**: 현재의 학생부 성적을 다시 한 번 점검하고 필요하다면 보강해야 합니다.
+- **면접 준비**: 면접 시 간호사로서의 자질과 적합성을 잘 보여줄 수 있도록 준비합니다.
+- **추천서 및 자기소개서 작성**: 필요한 경우 추천서와 자기소개서를 철저히 준비합니다.
+최종 합격 여부는 여러 평가 요소들이 복합적으로 고려되기 때문에, 정확한 판단을 위해서는 동의대학교 입학처 웹사이트나 전화로 상세 문의를 하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 2.58이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 예비 7번의 합격 가능성에 대한 정보를 제공하지만, 원본 텍스트의 핵심 사실인 "충원합격(후보 순위) 3번까지 충원합격 된 것으로 나온다"는 내용을 명확히 반영하지 않고 있습니다. 또한, "게임학의招生名额为3人"이라는 표현은 원본 텍스트의 내용을 왜곡하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트는 예비 7번의 합격 가능성이 낮다고 명시하고 있지만, 생성된 응답은 여러 요인에 따라 결과가 달라질 수 있다고 언급하여 모순된 정보를 제공합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 질문에 대한 답변을 시도하지만, 원본의 핵심 정보와는 다소 거리가 있습니다. 예비 7번의 합격 가능성에 대한 직접적인 언급이 부족하여 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 한국어로 작성된 원본 텍스트와는 다른 언어로 작성되어 있어, 한국어 사용자에게는 다소 불편할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 논리적인 흐름이 부족하여 일관성이 떨어집니다. 원본 텍스트의 주제와 관련된 정보가 명확하게 연결되지 않습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 예비 7번의 합격 가능성에 대한 정확한 정보를 제공하지 않습니다. 원본의 내용을 잘못 해석하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성 모두 부족하여 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 부합하지 않으며, 잘못된 정보를 전달하고 있습니다. 원본의 의도를 제대로 반영하지 못하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 읽기에는 무리가 없지만, 원본 텍스트와의 관련성이 떨어져 이해하기 어려운 부분이 있습니다. 원본의 질문에 대한 명확한 답변이 부족합니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C338" t="n">
+        <v>0.5015531348744402</v>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>게임공학과 예비번호 7번인데요 붙을까요?</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>为了回答您的问题，我需要查看相关的信息。根据您提供的数据表，游戏学（게임공학과）的招生名额为3人，并且有3个预录取名额（预备号码）。目前已经有3名学生被正式录取，所以您的预录取编号7是否能转正取决于学校是否有空缺名额。
+从表格中的信息来看，最终录取结果会根据多个因素决定，包括但不限于成绩、面试表现等。因此，虽然您是第7位预录取者，但并不保证一定能被录取。建议密切关注学校的官方通知和网站更新，以获取最新的录取信息。
+如果您想提高被录取的机会，可以：
+1. 确保您的学术成绩优异。
+2. 准备好参加可能的面试或其他评估环节，并表现出色。
+3. 关注学校发布的任何补充材料或额外要求的信息。
+希望这些信息对您有所帮助！如果有其他问题，请随时提问。</t>
+        </is>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 3번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 7번이라면 게임공학과에 예비 합격할 가능성이 낮다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 생성된 응답은 4.16이라는 점수가 상대적으로 낮다고 언급하고 있지만, 원문에서는 이 점수가 게임공학과의 평균 등급보다 높은 성적이라고 명시하고 있습니다. 따라서 사실관계에 대한 오류가 있습니다.
+2. Consistency Score (1-5): 2  
+   - 생성된 응답은 원문과 상반된 정보를 제공하고 있습니다. 원문은 4.16이 높은 성적이라고 하지만, 생성된 응답은 낮은 점수라고 주장하고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 4  
+   - 생성된 응답은 원문에서 언급된 추가 합격 가능성에 대한 질문에 대해 여러 요소를 고려하여 설명하고 있어 관련성이 높습니다. 그러나 원문에서 제공된 구체적인 데이터와 비교할 때 일부 정보가 부족합니다.
+4. Fluency Score (1-5): 4  
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4  
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 명확하게 연결되어 있습니다. 그러나 원문과의 연결이 약해지는 부분이 있습니다.
+6. Accuracy Score (1-5): 2  
+   - 생성된 응답은 원문에서 제공된 사실과 상충하는 내용을 포함하고 있어 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 3  
+   - 여러 차원에서의 평가를 종합적으로 고려했을 때, 생성된 응답은 일부 강점을 가지고 있지만, 사실관계와 일관성에서 큰 문제를 보이고 있어 중간 점수를 부여합니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 생성된 응답은 원문의 맥락과 일부 일치하지만, 사실관계의 오류로 인해 의미적으로 적절하지 않은 부분이 있습니다.
+9. Understandability Score (1-5): 4  
+   - 전반적으로 이해하기 쉬운 내용이지만, 원문과의 불일치로 인해 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C339" t="n">
+        <v>0.5665701949872094</v>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>수능 성적이 4.16정도인데 정시 전형으로 동의대학교 게임공학과에 지원하면 추가 합격 몇 번정도 받을 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>4.16이라는 점수는 현재 수능 평균 점수와 비교했을 때 상대적으로 낮은 점수입니다. 동의대학교 게임공학과의 경우, 정시 전형에서 수능 성적에 크게 의존하는 경향이 있습니다.
+다만, 정확한 추가 합격 가능 횟수를 예측하기 위해서는 다음과 같은 요소들을 고려해야 합니다:
+1. **모집인원 및 지원자 수**: 동의대학교 게임공학과의 모집인원과 실제 지원자의 수에 따라 경쟁률이 달라질 수 있습니다.
+2. **경쟁률**: 현재 4.16이라는 점수로 지원하면, 해당 학과의 경쟁률을 고려해야 합니다. 경쟁률이 높다면 추가 합격 가능성은 낮아지게 됩니다.
+3. **전형별 특성**: 동의대학교는 다양한 전형(가군, 나군 등)으로 모집하므로, 지원자가 어떤 전형에 지원할 것인지에 따라 결과가 달라질 수 있습니다.
+4. **추가 합격 가능성**: 추가 합격 가능 횟수를 정확히 예측하기 어렵습니다. 경쟁률이 높다면 1차 합격 후 추가 합격을 받는 것이 어려울 수 있습니다.
+5. **개인 성적 향상**: 지원자가 수능 점수를 향상시키거나, 다른 전형(예: 실기/실적, 학생부종합 등)에서 우수한 성과를 거두면 추가 합격 가능성은 높아질 수 있습니다.
+따라서, 정확한 추가 합격 가능 횟수를 예측하기는 어렵습니다. 하지만 4.16이라는 점수로 지원한다면, 최소한의 경쟁률을 가지고 있는 전형에 지원하는 것이 유리할 것입니다. 또한, 다른 전형(실기/실적, 학생부종합 등)에서도 우수한 성과를 거두는 것이 중요합니다.
+추가 정보를 얻으시려면 동의대학교 입학처 웹사이트나 전화로 문의하시는 것을 추천드립니다.</t>
+        </is>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 게임공학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.78입니다. 따라서, 현재 정시 등급이 4.16이라면 게임공학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 단, 추가 합격 몇 번을 받을지는 예측하기 어렵습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 경영정보학과의 성적 기준과 최초합격자 발표 일정에 대한 정보를 포함하고 있으며, 원본 텍스트의 내용을 대체로 정확하게 반영하고 있습니다. 그러나 원본 텍스트에서 제공된 평균 등급 정보(영어 등급 평균 2.88, 수능 4개 영역 등급 평균 3.88)는 언급되지 않았습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일관되며, 경영정보학과의 성적 기준에 대한 설명이 일치합니다. 다만, 원본 텍스트의 평균 등급 정보가 누락되어 있어 완전한 일관성은 부족합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 경영정보학과의 정시모집에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 경영정보학과의 성적 기준과 관련된 정보를 정확하게 제공하고 있지만, 원본 텍스트의 평균 등급 정보가 누락되어 있어 완전한 정확성은 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 유창성, 일관성에서 좋은 점수를 받았습니다. 그러나 평균 등급 정보의 누락으로 인해 완전한 점수를 주기에는 부족합니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C340" t="n">
+        <v>0.6180527994653119</v>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적 3.75 인데 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시모집에서 경영정보학과에 지원하려는 경우, 최초합격자의 합격 기준을 확인해야 합니다.
+주요 점은 다음과 같습니다:
+1. **성적 기준**: 경영정보학과의 경우, 수능 성적 3.75 이상이 필요합니다. 이는 대체로 중간 이상의 성적이어야 합니다.
+2. **최초합격자 발표 일정**: 최초합격자는 2024년 2월 2일(금)에 발표됩니다. 모든 지원자는 이날짜 이후 합격 여부를 확인해야 합니다.
+3. **등록 기간**: 최초합격자는 지정된 등록기간 내에 등록금을 납부해야 합니다 (2024년 2월 7일~13일).
+따라서, 경영정보학과의 정시 성적 기준이 3.75 이상이라면, 최초합격자로 선발될 가능성이 있습니다. 하지만 확실한 것은 최초합격자 발표 결과를 확인해야 합니다.
+**주의사항:**
+- 모든 지원자는 합격 여부를 반드시 홈페이지에서 확인해야 합니다.
+- 지정된 등록 기간 내에 등록금을 납부하지 않으면 입학이 포기됩니다.
+따라서, 최초합격자 발표 결과를 확인한 후 결정하시길 바랍니다. 더 자세한 정보는 동의대학교 입학관리 홈페이지를 참조하시거나 문의해보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다.
+따라서, 현재 정시 등급이 3.75이라면 경영정보학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 높아보입니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 관련이 없으며, 잘못된 정보와 혼란을 초래하는 내용을 포함하고 있습니다. 원본 텍스트는 경영정보학과의 평균 등급에 대한 정보를 제공하고 있지만, 생성된 응답은 다른 전형에 대한 설명을 하고 있어 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 전혀 일치하지 않으며, 서로 상충하는 정보를 제공합니다. 원본 텍스트는 특정 학과의 합격 가능성에 대한 정보를 제공하는 반면, 생성된 응답은 다른 전형에 대한 설명을 하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 질문에 대한 직접적인 답변을 제공하지 않습니다. 원본 텍스트의 핵심 내용과는 전혀 다른 방향으로 나아가고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로는 비교적 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 적절성이나 관련성 부족으로 인해 전체적인 평가에는 부정적인 영향을 미칩니다.
+5. Coherence Score (1-5): 2
+   - 설명: 생성된 응답은 내부적으로는 어느 정도 구조가 있지만, 원본 텍스트와의 연결이 없기 때문에 전체적인 일관성이 떨어집니다. 주제가 일관되지 않아 논리적인 흐름이 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 원본 텍스트의 내용과는 전혀 다른 주제를 다루고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원본 텍스트와의 연관성이 없고, 잘못된 정보를 제공하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 부합하지 않으며, 주제와 관련이 없는 내용을 다루고 있습니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 내용이 원본 텍스트와 관련이 없기 때문에 전체적으로 이해하기 어려운 부분이 있습니다. 
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C341" t="n">
+        <v>0.4926279291165389</v>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적이 4.2입니다. 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>为了回答这个问题，我们需要查看一些具体的信息。根据提供的信息，我们可以了解到：
+1. **招生类型和科目**：您提到的是“가군 수능(일반학생전형)”（即A类普通学生入学考试），这意味着主要依据高考成绩进行录取。
+2. **各专业具体的录取分数线**：虽然没有直接给出每个专业的具体分数线，但可以参考一般情况下，大多数本科专业的录取分数通常在400分以上。对于一些竞争激烈的热门专业，分数线可能会更高。
+3. **您的成绩**：您提到的“4.2”可能是指高考总分（满分100分），即42分。这个分数相对较低，不太可能达到一般本科专业的录取标准。
+因此，根据提供的信息和一般的招生情况，“4.2”的成绩在A类普通学生入学考试中通常不足以成为最初合格者（최초합격자）或补充合格者（충원합격자）。建议您查看具体专业的分数线或者直接咨询学校以获取更准确的信息。如果确实希望申请该专业，可能需要考虑其他类型的招生方式或其他大学的专业。
+如果您有更多关于特定专业的详细信息，比如具体的录取分数范围，请提供更多信息以便给出更精确的答案。</t>
+        </is>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최초등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 2.88이고, 수능 4개 영역 등급 평균은 3.88입니다. 
+따라서, 현재 정시 등급이 4.2이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 즉, 최초합격 가능성은 적습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 합격 기준에 대한 정보가 부족하고, 5.33이라는 점수가 좋다고 언급하지만, 원본 텍스트에서는 이 점수가 평균보다 낮다고 명시하고 있습니다. 따라서 사실관계에서 일부 불일치가 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 경영정보학과의 합격 가능성에 대한 정보를 제공하지만, 원본 텍스트와의 일관성이 부족합니다. 원본에서는 5.33이 평균보다 낮다고 하였으나, 생성된 응답에서는 이 점수가 좋다고 언급하여 상충하는 정보가 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 경영정보학과의 합격 가능성에 대한 질문에 관련된 정보를 제공하고 있으나, 원본 텍스트의 핵심 내용과는 다소 차이가 있습니다. 그러나 여전히 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 단계가 명확하게 연결되어 있습니다. 그러나 원본 텍스트와의 연결성이 떨어지는 부분이 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 제공하지만, 원본 텍스트의 사실과 상충하는 부분이 있어 정확성에서 다소 부족합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 사실관계와 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 의미적으로 적절하며, 질문의 맥락에 맞는 정보를 제공합니다. 그러나 원본 텍스트와의 의미적 일치가 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 명확한 지침을 제공합니다. 그러나 일부 문장이 길어 이해하는 데 시간이 걸릴 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C342" t="n">
+        <v>0.6884280859688043</v>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>정시 성적이 5.33인데 동의대학교 경영정보학과 일반학생전형으로 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 경영정보학과의 경우, 수능(일반학생전형) 모집에 대한 정확한 합격 기준 점수는 공시되지 않았습니다. 하지만 일반적으로 대학별로 특정 학과에서의 최저합격선은 4.0 이상이 되어야 하는데, 일부 학과에서는 더 높은 점수가 요구될 수 있습니다.
+5.33이라는 표준점수는 상당히 좋은 성적입니다. 이 점수만으로는 확정적으로 합격 가능하다고 말하기 어렵습니다. 경영정보학과의 경우, 일반적으로 4.5 이상이 필요할 것으로 예상되지만, 최종 합격 가능성은 모집인원, 지원자들의 수능 성적 분포 등에 따라 달라질 수 있습니다.
+따라서, 다음과 같은 절차를 따르는 것이 좋습니다:
+1. **공식 정보 확인**: 동의대학교 입학 홈페이지나 공지사항을 통해 최신 합격 기준 점수와 모집인원 등을 확인하세요.
+2. **지원자 분석**: 지원자의 수능 성적과 경쟁률, 지원 인원 등을 고려하여 합격 가능성 평가를 해보세요.
+3. **추천서 및 서류 준비**: 필요하다면 추천서나 기타 서류를 준비하고 잘 작성하세요.
+만약 공식 정보에서 최저합격선이 4.5 이상이라면, 5.33이라는 점수는 충분히 경쟁력을 갖춘 것으로 볼 수 있습니다. 하지만 확실한 답변을 원한다면, 동의대학교 입학 홈페이지나 관계부서에 직접 문의하는 것이 가장 정확할 것입니다.
+[https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do)</t>
+        </is>
+      </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최종등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.31입니다. 따라서, 현재 정시 등급이 5.33이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 바이오응용공학부의 평균 등급과 GPA에 대한 정보를 제공하고 있으며, GPA가 낮을 수 있다는 점을 언급하고 있습니다. 그러나 최초등록자로 선발되는 가능성에 대한 정보는 다소 일반화되어 있으며, 구체적인 수치나 데이터가 부족합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하는 부분이 있지만, GPA가 낮을 수 있다는 주장은 원본 텍스트의 긍정적인 합격 가능성과 상충할 수 있습니다. 따라서 일관성이 다소 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 질문에 대한 직접적인 답변을 제공하며, 바이오응용공학부에 지원하는 데 필요한 다양한 요소를 설명하고 있습니다. 원본 텍스트의 주요 주제와 잘 연결되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며, 읽기 쉽게 작성되었습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 명확하게 연결되어 있습니다. 그러나 일부 부분에서 정보의 흐름이 약간 끊길 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, GPA와 관련된 정보도 정확합니다. 그러나 최초등록자 선발에 대한 구체적인 기준이 부족하여 완전한 정확성을 보장하지는 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받았습니다. 그러나 일부 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 그러나 일부 표현이 다소 모호할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 문장이 길어 이해하는 데 시간이 걸릴 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C343" t="n">
+        <v>0.6943607143576385</v>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 3.33 정도인데 바이오응용공학부 최초등록자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>3.33이라는 GPA는 바이오응용공학부(의생명공학과, 바이오의약공학과, 식품공학과)에 지원하기에는 약간 낮은 점수일 수 있습니다. 하지만 최초등록자로 선발되는 것은 여러 요소가 작용합니다:
+1. **전형 유형**: 
+   - 학생부종합(평생학습자전형, 성인학습자전형, 재직자전형) 등에서 지원하면 GPA는 중요한 요인이지만, 다른 평가 기준도 중요합니다.
+2. **기타 평가 요소**:
+   - 학교생활기록부의 내용
+   - 면접 성과 (만약 면접이 포함된 전형이라면)
+   - 지원자의 특별한 경력이나 활동
+3. **전형 요소 반영 비율**:
+   - 학생부종합(평생학습자전형, 성인학습자전형, 재직자전형)은 서류 70%, 면접 30%로 구성되어 있습니다.
+4. **모집 단위별 특성**:
+   - 바이오응용공학부는 일반적으로 높은 학업 성적을 요구하지만, 평생학습자전형이나 재직자전형에서는 GPA가 조금 낮더라도 다른 요소를 보완할 수 있습니다.
+따라서 3.33의 GPA로 바이오응용공학부에 지원하려면:
+- **학교생활기록부**에서 높은 학업태도와 열정을 보여주어야 합니다.
+- **면접 성과**가 좋다면 이점을 활용할 수 있습니다.
+- **특별한 경력이나 활동**이 있다면 이를 강조해야 합니다.
+결론적으로, 3.33의 GPA로 최초등록자로 선발되는 것은 가능하지만, 다른 평가 요소들이 중요하게 작용합니다. 자세한 정보는 동의대학교 입학처 웹사이트를 참조하거나 직접 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>바이오응용공학부의 최초등록자 데이터를 기준으로 보면, 바이오응용공학부의 영어 등급 평균은 3.82이고, 수능 4개 영역 등급 평균은 4.74입니다. 
+따라서, 현재 정시 등급이 3.33이라면 바이오응용공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과에 지원할 수 있는 가능성을 언급하고 있지만, 원문에서 제시된 평균 등급보다 낮은 성적을 가진 경우 합격 가능성이 낮다고 명시된 점을 충분히 반영하지 못하고 있습니다. 따라서 일부 사실이 누락되었거나 왜곡된 것으로 평가됩니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과에 지원할 수 있다고 언급하지만, 원문에서는 4.4의 성적이 평균 등급보다 낮아 합격 가능성이 낮다고 명시하고 있습니다. 이로 인해 일관성이 부족하다고 판단됩니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 방사선학과에 대한 지원 가능성과 관련된 여러 요소를 다루고 있어 관련성이 높지만, 원문에서 제시된 평균 등급에 대한 언급이 부족하여 완전한 관련성을 갖추지 못했습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 자연스럽게 연결되어 있습니다. 그러나 원문과의 연결이 약해 다소 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과에 대한 지원 가능성을 언급하지만, 원문에서 제시된 평균 등급과의 비교가 부족하여 정확성이 떨어진다고 평가됩니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보이지만, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어진다고 판단됩니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 방사선학과에 대한 지원 가능성과 관련된 의미를 잘 전달하고 있으나, 원문과의 연결이 약해 의미의 적절성이 다소 떨어질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 내용으로 구성되어 있으나, 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C344" t="n">
+        <v>0.629498349212145</v>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>제가 지금 현재 정시 등급이 4.4정도고, 일반학생전형 생각중인데, 제 성적으로 방사선학과 갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>4등급을 받으셨다면 방사선학과에 지원하는 것은 가능하지만, 경쟁률과 합격기준 등을 고려해야 합니다. 방사선학과는 일반적으로 높은 학업능력이 요구되므로 성적 외에도 다른 평가 요소들이 중요하게 작용할 수 있습니다.
+1. **성적**: 4등급은 좋은 성적이지만, 방사선학과의 경우 대체로 높은 등급을 요구하기 때문에 경쟁률이 매우 높을 가능성이 큽니다.
+2. **학생부 종합 평가**: 학생부 종합 평가는 단순히 성적뿐만 아니라 창의성, 활동성, 인성 등을 고려하므로 이 부분에서 좋은 점수를 받는 것이 중요합니다.
+3. **면접 및 실기**: 일부 학과에서는 면접이나 실기 시험을 통해 지원자의 적합성을 평가하기도 합니다.
+따라서, 정확한 답변을 위해서는 방사선학과의 모집요강과 최신 합격기준을 확인하시고, 성적 외에 다른 평가 요소들도 잘 준비하는 것이 좋습니다. 또한, 대학 입학 홈페이지나 입학처와 상담하여 자세한 정보를 얻는 것도 도움이 될 것입니다.
+만약 추가적인 조언이 필요하다면, 해당 학과의 모집요강을 확인하거나 동의대학교 입학처에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 4.4이라면 방사선학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과의 평균 GPA와 관련된 정보를 제공하지 않으며, 2.66이라는 점수가 상대적으로 낮다고 언급하고 있습니다. 그러나 원본 텍스트에서는 2.66이 평균보다 높다고 명시하고 있어 사실과 상충합니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본에서는 2.66이 평균보다 높다고 했지만, 생성된 응답에서는 낮은 점수라고 주장하고 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 방사선학과에 대한 조언과 제안을 포함하고 있어 관련성이 높습니다. 그러나 원본 텍스트의 핵심 정보인 평균 GPA에 대한 언급이 부족하여 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 제안 사항이 명확하게 나열되어 있습니다. 그러나 원본 텍스트와의 연결이 약해 전체적인 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 2.66이라는 점수를 낮게 평가하고 있으며, 이는 원본 텍스트의 사실과 상충합니다. 따라서 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 일부 차원에서 긍정적인 요소가 있지만, 사실성과 일관성에서 큰 문제를 안고 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 방사선학과에 대한 조언을 제공하지만, 원본 텍스트의 의미와는 다소 어긋나는 부분이 있어 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 제안 사항이 명확하게 전달됩니다. 그러나 원본 텍스트와의 연결이 부족하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C345" t="n">
+        <v>0.5639256605156764</v>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>방사선학과 정시로 2.66은 좀 위험할까요?</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 방사선학과의 정시 모집에서 2.66이라는 GPA는 상대적으로 낮은 점수입니다. 방사선학과는 보통 과학적 사고력과 전문 지식이 필요하기 때문에, 이 분야에서는 높은 GPA가 선호됩니다.
+정확한 합격 확률을 예측하는 것은 어렵지만, 2.66이라는 점수로는 경쟁이 매우 치열할 수 있습니다. 특히 해당 모집단위의 모집인원과 지원자들의 평균 GPA를 고려해야 합니다.
+다음은 몇 가지 제안입니다:
+1. **추가 지원**: 다른 학과나 정시 모집군을 추가로 지원하는 것을 고려해보세요.
+2. **면접 준비**: 방사선학과는 면접 과정도 중요하게 평가하기 때문에, 면접 준비를 철저히 해보세요.
+3. **추천서 및 자기소개서**: 강력한 추천서나 독특한 자기소개서를 준비하여 지원자의 개인적 가치를 강조해보세요.
+결국, 최종 합격 여부는 여러 요인에 따라 결정되므로, 다양한 전략을 고려하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 2.66이라면 이는 귀하의 성적이 평균보다 높음을 의미합니다. 따라서, 귀하는 방사선학과에 합격할 가능성이 있다고 볼 수 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 경찰행정학과의 전형 방식과 관련된 여러 요소를 잘 설명하고 있으며, 3.66이라는 성적이 좋은 점수일 것이라는 점도 언급하고 있습니다. 그러나 농어촌학생전형에 대한 구체적인 정보가 부족하여 약간의 정보 누락이 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하는 부분이 있지만, 농어촌학생전형에 대한 추가적인 정보가 포함되어 있어 원본의 내용과 다소 상충하는 부분이 있습니다. 특히, 전형 방식에 대한 설명이 원본의 내용과 일관되지 않을 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 내용을 잘 다루고 있으며, 합격 가능성에 대한 다양한 요소를 제시하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 명확하게 연결되어 있습니다. 그러나 일부 부분에서 정보의 흐름이 약간 어색할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 경찰행정학과의 전형 방식에 대한 정확한 정보를 제공하고 있으며, 3.66이라는 성적에 대한 평가도 적절합니다. 그러나 농어촌학생전형에 대한 구체적인 세부사항이 부족하여 약간의 정확성 결여가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 일관성과 정확성에서 약간의 개선이 필요합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다. 그러나 일부 세부사항에서 다소 부족함이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 명확한 정보 전달이 이루어졌습니다. 그러나 일부 문장이 길어져서 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C346" t="n">
+        <v>0.5845928156186185</v>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 3.66이 나오는데요, 경찰행정학전공 농어촌 전형으로 지원했는데 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>3.66이라는 성적은 일반적으로 경찰행정학과의 경우 좋은 점수일 것입니다. 그러나 정확한 합격 가능성 판단을 위해서는 다음과 같은 요소들을 고려해야 합니다:
+1. **전형 방식**: 농어촌학생전형의 경우, 수능성적이 아닌 다른 평가 기준이 주로 적용됩니다. 일반적으로 학생부 교과 성적, 지역 거주 경력 등이 중요하게 작용합니다.
+2. **학업역량 및 전공적합성**: 농어촌학생전형에서는 지원자의 학업 역량과 전공 적합성을 중점적으로 평가합니다. 따라서 수능 점수보다는 학생부 교과 성적이 더 중요할 수 있습니다.
+3. **지역 거주 경력**: 농어촌학생전형의 경우, 지원자가 농어촌 지역에서 거주한 경력을 요구하기 때문에 이 부분이 중요한 역할을 합니다.
+4. **모집인원 및 지원자 수**: 각 모집단위별로 정해진 합격 인원과 지원자의 수에 따라 합격 가능성은 달라질 수 있습니다.
+5. **기타 평가 요소**: 면접 성적, 추천서 등 기타 평가 요소도 고려됩니다.
+따라서 3.66이라는 점수만으로는 정확한 판단이 어렵습니다. 지원자의 학생부 교과 성적, 농어촌 거주 경력, 그리고 다른 평가 요소들을 종합적으로 고려해야 합니다. 
+추천 드리는 것은:
+- **학생부 교과 성적 확인**: 지원자가 높은 점수를 받았는지 확인하세요.
+- **농어촌 거주 경력 확인**: 이 부분이 충족되었는지 다시 한번 확인해 보세요.
+- **모집인원 및 지원자 수 조사**: 해당 전공의 모집인원과 지원자의 수를 파악하여 합격 가능성을 판단해 보세요.
+만약 위 요소들이 모두 충족된다면, 합격 가능성은 높아질 것입니다. 그러나 정확한 판단을 위해서는 동의대학교 입학처에 직접 문의하는 것이 가장 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>제공된 정보에 따르면, 경찰행정학과의 2024학년도 수능(일반학생전형) 최종등록자 평균 수능 4개 영역 등급은 4.12입니다. 귀하의 성적이 3.66이라면, 이는 평균보다 높은 성적입니다. 
+경쟁률이 2020년도에 비해 낮아졌다는 점도 긍정적인 요소로 작용할 수 있습니다. 경쟁률이 낮아지면 합격 가능성이 상대적으로 높아질 수 있기 때문입니다.
+따라서, 귀하의 성적이 평균보다 높고 경쟁률이 낮아진 점을 고려할 때, 희망을 가져도 될 것으로 보입니다. 다만, 최종 결과는 여러 변수에 따라 달라질 수 있으므로, 최선을 다해 준비하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 예비 25번의 합격 확률이 낮다고 언급하고 있지만, 원문에서는 특정 학과에 따라 합격 확률이 달라질 수 있다고 명시하고 있습니다. 따라서, 원문에서 제공하는 정보와는 다소 차이가 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 예비 합격자의 상황을 설명하고 있지만, 원문에서 제시한 특정 학과에 대한 정보와는 일치하지 않습니다. 예비 25번이 합격할 수 있는 학과 목록이 제공되었으나, 생성된 응답에서는 그에 대한 언급이 없습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 예비 합격자의 상황에 대한 정보를 제공하고 있으며, 원문과 관련된 내용을 다루고 있습니다. 그러나 원문에서 제시한 특정 학과에 대한 정보가 누락되어 있어 완전한 관련성은 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 명확하게 연결되어 있습니다. 그러나 원문과의 연결성이 부족하여 완전한 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 예비 합격자의 상황을 설명하고 있지만, 원문에서 제공하는 특정 학과에 대한 정보가 누락되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있으나, 원문과의 일치성 및 정확성이 부족하여 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원문의 맥락과 의미에 적절하게 부합하고 있습니다. 그러나 특정 학과에 대한 정보가 누락되어 있어 완전한 적절성은 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보를 제공합니다. 다만, 일부 문장이 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C347" t="n">
+        <v>0.4541005766489635</v>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>정시 일반학생 전형으로 원서를 넣었는데 예비 25번이 나왔네요 붙을 확률 있을까요? 가능성 없겠죠?</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>25위 예비 합격자로서의 붙는 확률은 매우 낮지만, 완전히 배제할 수는 없습니다. 정시 모집인원에 미달한 경우에는 추가모집이 이루어질 수 있으며, 이때 예비합격자들이 우선적으로 선발될 가능성이 있습니다.
+다음과 같은 요소들을 고려해볼 필요가 있습니다:
+1. **모집인원**: 현재의 모집인원과 예비 합격자의 수를 비교하여 전체 경쟁률을 파악합니다.
+2. **기타 지원자들의 성적**: 다른 지원자들의 성적이 얼마나 높은지 확인해야 합니다.
+3. **추가모집 가능성**: 정시 모집이 미달된 경우 추가모집이 이루어질 가능성을 고려합니다.
+예비 합격자는 최소한의 기회를 가지고 있으므로, 등록금 납부 등의 절차를 철저히 따르고, 필요하다면 학교에 직접 문의하여 추가 정보를 얻는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>귀하께서 지원하신 학과에 따라서 합격될 확률은 달라질 수 있습니다.
+2024년 동의대학교 일반학생전형에서 예비 25번 이상이 합격한 학과는 다음과 같습니다.
+- **영어영문학과**
+- **경영정보학과**
+- **e비즈니스학과**
+- **간호학과**
+- **신소재공학과**
+- **고분자나노공학과**
+- **의생명공학과**
+- **바이오의약공학과**
+- **식품공학과**
+- **산업경영빅데이터공학과**
+귀하께서 지원하신 학과가 위 학과에 포함된다면, 귀하께서 합격하실 확률은 있다고 볼 수 있습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 생성된 응답은 동의대학교 법경찰행정학부에 대한 정보를 제공하고 있지만, 해당 학부는 존재하지 않으며 경찰행정학과에 대한 정보로 대체되고 있습니다. 이로 인해 사실과 일치하지 않는 부분이 있습니다.
+2. Consistency Score (1-5): 2  
+   - 생성된 응답은 경찰행정학과에 대한 정보로 일관성을 유지하려고 하지만, 법경찰행정학부라는 존재하지 않는 학부에 대한 언급이 포함되어 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4  
+   - 생성된 응답은 동의대학교의 정시모집과 관련된 정보를 제공하고 있으나, 법경찰행정학부에 대한 언급이 불필요하여 약간의 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4  
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4  
+   - 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있어 이해하기 쉽습니다. 그러나 법경찰행정학부에 대한 언급이 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 2  
+   - 응답에서 제공하는 정보는 경찰행정학과에 대한 내용으로 정확하지만, 법경찰행정학부라는 잘못된 정보를 포함하고 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3  
+   - 여러 차원에서 평균적인 성과를 보이고 있으나, 사실성과 일관성에서 큰 문제가 있어 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 응답의 의미는 대체로 적절하지만, 법경찰행정학부에 대한 언급이 부적절하여 의미 전달에 혼란을 줄 수 있습니다.
+9. Understandability Score (1-5): 4  
+   - 응답은 전반적으로 이해하기 쉬우나, 법경찰행정학부에 대한 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C348" t="n">
+        <v>0.6839902597381613</v>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>동의대학교 법경찰행정학부에 정시로 들어갈려면 평균 성적이 몇 정도 받으면 안정권이거나 문 닫고 들어갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교 법경찰행정학부의 정시모집에서 안정적인 합격을 위해서는 다음과 같은 점수를 고려해야 합니다:
+1. **전년도 성적 분석**: 최근 몇 년간의 입학성적을 참고하면 가장 좋은 가늠자가 됩니다. 예를 들어, 2023년에 법경찰행정학부에서 안정적으로 합격한 학생들의 평균 수능 점수를 확인할 수 있습니다.
+2. **등급 분석**: 전년도 입학생들의 등급을 분석하여 대략적인 등급 범위를 파악합니다. 예를 들어, 90% 이상의 합격률을 보였다면, 해당 등급에 가까운 점수를 받는 것이 안정적입니다.
+3. **전형별 성적**: 동의대학교는 다양한 전형으로 모집하므로, 정시모집에서 요구하는 수능 최저등급을 확인해야 합니다. 이는 대략 4개 과목(국어, 영어, 수학, 사회) 중 2개 이상이 B등급 이상이어야 한다는 등의 조건일 수 있습니다.
+4. **추세 분석**: 최근 몇 년간의 입학성적 추세를 살펴보면, 평균적인 성적이 어느 정도였는지 파악할 수 있습니다. 이는 일반적으로 안정적인 합격을 위해서는 해당 추세보다 약간 높은 점수를 받는 것이 좋습니다.
+5. **경쟁률**: 법경찰행정학부의 경쟁률을 고려하여, 경쟁률이 높다면 더 높은 성적을 준비해야 합니다.
+6. **추천 전형**: 학생부종합전형 등 다른 전형에서도 안정적으로 합격할 수 있는 경우, 정시모집에서는 조금 낮은 점수를 받더라도 안정적인 합격이 가능합니다.
+일반적으로 동의대학교 법경찰행정학부에서 정시로 안정적으로 합격하기 위해서는 **수능 4개 과목 중 2개 이상 B등급** 이상을 받고, **전년도 입학생들의 평균 등급보다 약간 높은 점수**를 목표로 설정하는 것이 좋습니다. 예를 들어, 전년도에 A+와 B+를 받았다면, 올해는 최소 A+와 B+를 받고, 가능하다면 A+와 A를 받는 것이 안정적입니다.
+최종적으로 가장 정확한 정보는 동의대학교 입학처 홈페이지나 학부모포털을 통해 확인하는 것이 좋습니다. 또한, 입학사정관들이 직접 설명하는 세미나나 설명회에도 참석하여 최신 정보와 전형별 요구사항을 파악하는 것도 도움이 될 것입니다.</t>
+        </is>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 법경찰행정학부라는 학부는 존재하지않습니다.  
+동의대학교 경찰행정학과의 최종등록자와 최초합격자의 평균 성적을 비교하여 안정권과 문 닫고 들어갈 수 있는 성적을 추정할 수 있습니다.
+- **최종등록자 평균 성적:**
+   - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 332.86
+   - 영어 등급: 4.00
+   - 수능 4개 영역 등급: 4.12
+   - 수능 4개 영역 표준 변환 점수 합: 447.86
+- **최초합격자 평균 성적:**
+  - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 330.71
+  - 영어 등급: 3.14
+  - 수능 4개 영역 등급: 3.87
+  - 수능 4개 영역 표준 변환 점수 합: 452.57
+### 안정권과 문 닫고 들어갈 수 있는 성적 추정
+- **경찰행정학과:**
+  - 안정권: 최초합격자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 331점 이상, 수능 4개 영역 표준 변환 점수 합 약 453점 이상)
+  - 문 닫고 들어갈 수 있는 성적: 최종등록자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 333점 이상, 수능 4개 영역 표준 변환 점수 합 약 448점 이상)
+이 성적을 기준으로 준비하시면 안정권 또는 문 닫고 들어갈 수 있는 성적을 받을 수 있을 것입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 보육가정상담학과의 정원외 모집인원과 아동학과의 평균 등급에 대한 정보를 포함하고 있지만, 아동학과의 평균 등급이 4.57이라는 정보는 원본 텍스트에 명시되어 있지 않으며, 이는 잘못된 정보일 수 있습니다. 따라서 일부 사실이 정확하지 않거나 누락되었습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 아동학과의 평균 등급에 대한 정보가 다르기 때문에 일관성이 떨어집니다. 또한, 보육가정상담학과와 아동학과의 관계에 대한 설명이 명확하지 않아 혼란을 줄 수 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 질문에 대한 여러 요소를 고려하여 합격 가능성을 평가하고 있으며, 관련된 정보를 제공하고 있습니다. 그러나 원본 텍스트의 핵심 정보인 아동학과의 평균 등급에 대한 정확한 언급이 부족하여 약간의 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 유창성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 명확하게 연결되어 있습니다. 그러나 아동학과와 보육가정상담학과의 관계에 대한 설명이 다소 모호하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 아동학과의 평균 등급에 대한 잘못된 정보가 포함되어 있어 정확성이 떨어집니다. 또한, 원본 텍스트의 세부 사항을 완전히 반영하지 못하고 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보여주지만, 사실성과 정확성에서의 문제로 인해 전반적인 품질이 떨어집니다. 관련성은 높지만, 일관성과 정확성이 부족합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 질문의 맥락에 적절하게 의미를 전달하고 있으며, 전반적으로 적절한 내용을 포함하고 있습니다. 그러나 아동학과의 평균 등급에 대한 잘못된 정보가 의미의 적절성을 약간 저해합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 설명을 제공합니다. 그러나 일부 문장이 복잡하게 구성되어 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C349" t="n">
+        <v>0.5959348946906078</v>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>정시 산출 등급이 5.33인데 동의대학교 보육가정상담학과에 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>5.33이라는 등급을 가지고 동의대학교 보육가정상담학과에 합격할 수 있는지는 여러 요소를 고려해야 합니다.
+1. **모집단위와 모집인원**: 먼저, 보육가정상담학과의 정원외 모집인원이 얼마나 되는지 확인해야 합니다. 표에서 보육가정상담학과는 인문사회과학대학 아동학과로 분류되어 있으며, 최대 13명까지 모집할 수 있습니다.
+2. **등급 평균**: 표에 나와 있는 합격자들의 등급 평균을 확인해야 합니다. 예를 들어, 아동학과의 경우 4.57이라는 평균 등급이 나와 있습니다. 이는 현재까지의 합격자들의 등급 평균입니다.
+3. **등급 상위자 선발**: 동점자 처리 기준에 따르면, 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 전 과목 등급 평균 상위자가 우선적으로 선발됩니다. 따라서 5.33이라는 등급이 해당 학과의 등급 평균보다 높다면 더 좋은 위치에 있을 수 있습니다.
+4. **동점자 처리**: 동점자가 발생할 경우, 등급 평균이 높은 순으로 선발되므로 5.33이라는 등급이 상위권에 속해 있다면 합격 가능성은 있습니다.
+따라서, 현재까지의 합격자들의 등급 평균을 확인하고, 자신의 등급이 해당 평균보다 높다면 합격 가능성이 있습니다. 하지만 최종 결정은 입학관리팀에서 이루어지므로, 정확한 정보를 얻기 위해서는 동의대학교 입학관리 홈페이지나 관계자에게 문의하는 것이 좋습니다.
+추가적으로, 지원자의 전반적인 성적과 학교생활기록부 등 기타 평가 요소도 고려되어 결정이 이루어지므로, 모든 자료를 잘 준비하고 제출하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>24학년도 모집단위에서 보육가정상담학과에서 아동학과로 변경되었습니다. 아동학과에 대해서 대답을 해드리겠습니다.
+	아동학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+	따라서, 현재 정시 등급이 5.33라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+	자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 충원 합격자 발표 일정과 예비 번호에 대한 정보를 포함하고 있지만, 동의대학교의 수능 최초합격자 및 충원합격자 발표 기준에 대한 내용은 원본 텍스트에 명시되어 있지 않은 정보입니다. 따라서 일부 사실이 추가되었으나, 원본 텍스트의 핵심 내용과는 다소 차이가 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보와 일치하는 부분이 있지만, 추가된 정보가 원본 텍스트와 일관되지 않거나 모순되는 부분이 있습니다. 예를 들어, 출결 기준에 대한 세부 사항은 원본 텍스트에 포함되어 있지 않으므로 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 예비 번호와 충원 합격 가능성에 대한 질문에 관련된 정보를 제공하고 있지만, 원본 텍스트에 없는 추가적인 세부 사항이 포함되어 있어 약간의 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 유창성 저하가 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원본 텍스트와의 연결성이 약간 떨어져서 완전한 일관성을 유지하지는 못합니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 추가된 정보가 정확하지 않거나 원본 텍스트와의 관계에서 부정확할 수 있습니다. 예를 들어, 출결 기준에 대한 세부 사항은 원본 텍스트에 명시되어 있지 않습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 생성된 응답은 여러 차원에서 평균적인 품질을 보이지만, 사실성과 일관성에서 다소 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 대체로 적합하지만, 추가된 정보가 원본의 의미를 왜곡할 수 있는 가능성이 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 복잡한 문장 구조로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C350" t="n">
+        <v>0.6985259647293974</v>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>동의대 보육가정상담 충원 합격 3차에서 예비 12번 받았는데 합격 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교의 수능(일반학생전형) 최초합격자 및 충원합격자의 발표 일정과 기준을 보면, 다음과 같은 점들을 고려해야 합니다:
+1. **3차 충원 합격자 발표**: 2024년 2월 15일(목)부터 2024년 2월 20일(화)까지입니다.
+2. **동점자 처리 기준**:
+   - 1위: 면접고사 성적 상위자
+   - 2위: 서류평가 공동체역량 영역 성적 상위자
+   - 3위: 서류평가 전공적합성 영역 성적 상위자
+   - 4위: 교과 성적 상위자
+3. **결원 처리**: 결원 발생 시 예비후보 순위에 따라 충원 합격자를 선발합니다.
+4. **출결 기준**:
+   - 0~2일: 120점
+   - 3~6일: 90점
+   - 7~12일: 60점
+   - 13~20일: 30점
+   - 21일 이상: 0점
+5. **출결 기준 미달 시**: 충원 합격이 되었으나 등록 의사가 없는 경우 등록 포기자로 간주됩니다.
+**합격 가능성 평가**:
+- **예비 12번**: 이는 예비후보 순위를 나타내며, 12번은 상대적으로 낮은 순위입니다.
+- **출결 기준**: 출결이 7일 이상인 경우 점수가 크게 감소하므로, 이 부분에서 불리한 점이 있습니다.
+**추천 사항**:
+1. **면접 준비**: 면접고사 성적 상위자로 선발될 가능성을 높이기 위해 충분히 준비해야 합니다.
+2. **서류 제출**: 서류평가에서도 공동체역량과 전공적합성 영역에서 우수한 점수를 받도록 노력해야 합니다.
+3. **출결 확인**: 7일 이상의 결석은 피하고, 최대한 출석을 유지하는 것이 중요합니다.
+따라서 예비 12번이지만 충분히 준비와 노력하면 합격 가능성은 있습니다. 하지만 경쟁률이 높아서 확실하게 보장되는 것은 아닙니다.</t>
+        </is>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>동의대학교의 충원 합격자 발표 및 등록 일정에 따르면, 충원 합격자 발표는 1차, 2차, 그리고 3차 이후로 나뉘어 진행됩니다. 3차 이후의 충원 합격자 발표는 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보로 이루어집니다.
+예비 12번을 받으셨다면, 앞선 예비 번호를 받은 지원자들이 등록을 포기하거나 다른 대학에 등록하는 경우, 합격 가능성이 있습니다. 충원 합격은 지원자들의 등록 포기 여부에 따라 달라지므로, 정확한 예측은 어렵습니다. 하지만 예비 번호가 12번이라면, 충원 합격 가능성이 아예 없는 것은 아닙니다.
+충원 합격자 발표 기간 동안 전화 통보를 기다리시고, 다른 대학의 등록 상황도 주시하시기 바랍니다. 간절한 마음이 잘 전달되어 좋은 결과가 있기를 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 수능 영어의 등급이 8등급 이상이어야 4.75의 등급점수가 나온다고 언급하고 있으나, 이는 사실과 다릅니다. 4.75의 성적은 유아교육학과에 지원하기 어려운 성적이라는 점이 강조되었지만, 영어 성적에 대한 정보는 잘못된 정보입니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 유아교육학과에 지원하기 위해서는 수능 영어 성적이 중요하다고 언급하고 있지만, 원본 텍스트에서는 4.75의 성적이 유아교육학과에 지원하기 어려운 성적이라고 명확히 설명하고 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 유아교육학과에 지원하기 위한 여러 요소를 고려하고 있지만, 원본 텍스트의 핵심 정보인 4.75의 성적에 대한 지원 가능성을 직접적으로 다루지 않고 있습니다. 그러나 여전히 관련된 정보를 제공하고 있어 높은 점수를 부여합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 요소를 나열하고 있지만, 전체적으로 논리적인 흐름이 부족하여 일관된 주제를 유지하지 못하고 있습니다. 특히, 수능 영어 성적에 대한 언급이 원본 텍스트와의 연결이 약합니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답에서 제시된 수능 영어 성적에 대한 정보는 정확하지 않으며, 4.75의 성적이 유아교육학과에 지원하기 어려운 이유를 명확히 설명하지 못하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 사실성과 일관성, 정확성이 부족하여 다차원적인 품질이 낮습니다. 관련성은 높지만, 다른 요소들이 부족하여 낮은 점수를 부여합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 유아교육학과에 대한 정보를 제공하고 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있습니다. 특히, 수능 영어 성적에 대한 언급이 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 언어로 작성되어 있습니다. 그러나 일부 내용이 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C351" t="n">
+        <v>0.6840352090049451</v>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>정시 성적으로 4.75 나오는데 가능할까요? 그리고 유아교육학과는 이 성적으로 어렵겠죠?</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>4.75의 등급점수를 얻으려면 수능 영어시험에서 높은 점수를 받아야 합니다. 수능 영어의 등급이 8등급 이상이어야 4.75의 등급점수가 나옵니다.
+유아교육학과에 지원할 때, 수능 영어 성적이 중요하지만, 학교생활기록부와 면접 등의 서류평가와 면접에서도 좋은 평가를 받는 것이 중요합니다. 따라서 다음과 같은 점들을 고려해보세요:
+1. **수능 영어 성적**: 8등급 이상을 목표로 해야 합니다.
+2. **학교생활기록부**: 학업역량과 전공적합성을 보여줄 수 있는 활동이나 경험을 기재해야 합니다.
+3. **면접**: 지원 동기와 학업계획, 그리고 유아교육에 대한 이해도를 잘 표현해야 합니다.
+유아교육학과는 교육 분야에서의 실무 경험이나 관련 활동이 중요하게 평가되므로, 이러한 경험을 강조하는 것이 도움이 될 수 있습니다. 또한, 학교생활기록부와 면접에서도 유아교육에 대한 열정과 적합성을 잘 보여줄 수 있어야 합니다.
+결론적으로 4.75의 등급점수만으로는 어렵게 느껴질 수 있지만, 다른 평가 요소들을 잘 준비한다면 가능성이 있습니다.</t>
+        </is>
+      </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>정시 성적 4.75로 지원 가능한 학과를 알아보겠습니다. 제공된 데이터에서 최종등록자의 수능 4개 영역 등급 평균을 기준으로 분석해보겠습니다.
+### 지원 가능 학과
+- **국어국문학과**: 4.92 (평균)
+- **중어중국학과**: 5.68 (평균)
+- **일본학과**: 4.87 (평균)
+- **영어영문학과**: 5.16 (평균)
+- **문헌정보학과**: 4.82 (평균)
+- **평생교육·청소년상담학과**: 5.22 (평균)
+- **아동학과**: 7.08 (평균)
+- **금융경영학과**: 5.41 (평균)
+- **재무부동산학과**: 5.82 (평균)
+- **무역학과**: 5.18 (평균)
+- **유통물류학과**: 5.45 (평균)
+- **회계학과**: 4.99 (평균)
+- **국제관광경영학과**: 5.41 (평균)
+- **호텔·컨벤션경영학과**: 6.12 (평균)
+- **외식경영학과**: 4.91 (평균)
+- **의료경영학과**: 5.92 (평균)
+- **식품영양학과**: 5.92 (평균)
+- **기계공학과, 로봇자동화공학과, 자동차공학과**: 6.30 (평균)
+- **조선해양공학과**: 6.16 (평균)
+- **신소재공학과, 고분자나노공학과**: 5.78 (평균)
+- **환경공학과, 화학공학과, 응용화학과**: 5.73 (평균)
+- **의생명공학과, 바이오의약공학과, 식품공학과**: 5.41 (평균)
+- **인간공학과, 제품디자인공학과**: 5.72 (평균)
+- **산업경영빅데이터공학과**: 5.27 (평균)
+- **인공지능학과**: 5.25 (평균)
+- **전기공학과, 전자공학과**: 5.37 (평균)
+- **게임공학과**: 4.78 (평균)
+- **영화학과**: 5.04 (평균)
+### 유아교육학과
+유아교육학과의 경우, 최종등록자의 수능 4개 영역 등급 평균이 4.18로 나타나 있습니다. 따라서, 4.75의 성적으로는 유아교육학과에 지원하기 어려울 것으로 보입니다.
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 보육가정상담학과의 합격 가능성에 대한 정보를 제공하고 있으며, 4.16등급이 좋은 성적이라는 점을 강조하고 있습니다. 그러나 경쟁률과 지원 인원에 대한 구체적인 데이터는 제공되지 않아 약간의 정보 부족이 있습니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 내용과 일관되며, 4.16등급이 아동학과의 평균 등급보다 높은 성적이라는 점을 잘 반영하고 있습니다. 다만, 경쟁률에 대한 언급이 추가되어 있어 약간의 차이가 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 보육가정상담학과에 지원할 때 고려해야 할 여러 요소를 잘 설명하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 읽기 쉽게 잘 구성되어 있습니다. 문장 구조와 표현이 자연스럽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 연결되어 있습니다. 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 전반적으로 정확하지만, 특정 수치나 데이터에 대한 구체적인 출처가 부족하여 약간의 정확성 문제가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 품질 차원에서 잘 수행하고 있지만, 일부 정보의 부족으로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있도록 잘 설명되어 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C352" t="n">
+        <v>0.591047057846923</v>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>제가 동의대 정시 환산등급이 4.16인데 보육가정상담학과 일반학생전형으로 추합까지 생각해서 합격이 될까요?</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집에서 보육가정상담학과(아동학과)로 지원하실 경우, 수능 성적과 교과성적이 중요합니다. 주요 정보를 바탕으로 답변 드리겠습니다:
+1. **수능 성적**: 
+   - 4.16등급은 상당히 좋은 점수입니다.
+   - 경쟁률이 높을 수 있으나, 최근 몇 년간의 경쟁률과 지원 인원 등을 고려하면 합격 가능성은 있습니다.
+2. **교과성적**:
+   - 교과성적 반영방법에 따라 8과목 또는 12과목 중 상위 등급을 선택하여 반영합니다.
+   - 보육가정상담학과는 인문사회과학 분야이므로, 국어, 수학, 영어 등의 성적이 중요합니다.
+3. **경쟁률**:
+   - 최근 몇 년간의 경쟁률을 확인해야 합니다. 예를 들어 2023년 보육가정상담학과의 경쟁률은 약 17:1이었습니다.
+   - 지원 인원도 고려해야 하며, 이 학과는 일반적으로 지원자가 많습니다.
+4. **추합**:
+   - 추합 점수를 확인하여 합격 가능성을 판단할 수 있습니다. 추합 점수가 충분히 높다면 합격 가능성은 높아집니다.
+   - 예를 들어, 추합 점수가 300점 이상이면 합격 가능성이 높습니다.
+5. **추천**:
+   - 최종적으로는 모집단위별로 정확한 추합 점수와 경쟁률을 확인해야 합니다.
+   - 입학사정관제를 통해 추가 지원 자료를 제출하여 학교의 특성에 맞게 지원하는 것이 좋습니다.
+결론적으로, 4.16등급은 좋은 성적입니다만, 최종 합격 여부는 경쟁률과 지원 인원, 추합 점수 등 다양한 요인에 따라 결정됩니다. 정확한 정보를 얻기 위해서는 동의대학교 입학처 웹사이트나 전화로 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>보육가정상담학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+따라서, 현재 정시 등급이 4.16라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 소프트웨어융합학과가 정시로 지원할 수 없다는 사실을 정확하게 반영하고 있으며, 추가적인 정보도 제공하고 있습니다. 모든 정보가 사실에 기반하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 정시 모집에 포함되지 않는다는 점을 명확히 하고 있습니다. 추가적인 세부사항도 원본의 주장을 보완합니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 정시 지원 불가능성에 대한 추가 정보를 제공하여 주제를 잘 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조도 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 모든 사실이 정확하게 반영되어 있으며, 원본 텍스트의 내용을 충실히 전달하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완벽하게 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C353" t="n">
+        <v>0.6005449134493892</v>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시로 들어갈 수 있나요? 된다면 평균 몇 등급정도 받아야 하나요?</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>2024년 현재, 소프트웨어융합학과는 정시 모집에 포함되어 있지 않습니다. 따라서 정시로 지원하는 것은 불가능합니다.
+소프트웨어융합학과는 주로 수시모집에서 선발되며, 특히 나군 학생부종합전형이나 실기/실적 위주 전형에서 많은 지원자가 있습니다. 이들 전형에서는 평균적으로 다음과 같은 등급을 받은 학생들이 입학에 성공하고 있습니다:
+1. **나군 학생부종합전형**:
+   - 국어: 4등급 이상
+   - 수학: 3등급 이상 (특히 수학(확률과통계)이나 수학(미적분/기하)에서 높은 점수를 받는 것이 중요)
+   - 영어: 5등급 이상
+2. **실기/실적 위주 전형**:
+   - 실기나 실적 부분에서 우수한 성과를 보여줘야 합니다.
+따라서 정시로 지원하려면 해당 학과가 정시 모집에 포함되어 있어야 하며, 현재로서는 소프트웨어융합학과는 정시 모집 대상이 아닙니다. 
+더 자세한 정보나 변경 사항은 공식 입학 홈페이지 (https://ipsi.deu.ac.kr/main.do)를 참조하시거나 학교 관계자에게 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>아니요. 소프트웨어융합학과는 정시로 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 면접 점수와 서류 평가의 비중을 60%와 40%로 설정했다고 언급하고 있으나, 원본 텍스트에서는 이러한 비중에 대한 정보가 제공되지 않았습니다. 따라서 일부 정보는 정확하지 않거나 원본에 명시되지 않은 내용입니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 면접 점수와 서류 평가의 비중에 대한 정보가 추가되어 있어 일관성이 떨어집니다. 원본 텍스트의 정보와는 다소 상충하는 부분이 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 서류 준비와 면접에 대한 정보를 제공하고 있습니다. 그러나 원본 텍스트의 핵심 내용인 서류 평가와 면접 고사에 대한 정보가 부족합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 원본 텍스트와의 연결이 약간 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 면접 점수와 서류 평가의 비중에 대한 정보는 원본에 명시되지 않았기 때문에 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있으나, 사실성과 일관성에서 부족함이 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 관련된 정보를 제공합니다. 그러나 일부 추가 정보가 원본과 일치하지 않아 완전한 적합성은 아닙니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 문장이 길어질 경우 이해하기 어려울 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C354" t="n">
+        <v>0.5846431080493506</v>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>소프트웨어 융합과 면접 점수보다 세특 내용을 많이 보시나요? 따로 준비해야하는 서류 존재하나요?</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>『소프트웨어융합학과』의 경우, 면접 점수와 서류 평가의 비중이 동일하게 60%와 40%로 설정되어 있습니다. 따라서 면접뿐만 아니라 서류 평가에서도 중요한 역할을 합니다.
+서류 준비에 있어서 주요한 내용은 다음과 같습니다:
+1. **고교 학생부 온라인 제공 동의**: 고교 졸업(예정)자는 이 부분을 제출하지 않아도 됩니다.
+2. **학교생활기록부 대체 서류 (선택적 제출)**: 검정고시 출신자와 외국고교 졸업 예정자는 선택적으로 학교생활기록부 대체 서류를 제출할 수 있습니다.
+특히, 면접에서 요구되는 내용과 관련하여서는:
+- **지원동기 및 학업계획**: 지원 동기를 설명하고, 입학 후 어떤 학업 계획을 가지고 있는지 구체적으로 이야기해야 합니다.
+- **학업역량**: 고교 생활 중 학업에 대한 어려움과 이를 극복하기 위해 한 노력을 이야기해야 합니다.
+- **전공적합성**: 지원한 전공(계열)과 관련된 교내 활동을 설명해야 합니다.
+따라서, 서류 준비 시에는 면접에서 요구되는 내용과 일치하는 서류를 체크리스트 형태로 만들어 준비하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과는 서류 평가(공동체 역량, 학업 역량, 전공 적합성)과 면접 고사(400점 만점), 
+	학생부 교과성적을 합쳐서 평가합니다. 
+	준비해야하는 서류와 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 동의대학교 소프트웨어공학부의 평균 성적과 경쟁률에 대한 정보를 포함하고 있으며, 질문자의 성적이 평균에 근접하다는 점을 잘 반영하고 있습니다. 그러나 일부 수치(예: 평균 수능 점수)가 정확하지 않을 수 있어 완전한 정확성은 부족합니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보와 일부 일치하지만, 추가적인 세부사항(모집인원, 지원인원 등)을 포함하여 다소 다른 맥락을 제공합니다. 이로 인해 일관성이 떨어질 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 질문자의 성적과 동의대학교 소프트웨어공학부의 합격 가능성에 대한 정보를 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 응답은 논리적으로 잘 구성되어 있으며, 각 섹션이 자연스럽게 연결되어 있습니다. 그러나 일부 정보가 추가되어 다소 복잡해질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 응답의 대부분은 정확하지만, 평균 수능 점수와 같은 특정 수치가 원본 텍스트와 일치하지 않을 수 있어 완전한 정확성은 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 추가된 정보가 원본의 의도와 다소 다를 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 응답은 전반적으로 이해하기 쉽지만, 일부 복잡한 문장 구조로 인해 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C355" t="n">
+        <v>0.7325942383670078</v>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.08인데 동의대학교 소프트웨어공학부  최초합격자로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 소프트웨어공학부의 경우, 수능 최종 등록자의 평균 점수와 경쟁률을 고려해보겠습니다.
+- **소프트웨어공학부**:
+  - 모집인원: 120명
+  - 지원인원: 45명 (최초합격자 포함)
+  - 경쟁률: 약 3.33 : 1 (45 / 120)
+  - 평균 수능 점수: 446.69
+현재 질문자의 수능 성적이 4.08로, 이는 표준점수로 보겠습니다. 4.08의 표준점수가 실제 점수로 환산되면 대략 450점 정도가 됩니다.
+- **최근 평균 수능 점수**:
+  - 2023년도 동의대학교 소프트웨어공학부의 최종 합격자들의 평균 수능 점수가 약 446.69점으로, 질문자의 점수가 이보다 약간 높습니다.
+- **경쟁률**:
+  - 현재 모집인원 대비 지원자가 적어 경쟁률이 낮은 편입니다.
+따라서, 질문자의 수능 성적 4.08 (약 450점)는 소프트웨어공학부의 최초합격자로 충분히 가능할 것으로 보입니다.
+하지만 정확한 확률을 판단하기 위해서는:
+1. 최근 몇 년간의 수능 성적 분포를 확인해야 합니다.
+2. 지원자의 전체 성적 분포와 경쟁률을 고려해야 합니다.
+따라서, 질문자가 최초합격자로 선발될 가능성이 높지만, 확실한 것은 아니므로 추가 정보 수집과 준비가 필요합니다.</t>
+        </is>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>동의대학교 소프트웨어공학부의 2024학년도 수능(일반학생전형) 최초합격자의 수능 4개 영역 등급 평균은 4.12입니다. 따라서, 4.08의 성적은 최초합격자의 평균 등급보다 약간 높은 수준입니다. 
+	최초합격자의 평균 등급과 비교적 근접한 성적이므로, 최초합격 가능성은 있지만 확실하지는 않습니다. 추가적인 요소나 경쟁률에 따라 결과가 달라질 수 있습니다. 
+	정확한 정보는 동의대학교 입학처에 문의하는 것이 좋습니다. 추가적인 문의는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 소프트웨어융합학과에 대한 구체적인 합격 등급 정보를 제공하지 않으며, 소프트웨어공학부에 대한 정보로 대체하고 있습니다. 그러나 소프트웨어융합학과와 소프트웨어공학부의 관계에 대한 명확한 정보가 부족하여 일부 사실이 왜곡될 수 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 소프트웨어융합학과와 소프트웨어공학부를 연결하려고 하지만, 원본 텍스트에서 제공된 정보와 일치하지 않는 부분이 있습니다. 특히, 소프트웨어융합학과의 독립성에 대한 언급이 원본과 일관되지 않습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 소프트웨어융합학과에 대한 질문에 대해 관련된 정보를 제공하고 있지만, 소프트웨어공학부에 대한 정보가 포함되어 있어 약간의 주제 이탈이 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 구성되어 있어 약간의 가독성 저하가 있을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 소프트웨어융합학과와 소프트웨어공학부 간의 관계를 명확히 설명하지 않아 논리적 흐름이 약간 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 소프트웨어융합학과에 대한 정확한 정보를 제공하지 않으며, 소프트웨어공학부에 대한 정보로 대체하고 있습니다. 이로 인해 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보이고 있으며, 일부 정보는 유용하지만 전반적으로 정확성과 일관성이 부족합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분이 있지만, 소프트웨어융합학과와 소프트웨어공학부 간의 관계에 대한 명확한 설명이 부족하여 의미 전달이 완전하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 일부 문장이 복잡하여 이해하는 데 약간의 어려움이 있을 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C356" t="n">
+        <v>0.7383977204672677</v>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시 평균 5등급으로 여기 올 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제공된 정보로는 "소프트웨어융합학과"에 대한 정시 모집단위 및 모집인원이 직접적으로 나와 있지 않습니다. 그러나 "소프트웨어공학부"에 대한 정보가 있습니다.
+"소프트웨어공학부"의 경우, 정원외 지원자격에서 최대선발 가능인원으로 45명을 제시하고 있으며, 정시 모집군 변경에서도 "소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)"로 명시되어 있습니다.
+"소프트웨어융합학과"가 "소프트웨어공학부"의 일부로 분류되는지 확인하기 위해서는 추가적인 정보가 필요합니다. 
+만약 "소프트웨어융합학과"가 "소프트웨어공학부"의 하위 학과로 분류되어 있다면, 5등급으로 지원 가능할 수 있습니다. 하지만 만약 독립된 학과라면, 해당 학과에 대한 정보를 확인해야 합니다.
+추가적으로, 정시 모집군 변경이나 전형 요소 반영비율 등에 대한 정보도 필요합니다. 
+만약 "소프트웨어융합학과"가 독립된 학과로 분류되어 있다면, 해당 학과의 최저 합격 기준을 확인해야 합니다. 제공된 데이터에서 정확한 정보를 찾지 못했으므로, 공식 홈페이지 (https://ipsi.deu.ac.kr/main.do)를 참조하거나 관계자에게 문의하는 것이 가장 확실합니다.</t>
+        </is>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보는 제공된 Context에 포함되어 있지 않습니다. 소프트웨어융합학과는 나군 학생부종합(조기취업형계약학과전형)으로도 모집하며, 이 경우 서류 60%와 면접 40%의 비율로 전형요소를 반영합니다.
+정확한 합격 가능성을 확인하기 위해서는 해당 학과의 최근 합격자 평균 등급이나 입시 결과를 참고해야 합니다. 이러한 정보는 대학의 입학처 홈페이지나 모집요강에서 확인할 수 있습니다. 추가적인 정보가 필요하다면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 신소재공학과의 평균 성적을 잘못 제시하고 있으며, 원본 텍스트에서 제공된 정보와 상충합니다. 원본 텍스트에 따르면, 귀하의 성적(4.28)은 최초합격자와 최종등록자의 평균 등급보다 높다고 판단되지만, 생성된 응답은 반대로 진학하기 어렵다고 주장하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본 텍스트는 귀하의 성적이 평균보다 높다고 언급했으나, 생성된 응답은 그와 반대되는 주장을 하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 정보를 제공하고 있으나, 원본 텍스트의 핵심 내용을 잘못 해석하여 관련성을 떨어뜨리고 있습니다. 그러나 여전히 신소재공학과에 대한 정보는 포함되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적인 흐름이 다소 부족합니다. 원본 텍스트의 정보와 상충하는 주장을 포함하고 있어 일관된 주장을 전달하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 귀하의 성적에 대한 해석이 잘못되어 있으며, 평균 성적에 대한 정보도 부정확합니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받고 있습니다. 사실성, 일관성, 정확성 모두 원본 텍스트와의 불일치로 인해 낮은 평가를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락을 잘못 해석하여 부적절한 결론을 도출하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 문장 구조를 가지고 있으나, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C357" t="n">
+        <v>0.6302535838463248</v>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.28인데 동의대학교 신소재 공학부 들어갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>4.28이라는 성적을 가지고 동의대학교 신소재공학과에 진학하기는 어렵다고 볼 수 있습니다.
+신소재공학과의 지원자들의 평균 성적이 다음과 같습니다:
+- 한의예과(수학&lt;미적분/기하&gt;): 1.00
+- 한의예과(수학&lt;확률과통계&gt;): 1.00
+- 공과대학 신소재공학과, 분자나노공학과: 4.33
+이 중에서 가장 가까운 수준은 4.33입니다. 이는 평균 성적이 4.28보다 약간 높습니다.
+다음은 고려해야 할 몇 가지 요소들입니다:
+1. **경쟁률**: 신소재공학과의 경쟁률이 1.45로 상대적으로 낮지 않으므로, 성적이 조금 더 높다면 충원 합격 가능성은 있습니다.
+2. **가산점**: 수능 외에 가산점을 받을 수 있는 기회가 있다면 이 점수를 활용할 수 있습니다.
+3. **추천서 및 자기소개서 등 서류 평가**: 전형요소 반영비율이 70%는 서류평가와 면접이 중요하므로, 강력한 추천서나 자기소개서 등을 준비한다면 도움이 될 수 있습니다.
+4. **면접 성적**: 면접에서도 좋은 점수를 받을 경우 합격 가능성은 높아질 것입니다.
+결론적으로 4.28의 성적만으로는 신소재공학과에 진학하기 어렵다고 판단되지만, 다른 요인들을 잘 활용한다면 충원 합격 가능성은 있습니다. 자세한 정보를 얻기 위해서는 동의대학교 입학처 웹사이트나 전화로 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>정확한 답변을 위해서는 더 많은 정보가 필요하지만, 제공된 데이터를 바탕으로 대략적인 판단을 할 수 있습니다.
+### 신소재공학과, 분자나노공학과 (공과대학) - 2024학년도
+- **최초합격자 평균 수능 4개 영역 등급**: 5.32
+- **최종등록자 평균 수능 4개 영역 등급**: 5.78
+### 귀하의 성적
+- **수능 4개 영역 등급**: 4.28
+귀하의 성적이 신소재공학과의 최초합격자와 최종등록자의 평균 등급보다 높습니다. 따라서, 동의대학교 신소재공학과에 합격할 가능성이 높다고 판단됩니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 "자기소개서가 필요없습니다"라는 원문 내용을 왜곡하고 있습니다. 원문은 자기소개서가 필요 없다고 명확히 언급하고 있지만, 생성된 응답은 선택적으로 요구될 수 있다고 하여 사실과 다릅니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 일관성이 없습니다. 원문은 자기소개서가 필요 없다고 명시하고 있으나, 생성된 응답은 일부 모집단위에서 선택적으로 요구할 수 있다고 하여 모순된 정보를 제공합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 정보를 제공하고 있으나, 원문에서 명시된 핵심 사항인 자기소개서의 필요성에 대한 정보가 왜곡되어 있습니다. 그럼에도 불구하고 관련된 추가 정보를 제공하고 있어 높은 점수를 부여합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 논리적으로 연결된 내용이지만, 원문과의 일관성이 부족하여 전체적인 일관성이 떨어집니다. 원문과의 관계가 명확하지 않아 다소 혼란스러울 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 제공하는 정보와 상충하는 내용을 포함하고 있어 정확성이 낮습니다. 자기소개서의 필요성에 대한 정보가 잘못 전달되고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 사실성과 일관성에서 낮은 점수를 받았으며, 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 주제와 관련된 내용을 포함하고 있지만, 원문과의 의미적 일치가 부족하여 적절성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 원문과의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C358" t="n">
+        <v>0.6327307447742909</v>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>수능 일반학생전형으로 넣으려고 하는데 자기소개서 써야하나요?</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 수능(일반학생전형)에서는 자기소개서가 필수적으로 요구되는 것은 아닙니다. 이 전형은 주로 수능 점수를 기준으로 학생들을 선발합니다. 그러나 일부 모집단위에서는 자기소개서를 선택적으로 요구할 수도 있으므로, 해당 모집단위의 세부 안내를 확인해보시는 것이 좋습니다.
+만약 자기소개서가 필요하다면, 다음과 같은 내용을 포함하는 것이 도움이 될 수 있습니다:
+1. 개인적 특성과 강점
+2. 학업 목표와 계획
+3. 관련 경험 및 활동
+4. 미래의 꿈과 비전
+하지만 기본적으로는 수능 점수만으로 지원할 수 있으므로, 해당 모집단위의 공고를 체크하여 자세한 요구 사항을 확인하시기 바랍니다.
+더 궁금하신 점이 있으면 https://ipsi.deu.ac.kr/main.do 웹사이트를 참조하거나 입학처에 문의해보세요.</t>
+        </is>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>아니요. 수능 일반학생전형은 자기소개서가 필요없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 수능 4.5 점수에 대한 합격 가능성을 평가하는 데 필요한 여러 요인을 언급하고 있으며, 이는 원본 텍스트의 내용과 일치합니다. 그러나 원본 텍스트에서 제시된 특정 학과의 평균 등급과 표준 편차에 대한 정보는 포함되어 있지 않아 약간의 정보 누락이 있습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일관되며, 추가 모집 가능성에 대한 요인들을 잘 설명하고 있습니다. 그러나 원본 텍스트의 특정 수치(예: 평균 등급)와는 일치하지 않으므로 완전한 일관성은 아닙니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 수능 점수와 추가 모집 가능성에 대한 질문에 직접적으로 답변하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 명확한 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요인이 어떻게 추가 모집 가능성에 영향을 미치는지를 명확하게 설명하고 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 수능 점수와 관련된 여러 요인을 정확하게 설명하고 있지만, 원본 텍스트의 특정 수치에 대한 언급이 부족하여 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행하고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 일부 정보 누락으로 인해 완전한 점수는 아닙니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 정보를 제공합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있도록 잘 구성되어 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C359" t="n">
+        <v>0.6455902896763196</v>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>동의대 수능 정시 산출로 4.5나왔는데 추가모집이든 해서 들어갈수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>4.5라는 점수만으로는 확실한 답변을 드리기 어렵습니다. 추가 모집 가능성은 다음과 같은 요인들에 따라 달라질 수 있습니다:
+1. **모집 인원과 지원자 수**: 각 모집단위의 정원과 실제 지원자의 수가 중요합니다.
+2. **성적 순위**: 4.5라는 점수는 전체 지원자 중에서 어느 위치에 있는지 확인해야 합니다.
+3. **전형 방식**: 정시 일반학생전형, 실기/실적(경기실적우수자전형), 학생부교과, 학생부종합 등 다양한 전형이 있으므로 해당 전형의 성적 반영 방법을 확인해야 합니다.
+4. **동점자 처리 기준**: 동점자가 발생할 경우 어떻게 처리되는지 확인해야 합니다.
+5. **추가 모집 가능성**: 정시에서 미충원된 인원이 추가모집으로 이월될 가능성이 있습니다.
+6. **개인적 요소**: 면접 성적, 서류 평가 등 개인적인 요소도 고려됩니다.
+따라서, 가장 정확한 답변을 드리기 위해서는 동의대학교 입학처 웹사이트나 전화로 문의하시는 것이 좋습니다. 또한, 입학예정자 명단이나 동점자 처리 기준 등을 확인해보시면 더 구체적인 정보를 얻으실 수 있을 것입니다.
+추가적으로, [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 웹사이트에서 최신 정보와 안내를 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>동의대학교의 수능 정시 모집에서 합격 가능성을 평가하기 위해서는 각 학과의 평균 등급과 표준 편차를 참고하는 것이 중요합니다. 제공된 데이터에 따르면, 각 학과의 수능 4개 영역 등급 평균과 표준 편차가 나와 있습니다. 
+예를 들어, 인문사회과학대학의 국어국문학과의 경우, 최초 합격자의 수능 4개 영역 등급 평균은 4.65이고, 최종 등록자의 경우 4.92입니다. 
+따라서, 수능 4개 영역 등급이 4.5라면, 일부 학과에서는 합격 가능성이 있을 수 있습니다. 그러나, 각 학과마다 요구하는 등급이 다르므로, 지원하고자 하는 학과의 평균 등급과 비교해보는 것이 중요합니다.
+추가 모집의 경우, 경쟁률이 낮아질 수 있으므로 합격 가능성이 높아질 수 있습니다. 하지만, 추가 모집에 대한 정보는 학교의 공식 홈페이지나 입학처에 문의하는 것이 가장 정확합니다.
+자세한 사항은 동의대학교 입학처에 문의하시기 바랍니다. 추가 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 신소재공학과와 분자나노공학과의 합격 가능성에 대한 정보를 제공하지만, 원본 텍스트의 평균 등급 정보(영어 등급 평균 5.06, 수능 4개 영역 등급 평균 5.78)를 명확히 반영하지 않고 있습니다. 또한, B등급 내외에서 합격 가능성이 높다는 주장은 다소 일반화된 정보로, 원본의 구체적인 수치를 기반으로 하지 않습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 신소재공학과와 분자나노공학과의 합격 가능성에 대한 정보를 제공하지만, 원본 텍스트의 구체적인 수치와는 일치하지 않습니다. 원본의 평균 등급과는 다른 기준을 제시하고 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 신소재공학과의 합격 가능성에 대한 질문에 관련된 정보를 제공하고 있으나, 분자나노공학과에 대한 정보가 추가되어 있어 약간의 주제 확장이 있습니다. 그러나 여전히 주제와 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고, 읽기 쉽게 잘 구성되어 있습니다. 문장 구조와 표현이 자연스럽습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 원본 텍스트와의 연결성이 약간 떨어져 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 신소재공학과의 합격 가능성에 대한 정보를 제공하지만, 원본 텍스트의 구체적인 수치와는 다르게 해석되고 있습니다. 따라서 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있으나, 원본 텍스트와의 일치성 및 정확성이 부족하여 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있으나, 원본 텍스트의 구체적인 수치와는 다소 차이가 있어 의미의 일관성이 떨어질 수 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 표현으로 작성되어 있어, 독자가 쉽게 이해할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C360" t="n">
+        <v>0.5378324612412493</v>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재 공학부는 정시 몇 등급이면 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>2023년 동의대학교 신소재공학과와 분자나노공학과의 모집요강을 바탕으로 추정해보겠습니다.
+신소재공학과와 분자나노공학과는 같은 학부이지만, 각각 다른 모집단위로 운영됩니다. 일반적으로 동의대학교 공과대학의 신소재공학과와 분자나노공학과는 B등급 내외에서 합격 가능성이 높습니다.
+2023년 동의대학교 공과대학의 일부 모집단위의 최저합격 기준을 보면:
+- **기계공학과, 로봇자동화공학과, 자동차공학과**: 0.87등급
+- **조선해양공학과**: 0.83등급
+- **신소재공학과, 분자나노공학과**: 1.45등급
+따라서 신소재공학과와 분자나노공학과의 경우 대략적으로 B등급(1.00) 이상이면 합격 가능성이 높습니다.
+하지만 정확한 등급은 매년 변동될 수 있으므로, 최신 모집요강을 확인하시거나, 동의대학교 입학처 웹사이트를 참조하시는 것이 가장 정확할 것입니다.</t>
+        </is>
+      </c>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>신소재학과의 최종등록자 데이터를 기준으로 보면, 신소재공학과의 영어 등급 평균은 5.06이고, 수능 4개 영역 등급 평균은 5.78입니다. 
+따라서, 신소재공학과의 평균 등급보다 높은 성적을 가지고 있으시면 합격 가능성이 올라갑니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 작년 신소재공학과의 평균 점수에 대한 정보가 잘못 해석되었습니다. 원문에서는 평균 점수가 378.15점이라고 명시되어 있지만, 생성된 응답에서는 447점보다 높다고 언급하고 있습니다. 이는 사실과 다릅니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원문과 일관성이 부족합니다. 원문에서는 447점이 평균 점수보다 훨씬 높다고 명시하고 있지만, 생성된 응답에서는 447점이 평균 점수보다 높을 수 있다고 언급하여 모순이 발생합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 원문에서 제시된 평균 점수와 관련된 정보가 잘못 해석되어 있습니다. 그럼에도 불구하고, 신소재공학과의 합격 가능성에 대한 논의는 여전히 관련성이 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요인이 어떻게 평균 점수에 영향을 미칠 수 있는지를 설명하고 있습니다. 그러나 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원문에서 제공된 사실과 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 특히 평균 점수에 대한 잘못된 해석이 문제입니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 그러나 사실성과 일관성에서 큰 문제가 있어 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 원문의 의미와 맥락을 일부 반영하고 있지만, 잘못된 정보로 인해 의미가 왜곡되었습니다. 따라서 의미적으로 적절하지 않은 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 각 요인에 대한 설명이 명확합니다. 그러나 원문과의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C361" t="n">
+        <v>0.6616804063976955</v>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>제가 동의대학교 정시 표준점수가 447점으로 환산되는데 작년 신소재공학과 표점이 447점보다 1점 정도 위더라구요 (최종 평균)가능성은 있을까요?</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집에서 표준점수를 환산할 때, 작년 신소재공학과의 최종 평균 점수가 447점보다 약간 높았다면, 이는 몇 가지 요인으로 인해 가능성이 있습니다:
+1. **모집인원 및 지원자 수**: 작년에 신소재공학과의 모집인원이 늘어나거나 지원자가 줄었을 경우, 경쟁률이 상대적으로 낮아져 평균 점수가 높아질 수 있습니다.
+2. **지원자의 성적 분포**: 작년에는 고득점자들이 많았거나 저득점자들이 적게 지원했을 가능성이 있습니다. 이는 전체 평균 점수를 끌어올릴 수 있습니다.
+3. **면접 결과**: 일부 모집단위에서는 면접 점수가 포함되어 평균 점수를 결정합니다. 작년에는 면접에서 우수한 성적을 받은 지원자가 많았다면, 이로 인해 전체 평균 점수가 높아질 수 있습니다.
+4. **가산점**: 일부 모집단위에서는 가산점을 적용하여 최종 점수가 결정됩니다. 작년에는 많은 지원자가 가산점을 받았을 가능성이 있습니다.
+5. **학과 특성**: 신소재공학과는 일반적으로 높은 수능 점수를 요구하는 학과 중 하나입니다. 작년에는 이 학과에 대한 관심이 높아져 고득점자들이 많이 지원했을 수도 있습니다.
+따라서, 2024년에도 표준점수가 447점으로 환산될 가능성이 있지만, 작년의 상황과 비교하여 결정됩니다. 정확한 예측은 아직까지는 불가능하며, 최종 결과는 모집단위별 지원자 수와 경쟁률 등 다양한 요인에 따라 달라질 수 있습니다.
+만약 확실한 정보를 원하신다면, 동의대학교 입학처 웹사이트나 전화로 문의하시는 것이 가장 정확할 것입니다.</t>
+        </is>
+      </c>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>작년 동의대학교 신소재공학과의 최종 등록자 평균 표준 변환 점수는 378.15점이었습니다. 따라서, 귀하의 표준점수 447점은 작년 신소재공학과의 평균 점수보다 훨씬 높습니다. 이 점수라면 신소재공학과에 합격할 가능성이 매우 높다고 할 수 있습니다. 
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 4.3등급대의 성적에 대해 언급하고 있지만, 원본 텍스트에서는 4.1~4.2등급대의 성적에 대한 정보를 제공하고 있습니다. 이로 인해 사실관계에 대한 혼동이 발생하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트는 4.1~4.2등급대의 성적이 신소재공학부의 평균 성적과 비교했을 때 높은 편이라고 언급하고 있으나, 생성된 응답은 4.3등급대의 성적이 낮다고 주장하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 신소재공학부의 합격 가능성에 대한 정보를 제공하고 있으며, 원본 텍스트의 주제와 관련이 있습니다. 그러나 일부 내용은 원본 텍스트의 핵심 포인트와는 다소 벗어나 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 구성되어 있어 약간의 가독성 저하가 있을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 요소를 고려하고 있지만, 논리적인 흐름이 다소 불명확합니다. 특히, 성적 기준과 전형 요소에 대한 설명이 서로 연결되지 않아 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 성적 기준과 관련된 정보와 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 특히, 성적 등급에 대한 해석이 잘못되었습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 사실관계, 일관성, 정확성에서 낮은 점수를 받고 있으며, 이로 인해 전체적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 의미와 다소 일치하지만, 성적에 대한 해석이 잘못되어 있어 의미적으로 적절하지 않은 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으나, 일부 내용이 혼란스러울 수 있어 완전한 명확성을 제공하지는 않습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C362" t="n">
+        <v>0.6107206215466714</v>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 현재로선 4.3등급대고 동의대식 성적산출하면 4.1~4.2정도 나올거같은데 신소재공학부 일반학생전형 붙을수있을까요?</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t>4.3등급대의 성적이면 신소재공학부(신소재공학과, 고분자나노공학과)의 일반학생전형에서 합격 가능성은 낮지만, 아직 최종 결정이 내려지기 전까지는 모든 것이 가능합니다.
+신소재공학부의 경우 다음과 같은 점을 고려해야 합니다:
+1. **성적 기준**: 신소재공학과와 고분자나노공학과의 모집인원은 각각 26명입니다. 성적이 4.1~4.2등급대라면, 이는 상당히 높은 등급이며, 일반적으로 이런 등급을 가진 학생들은 대다수의 공과대학에서 합격할 수 있습니다.
+2. **전형 요소**: 나군 수능(일반학생전형)에서는 성적이 주요한 평가 기준이지만, 다른 요인들도 고려됩니다:
+   - **면접 성적**: 일부 모집단위에서는 면접 점수가 포함될 수 있습니다.
+   - **학업역량**: 학교생활기록부와 수능 성적을 종합적으로 평가합니다.
+3. **동점자 처리**: 동점자가 발생할 경우, 등급 평균이 결정적인 역할을 합니다. 4.1~4.2등급대라면, 이는 상당히 높은 점수로, 동점자 처리 시 유리한 위치에 있을 수 있습니다.
+4. **결원 선발**: 모집인원 미달 시 추가 모집이 가능합니다. 따라서, 현재의 성적만으로 판단하기보다는 전체적인 지원 경쟁률과 모집 상황을 고려해야 합니다.
+### 조언:
+1. **성적 확인**: 최종적으로 제출할 수 있는 성적을 다시 한 번 확인하세요.
+2. **면접 준비**: 면접 점수가 포함되는 경우, 충분히 준비해두세요.
+3. **전형 요소 종합**: 학교생활기록부와 수능 성적을 종합적으로 평가받는다는 점을 기억하십시오.
+결론적으로, 4.1~4.2등급대라면 신소재공학부에서 합격 가능성은 있지만, 확실한 것은 아닙니다. 최종 결정은 입학전형의 전체적인 경쟁률과 모집 상황에 따라 달라질 수 있으므로, 가능한 한 많은 정보를 수집하고 준비하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재공학부(일반학생전형)의 최종등록자 데이터를 바탕으로 판단해보겠습니다.
+	신소재공학부의 최종등록자 평균 성적은 다음과 같습니다:
+	- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 271.64, 표준 편차 19.52
+	- 영어 등급: 평균 5.06, 표준 편차 1.22
+	- 수능 4개 영역 등급: 평균 5.78, 표준 편차 0.49
+	- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 평균 378.15, 표준 편차 21.81
+	귀하의 성적이 4.1~4.2등급대라면, 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높은 편입니다. 특히, 영어 등급과 수능 4개 영역 등급에서 차이가 있을 수 있습니다.
+	따라서, 귀하의 성적이 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높으므로, 합격 가능성은 높습니다. 그러나, 최종 합격 여부는 지원자 전체의 성적 분포와 경쟁률에 따라 달라질 수 있습니다.
+	더 자세한 정보나 상담이 필요하다면, 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 동의대학교 인공지능학과의 수능 일반학생전형 최초합격자 성적에 대한 구체적인 수치를 제공하지 않고, 대신 대략적인 추정치를 제시하고 있습니다. 이는 원본 텍스트의 구체적인 사실과 일치하지 않으며, 정확한 정보를 제공하지 않기 때문에 낮은 점수를 부여합니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 정보와 일치하지 않는 점이 많습니다. 예를 들어, 원본 텍스트는 평균 점수와 표준 편차를 제공하지만, 생성된 응답은 개별 과목의 대략적인 점수만을 제시하고 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 동의대학교 인공지능학과의 합격 기준에 대한 정보를 제공하고 있으므로 관련성이 높습니다. 그러나 원본 텍스트의 구체적인 성적 정보를 생략하고 대략적인 추정치로 대체했기 때문에 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되어 있습니다. 문장 구조와 표현이 자연스러워 유창성 점수는 높습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 점수가 어떻게 영향을 미치는지에 대한 설명이 포함되어 있습니다. 그러나 원본 텍스트와의 연결이 약해져서 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 구체적인 수치와 사실을 반영하지 않으며, 대략적인 추정치로 대체하고 있습니다. 이는 정확성 점수를 낮추는 요소입니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 여러 차원에서의 품질을 고려할 때, 생성된 응답은 유창성과 관련성에서는 긍정적이지만, 사실성과 일관성에서 낮은 점수를 받았습니다. 따라서 중간 점수를 부여합니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절하지만, 원본 텍스트의 구체적인 사실을 반영하지 않기 때문에 완전한 적절성은 아닙니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬운 언어로 작성되어 있어 이해 가능성이 높습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C363" t="n">
+        <v>0.732293314082886</v>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>동의대 인공지능학과 수능 일반학생전형으로 가고싶어요 성적좀 알려주세요</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 인공지능학과의 나군(수능 일반학생전형) 최소 합격 기준 점수는 다음과 같습니다:
+- **국어**: 약 135점 (대략적인 추정치, 정확한 점수는 공식 발표를 확인해주세요)
+- **수학**: 약 90점 (대략적인 추정치, 정확한 점수는 공식 발표를 확인해주세요)
+- **영어**: 약 125점 (대략적인 추정치, 정확한 점수는 공식 발표를 확인해주세요)
+이러한 성적은 일반적으로 최소 합격 기준을 나타내지만, 실제 합격선은 모집인원과 지원자 수에 따라 변동될 수 있습니다. 따라서 가장 정확한 정보는 동의대학교 입학처 웹사이트나 공식 발표를 통해 확인하시기 바랍니다.
+또한, 인공지능학과는 실기/실적 요소가 포함된 전형이므로, 수능 성적이 최종 합격에 큰 영향을 미치지만, 다른 평가 항목들도 중요한 역할을 합니다.</t>
+        </is>
+      </c>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과의 수능 일반학생전형 최초합격자 성적은 다음과 같습니다:
+- **모집 인원**: 15명
+- **지원 인원**: 24명
+- **경쟁률**: 1.60
+- **충원 합격 (후보순위)**: 5명
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균 301.87, 표준 편차 12.38
+- **영어 등급**: 평균 4.13, 표준 편차 0.71
+- **수능 4개 영역 등급**: 평균 4.98, 표준 편차 0.25
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 평균 415.80, 표준 편차 10.49
+이 성적을 참고하여 준비하시기 바랍니다. 추가적인 정보가 필요하면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 동의대학교의 정시 성적에 대한 구체적인 정보를 제공하지 않고, 일반적인 조언을 제시하고 있습니다. 원본 텍스트에서 제공된 구체적인 학과별 성적 정보와 충원 합격 가능성에 대한 내용이 누락되어 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 정보와 일치하지 않으며, 원본에서 제시된 구체적인 학과와 성적 기준에 대한 언급이 없습니다. 따라서 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 동의대학교의 정시 성적에 대한 질문에 대한 일반적인 정보를 제공하지만, 원본 텍스트의 구체적인 내용과는 관련성이 떨어집니다. 
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 원본 텍스트와의 관련성이 떨어지기 때문에 전체적인 흐름이 약간 어색할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 원본 텍스트의 주제와 관련이 적어 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 구체적인 사실을 반영하지 않으며, 동의대학교의 정시 성적에 대한 정확한 정보를 제공하지 않습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 원본 텍스트의 정보와 일치하지 않으며, 관련성, 일관성, 정확성 모두 낮은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절하지만, 원본 텍스트의 맥락과는 다소 동떨어져 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 명확하고 이해하기 쉬운 문장으로 구성되어 있습니다. 그러나 원본 텍스트와의 관련성이 부족하여 질문에 대한 답변으로서의 명확성이 떨어질 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C364" t="n">
+        <v>0.5994760458426406</v>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>동의대 정시 성적으로 5.27인데 이 성적으로 추합 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>5.27이라는 점수를 보고 정확한 판단을 내리기 위해서는 몇 가지 정보가 필요합니다:
+1. 해당하는 모집군 (예: &lt;가&gt;군, &lt;나&gt;군 등)과 모집단위를 아시는지?
+2. 지원하고자 하는 모집단위의 최저 합격 기준 점수를 알고 계신지?
+일반적으로 동의대학교의 정시 모집에서는 수능 성적을 주요 평가 요소로 사용합니다. 하지만, 다른 평가 항목 (예: 학생부 교과성적, 면접 등)도 함께 고려되기 때문에 단순히 수능 점수만으로는 판단하기 어렵습니다.
+특정 모집단위의 최저합격 기준 점수를 확인하신 후, 해당 점수가 충족되면 가능할 것으로 보입니다. 하지만 정확한 답변을 위해서는 동의대학교 입학처 웹사이트나 전화로 문의하시는 것이 가장 좋습니다. 그곳에서는 각 모집단위별 최종 합격 기준 점수와 기타 평가 요소에 대한 자세한 정보를 제공해 줄 것입니다.
+추천되는 방법은:
+1. 동의대학교 입학처 웹사이트를 방문하여 해당 년도의 정시 모집요강을 확인합니다.
+2. 전화로 문의하거나, 온라인 상담을 이용하여 직접 확인하는 것입니다.</t>
+        </is>
+      </c>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>동의대학교의 정시 성적을 기준으로 5.27의 성적으로 충원 합격(추합)이 가능한지 확인하기 위해서는 각 학과의 최종 등록자 성적을 비교해보아야 합니다. 아래는 각 학과의 수능 4개 영역 등급 평균과 표준 편차를 기준으로 5.27 성적이 충원 합격 가능한지 확인한 결과입니다:
+1. **인문사회과학대학**
+   - 국어국문학과: 평균 4.92, 표준 편차 0.35
+   - 중어중국학과: 평균 5.68, 표준 편차 0.74
+   - 일본학과: 평균 4.87, 표준 편차 0.13
+   - 영어영문학과: 평균 5.16, 표준 편차 0.66
+   - 문헌정보학과: 평균 4.82, 표준 편차 0.33
+   - 평생교육·청소년상담학과: 평균 5.22, 표준 편차 0.29
+   - 아동학과: 평균 7.08, 표준 편차 0.56
+   - 유아교육과: 평균 4.18, 표준 편차 0.25
+   - 광고홍보학과: 평균 4.47, 표준 편차 0.18
+   - 미디어커뮤니케이션학과: 평균 4.29, 표준 편차 0.23
+   - 법학과: 평균 4.27, 표준 편차 0.27
+   - 경찰행정학과: 평균 4.12, 표준 편차 0.18
+   - 소방방재행정학과: 평균 4.43, 표준 편차 0.40
+   - 행정학과: 평균 4.36, 표준 편차 0.33
+   - 사회복지학과: 평균 4.69, 표준 편차 0.23
+2. **상경대학**
+   - 금융경영학과: 평균 5.41, 표준 편차 0.52
+   - 재무부동산학과: 평균 5.82, 표준 편차 1.25
+   - 무역학과: 평균 5.18, 표준 편차 0.50
+   - 유통물류학과: 평균 5.45, 표준 편차 0.52
+   - 경영학과: 평균 4.69, 표준 편차 0.22
+   - 회계학과: 평균 4.99, 표준 편차 0.41
+   - 경영정보학과: 평균 4.31, 표준 편차 0.23
+   - e비즈니스학과: 평균 4.53, 표준 편차 0.36
+   - 국제관광경영학과: 평균 5.41, 표준 편차 0.56
+   - 호텔·컨벤션경영학과: 평균 6.12, 표준 편차 0.77
+   - 외식경영학과: 평균 4.91, 표준 편차 0.28
+3. **의료보건생활대학**
+   - 간호학과: 평균 3.37, 표준 편차 0.29
+   - 임상병리학과: 평균 4.15, 표준 편차 0.12
+   - 치위생학과: 평균 4.18, 표준 편차 0.20
+   - 방사선학과: 평균 3.82, 표준 편차 0.20
+   - 의료경영학과: 평균 5.92, 표준 편차 1.08
+   - 물리치료학과: 평균 3.62, 표준 편차 0.15
+   - 식품영양학과: 평균 5.92, 표준 편차 1.06
+4. **한의과대학**
+   - 한의예과(수학&lt;미적분/기하&gt;): 평균 1.21, 표준 편차 0.09
+   - 한의예과(수학&lt;확률과통계&gt;): 평균 1.20, 표준 편차 0.05
+5. **공과대학**
+   - 기계공학과, 로봇자동화공학과, 자동차공학과: 평균 6.30, 표준 편차 1.1
+   - 조선해양공학과: 평균 6.16, 표준 편차 1.00
+   - 신소재공학과, 분자나노공학과: 평균 5.78, 표준 편차 0.49
+   - 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과: 평균 4.69, 표준 편차 0.25
+   - 환경공학과, 화학공학과, 응용화학과: 평균 5.73, 표준 편차 0.57
+   - 의생명공학과, 바이오의약공학과, 식품공학과: 평균 5.41, 표준 편차 0.65
+   - 인간공학과, 제품디자인공학과: 평균 5.72, 표준 편차 0.73
+   - 산업경영빅데이터공학과: 평균 5.27, 표준 편차 0.43
+6. **ICT융합공과대학**
+   - 컴퓨터공학과: 평균 4.29, 표준 편차 0.16
+   - 소프트웨어공학부: 평균 4.49, 표준 편차 0.30
+   - 인공지능학과: 평균 5.25, 표준 편차 0.35
+   - 전기공학과, 전자공학과: 평균 5.37, 표준 편차 0.60
+   - 디지털콘텐츠학과: 평균 4.47, 표준 편차 0.24
+   - 게임공학과: 평균 4.78, 표준 편차 0.20
+   - 영화학과: 평균 5.04, 표준 편차 0.76
+7. **예술디자인체육대학**
+   - 패션디자인학과: 평균 4.46, 표준 편차 0.31
+위의 정보를 바탕으로, 5.27의 성적으로 충원 합격이 가능한 학과는 다음과 같습니다:
+- 인문사회과학대학: 중어중국학과, 영어영문학과, 평생교육·청소년상담학과, 아동학과
+- 상경대학: 금융경영학과, 재무부동산학과, 무역학과, 유통물류학과, 호텔·컨벤션경영학과, 외식경영학과
+- 의료보건생활대학: 의료경영학과, 식품영양학과
+- 공과대학: 기계공학과, 로봇자동화공학과, 자동차공학과, 조선해양공학과, 신소재공학과, 분자나노공학과, 환경공학과, 화학공학과, 응용화학과, 의생명공학과, 바이오의약공학과, 식품공학과, 인간공학과, 제품디자인공학과, 산업경영빅데이터공학과
+- ICT융합공과대학: 인공지능학과, 전기공학과, 전자공학과, 영화학과
+위 학과들은 5.27의 성적으로 충원 합격이 가능할 것으로 보입니다. 더 자세한 정보는 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 4.2라는 점수가 중간 정도의 성적이라고 언급하고 있으며, 이는 소프트웨어공학부의 평균 등급보다 낮은 성적입니다. 그러나 소스 텍스트에서는 4.2가 평균 등급보다 높은 성적이라고 명시하고 있어 사실과 다릅니다. 따라서 일부 사실이 부정확합니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 소스 텍스트의 정보와 일부 일치하지만, 4.2의 성적에 대한 해석이 상반되어 일관성이 부족합니다. 소스 텍스트는 4.2가 합격 가능성이 높다고 말하는 반면, 생성된 응답은 확률이 낮을 수 있다고 언급하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 소스 텍스트의 주제와 관련이 있으며, 소프트웨어공학부에 지원하는 데 필요한 정보와 조언을 제공합니다. 그러나 소스 텍스트의 구체적인 데이터에 대한 언급이 부족하여 약간의 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 소스 텍스트와의 연결이 약간 부족하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 4.2의 성적에 대한 해석이 소스 텍스트와 다르며, 이는 정확성에 영향을 미칩니다. 소스 텍스트의 평균 등급과 비교할 때 잘못된 정보를 제공합니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 중간 정도의 품질을 보입니다. 사실성과 일관성에서 다소 부족하지만, 관련성과 유창성은 양호합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 소스 텍스트의 맥락에 적절하게 의미를 전달하고 있으며, 전반적으로 적절한 정보와 조언을 제공합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C365" t="n">
+        <v>0.5794793642845874</v>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 4.2인데 교과로 소프트웨어공학부 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>4.2라는 점수는 중간 정도의 성적이므로, 소프트웨어공학부에 지원하는 데에는 가능성이 있지만 확률은 낮을 수 있습니다.
+소프트웨어공학부는 일반적으로 높은 경쟁률을 보이는 학과로, 특히 정시 모집에서는 고득점자들이 많이 선발됩니다. 그러나 4.2의 성적도 일부 모집단위에서 합격할 수 있는 기회가 있을 수 있습니다.
+다음 사항들을 참고하시면 도움이 될 것입니다:
+1. **모집인원과 경쟁률**: 소프트웨어공학부의 정시 모집인원을 확인하고, 현재 지원자의 수와 경쟁률을 파악하세요.
+2. **전형요소 반영비율**: 대부분의 전형에서는 수능 성적이 주요 평가 요소입니다. 4.2라는 점수는 중간 정도이므로, 다른 평가 요소들(면접 등)에서 좋은 성적을 보여야 합니다.
+3. **면접 준비**: 면접에서도 좋은 성적을 보여주어야 합니다. 지원동기와 학업계획, 전공적합성 등을 잘 준비해야 합니다.
+결론적으로 4.2의 점수로 소프트웨어공학부에 합격하는 것은 가능하지만, 경쟁률이 높아서 확실한 보장은 없습니다. 다른 평가 요소들에서 좋은 성적을 보여주고, 면접에서도 잘 준비해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>소프트웨어공학부의 최종등록자 데이터를 기준으로 보면, 소프트웨어공학부의 영어 등급 평균은 3.77이고, 수능 4개 영역 등급 평균은 4.49입니다. 
+따라서, 현재 정시 등급이 4.2라면 소프트웨어공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 화학환경공학부의 평균 등급에 대한 정보와 관련된 질문에 대해 여러 요소를 고려해야 한다고 언급하고 있지만, 원본 텍스트에서 제공된 구체적인 수치(영어 등급 평균 4.82, 수능 4개 영역 등급 평균 5.73)를 반영하지 않고 있습니다. 또한, 3.92라는 점수에 대한 직접적인 평가가 부족하여 사실성이 떨어집니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하지 않는 부분이 많습니다. 원본 텍스트는 3.92의 점수가 화학환경공학부의 평균 등급보다 높은 성적이라고 명시하고 있지만, 생성된 응답은 추가적인 정보 요청으로만 구성되어 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 화학환경공학부의 입학 가능성에 대한 질문에 대해 여러 요소를 고려해야 한다고 언급하고 있지만, 원본 텍스트의 핵심 정보(합격 가능성)에 대한 직접적인 답변이 부족하여 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 한국어로 작성된 원본 텍스트와는 다른 언어(중국어)로 작성되어 있어, 한국어 사용자에게는 다소 불편할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 요소를 나열하고 있지만, 원본 텍스트의 논리적 흐름과는 다소 동떨어져 있습니다. 원본 텍스트의 주제를 명확히 반영하지 못하고 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 구체적인 수치와 정보를 반영하지 않으며, 질문에 대한 정확한 답변을 제공하지 못하고 있습니다. 따라서 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 원본 텍스트와의 일치성이 낮고, 정보의 정확성 및 관련성이 부족하여 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 화학환경공학부의 입학 가능성에 대한 질문에 대해 적절한 맥락을 제공하려고 하지만, 원본 텍스트의 의미와는 다소 차이가 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 명확하게 작성되어 있으며, 이해하기 어렵지 않습니다. 그러나 한국어 사용자에게는 언어의 차이로 인해 다소 혼란스러울 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C366" t="n">
+        <v>0.6883860563586738</v>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 산출로 3.92 나오는데 화학환경공학부 일반학생전형 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>为了判断您能否被 화학환경공학부 (化学环境工程学部) 录取，我们需要考虑以下几个因素：
+1. **最低录取分数线**：不同专业和学院有不同的录取分数线。请确认该专业的具体分数线是多少。
+2. **您的成绩**：您提到的3.92是您的平均分吗？如果是的话，请提供具体的科目分数分布情况，以便更准确地评估。
+3. **其他要求**：除了学术成绩外，某些专业可能还有额外的要求，如面试、特长等。请确认该专业是否有这些附加条件。
+4. **招生计划和名额**：查看该专业的具体招生人数以及是否已经招满。
+如果您能提供更多详细信息（例如具体的科目分数分布情况），我可以帮助您更准确地判断您的录取可能性。同时，请访问 [https://ipsi.deu.ac.kr/main.do](https://ipsi.deu.ac.kr/main.do) 获取最新的官方信息和具体要求。</t>
+        </is>
+      </c>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>화학환경공학부의 최종등록자 데이터를 기준으로 보면, 화학환경공학부의 영어 등급 평균은 4.82이고, 수능 4개 영역 등급 평균은 5.73입니다. 
+따라서, 현재 정시 등급이 3.92라면 화학환경공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 동의대학교 화학공학과에 대한 정보를 제공하지만, 원본 텍스트에서 언급된 화학환경공학부와는 다른 학과에 대한 내용을 포함하고 있습니다. 또한, 수능 최소 합격 점수에 대한 정보가 불확실하다는 점에서 일부 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 화학공학과에 대한 정보가 포함되어 있어 일관성이 떨어집니다. 원본 텍스트는 화학환경공학부에 대한 정보에 집중하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 수능 일반학생전형과 관련된 정보를 제공하고 있으며, 질문자의 성적에 대한 평가를 포함하고 있어 관련성이 높습니다. 그러나 화학공학과에 대한 정보가 포함되어 있어 약간의 관련성 저하가 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉽게 작성되어 있습니다. 문장 구조와 표현이 매끄럽습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 전반적으로 논리적인 흐름을 가지고 있으며, 각 문장이 잘 연결되어 있습니다. 그러나 화학공학과에 대한 정보가 포함되어 있어 약간의 일관성 저하가 있습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 화학환경공학부와 화학공학과의 혼동으로 인해 정확성이 떨어집니다. 또한, 수능 최소 합격 점수에 대한 정보가 불확실하다는 점에서 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 생성된 응답은 여러 차원에서 평균적인 성과를 보이고 있지만, 원본 텍스트와의 불일치로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 질문자의 상황에 대한 적절한 의미를 전달하고 있지만, 화학공학과에 대한 정보가 포함되어 있어 약간의 의미적 부적절함이 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있습니다. 정보가 잘 전달되어 독자가 쉽게 이해할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C367" t="n">
+        <v>0.6275522786342437</v>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>동의대 화학환경공학부 원서접수 했습니다. 동의대식 정시 성적 4.25인데 수능 일반학생전형으로 가능하나요?</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 화학공학과(화학공학과 - 교직)는 공과대학에 속해 있으며, 해당 학과의 모집인원은 43명입니다. 수능 일반학생전형으로 지원할 경우, 수능 성적만을 기준으로 합격 여부를 결정합니다.
+수능 성적 반영 비율은 100%이며, 수능 점수는 국어, 수학(미적분 또는 기하), 영어 등급에 따른 점수 등을 종합적으로 평가하게 됩니다. 따라서, 정시 성적 4.25를 화학공학과의 수능 최소 합격 점수와 비교하여 판단해야 합니다.
+일반적으로, 동의대학교 화학공학과의 수능 최소 합격 점수가 공개되지 않기 때문에, 정확한 정보를 얻으려면 동의대학교 입학처 웹사이트나 전화로 문의하시는 것이 좋습니다. 하지만 일반적인 기준으로 보면, 4.25는 좋은 성적입니다.
+만약 해당 학과의 수능 최소 합격 점수가 4.0 이상이라면, 4.25는 충분히 경쟁력을 갖춘 점수로 볼 수 있습니다. 그러나 정확한 정보를 얻기 위해서는 동의대학교 입학처에 직접 문의하시는 것이 가장 좋습니다.
+추가적으로, 지원자의 전형 요소(학생부 성적, 면접 등)도 합격 여부에 영향을 미칠 수 있으므로, 모든 지원자들이 동일한 기준으로 평가되는 것은 아닙니다.</t>
+        </is>
+      </c>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>동의대학교 화학환경공학부의 수능 일반학생전형 최초합격자 데이터를 바탕으로 판단해보겠습니다.
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균: 276.61
+- 영어 등급 평균: 4.70
+- 수능 4개 영역 등급 평균: 5.59
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균: 385.99
+귀하의 성적 4.25는 최초합격자의 평균값보다 높으므로 합격 가능성이 높은 것으로 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 4.2라는 점수가 일반적으로 좋은 성적이라는 점을 언급하고 있으며, 합격 가능성에 대한 여러 요소를 고려하고 있습니다. 그러나 구체적인 수치나 기준에 대한 언급이 부족하여 완전한 정확성을 보장하지는 않습니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일관되게 여러 요소를 설명하고 있습니다. 다만, 일부 세부 사항에서 원본 텍스트와의 일치성이 떨어질 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 내용을 잘 다루고 있으며, 질문자의 상황에 적절한 정보를 제공합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적인 흐름을 가지고 있으며, 각 요소가 잘 연결되어 있습니다. 그러나 일부 부분에서 더 명확한 연결이 필요할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 응답은 전반적으로 정확한 정보를 제공하고 있으나, 특정 세부 사항에 대한 명확한 수치나 기준이 부족하여 완전한 정확성을 보장하지는 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행하고 있으며, 전반적으로 높은 점수를 기록하고 있습니다. 그러나 일부 세부 사항에서 개선의 여지가 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하고 있으나, 일부 표현에서 더 명확한 의미 전달이 필요할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문장이 복잡하게 느껴질 수 있어 더 간결하게 표현될 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C368" t="n">
+        <v>0.672865468954051</v>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>이번에 정시전형으로 영화학과 지원했습니다. 정시 성적이 4.2정도 나왔는데 합격 할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>4.2라는 점수는 일반적으로 좋은 성적입니다만, 실제 합격 가능성은 여러 요소에 따라 달라질 수 있습니다.
+1. **전형 방식**: 영화학과의 정시 전형 방식을 확인해야 합니다. 만약 나군(일반학생전형)이라면, 수능 4개 영역 중 상위 3개 영역의 표준점수 및 등급점수를 합산한 점수 ÷ 2가 반영됩니다.
+2. **성적 산출**: 
+   - 국어, 수학, 영어, 탐구 중 상위 3개 영역을 선택하여 평균을 구합니다.
+   - 예를 들어, 국어: 90점, 수학: 85점, 영어: 75점, 탐구: 65점이라면 (90 + 85 + 75) / 3 = 80점이 됩니다.
+3. **경쟁률**: 영화학과의 경쟁률을 확인해야 합니다. 경쟁률이 높다면, 평균적인 점수보다 조금 더 높은 점수가 필요할 수 있습니다.
+4. **추가 요소**: 일부 학교에서는 면접이나 서류평가 등 추가 요소를 고려하기도 하므로, 이 부분을 참고해야 합니다.
+5. **대학별 차이**: 각 대학마다 전형 방식과 기준이 다릅니다. 따라서, 해당 대학의 정시 전형 방식을 꼭 확인해보세요.
+만약 영화학과가 나군(일반학생전형)이라면, 4.2라는 점수는 상위권에 속합니다. 그러나 경쟁률이 높다면, 조금 더 높은 점수가 필요할 수 있습니다. 따라서 최종 합격 가능성은 정확한 정보를 바탕으로 판단해야 합니다.
+추가적으로, 대학의 공식 홈페이지나 입학처와 연락하여 자세한 정보를 확인하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>영화학과의 2024학년도 수능(일반학생전형) 최종등록자의 평균 성적을 보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 286.77 (표준 편차: 17.29)
+- 영어 등급: 3.66 (표준 편차: 1.24)
+- 수능 4개 영역 등급: 5.04 (표준 편차: 0.76)
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 404.43 (표준 편차: 27.09)
+이를 통해, 귀하의 정시 성적이 4.2정도라면 영화학과에 합격할 가능성이 존재한다고 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Qwen2.5-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 면접 절차를 정확하게 반영하고 있으며, 추가된 정보도 사실에 기반하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트와 일관되며, 추가된 내용이 원본의 정보와 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 설명: 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C369" t="n">
+        <v>0.7549743911478451</v>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>면접 절차를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답 (제출서류 진위 여부 등)
+8. 퇴실
+이 절차는 모든 면접 참여자가 동일하게 진행되며, 블라인드 면접 방식으로 진행됩니다. 즉, 면접위원들은 수험생의 개인 정보를 알 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
